--- a/Modding resources/economy spreadsheets/size_modifier.xlsx
+++ b/Modding resources/economy spreadsheets/size_modifier.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="972" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -181,9 +181,21 @@
     <t>Europe - 44 Countries</t>
   </si>
   <si>
+    <t>Mil industry</t>
+  </si>
+  <si>
+    <t>naval</t>
+  </si>
+  <si>
+    <t>biofuel &amp; reserves</t>
+  </si>
+  <si>
     <t>Germany</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>England</t>
   </si>
   <si>
@@ -203,9 +215,6 @@
   </si>
   <si>
     <t>Sweden</t>
-  </si>
-  <si>
-    <t>ok</t>
   </si>
   <si>
     <t>Romania</t>
@@ -452,11 +461,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="[$kr-414]\ #,##0.00;[RED]\-[$kr-414]\ #,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -478,25 +486,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="162"/>
     </font>
     <font>
       <sz val="11"/>
@@ -532,7 +521,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -556,22 +545,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -582,30 +555,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading 1" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading1 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result 3" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result2 4" xfId="23" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -615,35 +584,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T295"/>
+  <dimension ref="A1:T305"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
+      <selection pane="bottomLeft" activeCell="G49" activeCellId="0" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.953488372093"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.16744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.3209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.24651162790698"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.8"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.9348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.8604651162791"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.8"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="1" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="12.0604651162791"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="3.56744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.693023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.353488372093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="1" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="12.306976744186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="3.69302325581395"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.96744186046512"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="13.293023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,7 +1605,7 @@
       <c r="S37" s="0"/>
       <c r="T37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>52</v>
       </c>
@@ -1644,9 +1613,15 @@
       <c r="C38" s="0"/>
       <c r="D38" s="0"/>
       <c r="E38" s="0"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
+      <c r="F38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>55</v>
+      </c>
       <c r="I38" s="0"/>
       <c r="J38" s="0"/>
       <c r="K38" s="0"/>
@@ -1662,7 +1637,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>17</v>
@@ -1720,1009 +1695,1049 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>28.681541038526</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>1466</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>2140.36</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>0.717038525963149</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>2985</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>0.0817808219178082</v>
-      </c>
-      <c r="K40" s="2" t="n">
-        <v>2.04452054794521</v>
-      </c>
-      <c r="L40" s="2" t="n">
-        <v>74.625</v>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>0.204452054794521</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>8.17808219178082</v>
-      </c>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" s="0"/>
-      <c r="P40" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" s="2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="R40" s="2" t="n">
-        <v>49.275</v>
-      </c>
-      <c r="S40" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="T40" s="2" t="n">
-        <v>0.54</v>
-      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="0"/>
+        <v>58</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C41" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D41" s="0"/>
+      <c r="D41" s="2" t="n">
+        <v>28.681541038526</v>
+      </c>
       <c r="E41" s="2" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1579</v>
-      </c>
-      <c r="G41" s="0"/>
+        <v>1466</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>2140.36</v>
+      </c>
       <c r="H41" s="2" t="n">
-        <v>0.536345108695652</v>
+        <v>0.717038525963149</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>2944</v>
-      </c>
-      <c r="J41" s="0"/>
-      <c r="K41" s="0"/>
-      <c r="L41" s="0"/>
-      <c r="M41" s="0"/>
-      <c r="N41" s="0"/>
+        <v>2985</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>0.0817808219178082</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>2.04452054794521</v>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v>74.625</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>0.204452054794521</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>8.17808219178082</v>
+      </c>
       <c r="O41" s="0"/>
-      <c r="P41" s="0"/>
-      <c r="Q41" s="0"/>
-      <c r="R41" s="0"/>
-      <c r="S41" s="0"/>
-      <c r="T41" s="0"/>
+      <c r="P41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="R41" s="2" t="n">
+        <v>49.275</v>
+      </c>
+      <c r="S41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" s="2" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>28.4098097251586</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D42" s="0"/>
       <c r="E42" s="2" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>1534</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>2239.64</v>
-      </c>
+        <v>1579</v>
+      </c>
+      <c r="G42" s="0"/>
       <c r="H42" s="2" t="n">
-        <v>0.946993657505285</v>
+        <v>0.536345108695652</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>2365</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>0.0647945205479452</v>
-      </c>
-      <c r="K42" s="2" t="n">
-        <v>1.61986301369863</v>
-      </c>
-      <c r="L42" s="2" t="n">
-        <v>78.8333333333333</v>
-      </c>
-      <c r="M42" s="2" t="n">
-        <v>0.215981735159817</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>6.47945205479452</v>
-      </c>
+        <v>2944</v>
+      </c>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0"/>
+      <c r="L42" s="0"/>
+      <c r="M42" s="0"/>
+      <c r="N42" s="0"/>
       <c r="O42" s="0"/>
-      <c r="P42" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R42" s="2" t="n">
-        <v>107.675</v>
-      </c>
-      <c r="S42" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="T42" s="2" t="n">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="P42" s="0"/>
+      <c r="Q42" s="0"/>
+      <c r="R42" s="0"/>
+      <c r="S42" s="0"/>
+      <c r="T42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2"/>
+      <c r="B43" s="0"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>18.0116974972797</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="F43" s="2" t="n">
-        <v>907</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>1324.22</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>0.720467899891186</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>1838</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>0.0503561643835616</v>
-      </c>
-      <c r="K43" s="2" t="n">
-        <v>1.25890410958904</v>
-      </c>
-      <c r="L43" s="2" t="n">
-        <v>73.52</v>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>0.201424657534247</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>5.03561643835616</v>
-      </c>
+      <c r="H43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="0"/>
+      <c r="N43" s="0"/>
       <c r="O43" s="0"/>
-      <c r="P43" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q43" s="2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R43" s="2" t="n">
-        <v>127.75</v>
-      </c>
-      <c r="S43" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="T43" s="2" t="n">
-        <v>1.4</v>
-      </c>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
+      <c r="S43" s="0"/>
+      <c r="T43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>9.36646153846154</v>
+        <v>28.4098097251586</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>417</v>
+        <v>1534</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>608.82</v>
+        <v>2239.64</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>0.520358974358974</v>
+        <v>0.946993657505285</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>1170</v>
+        <v>2365</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>0.0320547945205479</v>
+        <v>0.0647945205479452</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>0.801369863013699</v>
+        <v>1.61986301369863</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>65</v>
+        <v>78.8333333333333</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>0.178082191780822</v>
+        <v>0.215981735159817</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>3.20547945205479</v>
+        <v>6.47945205479452</v>
       </c>
       <c r="O44" s="0"/>
       <c r="P44" s="2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>1.62</v>
+        <v>1.18</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>147.825</v>
+        <v>107.675</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T44" s="2" t="n">
-        <v>1.62</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>11.4946031746032</v>
+        <v>18.0116974972797</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>496</v>
+        <v>907</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>724.16</v>
+        <v>1324.22</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>0.766306878306878</v>
+        <v>0.720467899891186</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>945</v>
+        <v>1838</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>0.0258904109589041</v>
+        <v>0.0503561643835616</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>0.647260273972603</v>
+        <v>1.25890410958904</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>63</v>
+        <v>73.52</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>0.172602739726027</v>
+        <v>0.201424657534247</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>2.58904109589041</v>
+        <v>5.03561643835616</v>
       </c>
       <c r="O45" s="0"/>
       <c r="P45" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>1.84</v>
+        <v>1.4</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>167.9</v>
+        <v>127.75</v>
       </c>
       <c r="S45" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T45" s="2" t="n">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>7.33567669172932</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>243</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>354.78</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>0.66687969924812</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>532</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>0.0145753424657534</v>
-      </c>
-      <c r="K46" s="2" t="n">
-        <v>0.364383561643836</v>
-      </c>
-      <c r="L46" s="2" t="n">
-        <v>48.3636363636364</v>
-      </c>
-      <c r="M46" s="2" t="n">
-        <v>0.132503113325031</v>
-      </c>
-      <c r="N46" s="2" t="n">
-        <v>1.45753424657534</v>
-      </c>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" s="0"/>
-      <c r="P46" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q46" s="2" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="R46" s="2" t="n">
-        <v>268.275</v>
-      </c>
-      <c r="S46" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="T46" s="2" t="n">
-        <v>2.94</v>
-      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>61</v>
+      <c r="B47" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>5.49336016096579</v>
+        <v>9.36646153846154</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>170</v>
+        <v>417</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>248.2</v>
+        <v>608.82</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>0.499396378269618</v>
-      </c>
-      <c r="I47" s="4" t="n">
-        <v>497</v>
+        <v>0.520358974358974</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>1170</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>0.0136164383561644</v>
+        <v>0.0320547945205479</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>0.34041095890411</v>
+        <v>0.801369863013699</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>45.1818181818182</v>
+        <v>65</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>0.123785803237858</v>
+        <v>0.178082191780822</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>1.36164383561644</v>
+        <v>3.20547945205479</v>
       </c>
       <c r="O47" s="0"/>
       <c r="P47" s="2" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>3.16</v>
+        <v>1.62</v>
       </c>
       <c r="R47" s="2" t="n">
-        <v>288.35</v>
+        <v>147.825</v>
       </c>
       <c r="S47" s="2" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="T47" s="2" t="n">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>4.68855670103093</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>178</v>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>259.88</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>0.66979381443299</v>
-      </c>
-      <c r="I48" s="4" t="n">
-        <v>388</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>0.0106301369863014</v>
-      </c>
-      <c r="K48" s="2" t="n">
-        <v>0.265753424657534</v>
-      </c>
-      <c r="L48" s="2" t="n">
-        <v>55.4285714285714</v>
-      </c>
-      <c r="M48" s="2" t="n">
-        <v>0.151859099804305</v>
-      </c>
-      <c r="N48" s="2" t="n">
-        <v>1.06301369863014</v>
-      </c>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" s="0"/>
-      <c r="P48" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q48" s="2" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="R48" s="2" t="n">
-        <v>408.8</v>
-      </c>
-      <c r="S48" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="T48" s="2" t="n">
-        <v>4.48</v>
-      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>5.38658385093168</v>
+        <v>11.4946031746032</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>198</v>
+        <v>496</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>289.08</v>
+        <v>724.16</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>0.89776397515528</v>
-      </c>
-      <c r="I49" s="4" t="n">
-        <v>322</v>
+        <v>0.766306878306878</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>945</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>0.00882191780821918</v>
+        <v>0.0258904109589041</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>0.220547945205479</v>
+        <v>0.647260273972603</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>53.6666666666667</v>
+        <v>63</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>0.14703196347032</v>
+        <v>0.172602739726027</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>0.882191780821918</v>
+        <v>2.58904109589041</v>
       </c>
       <c r="O49" s="0"/>
       <c r="P49" s="2" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>5.14</v>
+        <v>1.84</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>469.025</v>
+        <v>167.9</v>
       </c>
       <c r="S49" s="2" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="T49" s="2" t="n">
-        <v>5.14</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>4.45881748071979</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>198</v>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>289.08</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>0.743136246786632</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>389</v>
-      </c>
-      <c r="J50" s="2" t="n">
-        <v>0.0106575342465753</v>
-      </c>
-      <c r="K50" s="2" t="n">
-        <v>0.266438356164384</v>
-      </c>
-      <c r="L50" s="2" t="n">
-        <v>64.8333333333333</v>
-      </c>
-      <c r="M50" s="2" t="n">
-        <v>0.177625570776256</v>
-      </c>
-      <c r="N50" s="2" t="n">
-        <v>1.06575342465753</v>
-      </c>
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" s="0"/>
-      <c r="P50" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q50" s="2" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="R50" s="2" t="n">
-        <v>489.1</v>
-      </c>
-      <c r="S50" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="T50" s="2" t="n">
-        <v>5.36</v>
-      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>4.97519163763066</v>
+        <v>7.33567669172932</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>237.98</v>
+        <v>354.78</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>0.829198606271777</v>
+        <v>0.66687969924812</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>287</v>
+        <v>532</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>0.00786301369863014</v>
+        <v>0.0145753424657534</v>
       </c>
       <c r="K51" s="2" t="n">
-        <v>0.196575342465753</v>
+        <v>0.364383561643836</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>47.8333333333333</v>
+        <v>48.3636363636364</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>0.131050228310502</v>
+        <v>0.132503113325031</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>0.786301369863014</v>
+        <v>1.45753424657534</v>
       </c>
       <c r="O51" s="0"/>
       <c r="P51" s="2" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>5.58</v>
+        <v>2.94</v>
       </c>
       <c r="R51" s="2" t="n">
-        <v>509.175</v>
+        <v>268.275</v>
       </c>
       <c r="S51" s="2" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="T51" s="2" t="n">
-        <v>5.58</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="0"/>
+        <v>65</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>57</v>
+      </c>
       <c r="C52" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>6.08823266219239</v>
+        <v>5.49336016096579</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>6</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>340.18</v>
+        <v>248.2</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>0.761029082774049</v>
+        <v>0.499396378269618</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>0.0122465753424658</v>
+        <v>0.0136164383561644</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>0.306164383561644</v>
+        <v>0.34041095890411</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>55.875</v>
+        <v>45.1818181818182</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>0.153082191780822</v>
+        <v>0.123785803237858</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>1.22465753424658</v>
+        <v>1.36164383561644</v>
       </c>
       <c r="O52" s="0"/>
       <c r="P52" s="2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>4.04</v>
+        <v>3.16</v>
       </c>
       <c r="R52" s="2" t="n">
-        <v>368.65</v>
+        <v>288.35</v>
       </c>
       <c r="S52" s="2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="T52" s="2" t="n">
-        <v>4.04</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0"/>
-      <c r="F53" s="0"/>
-      <c r="G53" s="0"/>
-      <c r="H53" s="0"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="0"/>
-      <c r="K53" s="0"/>
-      <c r="L53" s="0"/>
-      <c r="M53" s="0"/>
-      <c r="N53" s="0"/>
+        <v>66</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>4.68855670103093</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>259.88</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>0.66979381443299</v>
+      </c>
+      <c r="I53" s="4" t="n">
+        <v>388</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>0.0106301369863014</v>
+      </c>
+      <c r="K53" s="2" t="n">
+        <v>0.265753424657534</v>
+      </c>
+      <c r="L53" s="2" t="n">
+        <v>55.4285714285714</v>
+      </c>
+      <c r="M53" s="2" t="n">
+        <v>0.151859099804305</v>
+      </c>
+      <c r="N53" s="2" t="n">
+        <v>1.06301369863014</v>
+      </c>
       <c r="O53" s="0"/>
-      <c r="P53" s="0"/>
-      <c r="Q53" s="0"/>
-      <c r="R53" s="0"/>
-      <c r="S53" s="0"/>
-      <c r="T53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="P53" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q53" s="2" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="R53" s="2" t="n">
+        <v>408.8</v>
+      </c>
+      <c r="S53" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="T53" s="2" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2"/>
       <c r="B54" s="0"/>
-      <c r="C54" s="0"/>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
-      <c r="F54" s="0"/>
-      <c r="G54" s="0"/>
-      <c r="H54" s="0"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="I54" s="4"/>
-      <c r="J54" s="0"/>
-      <c r="K54" s="0"/>
-      <c r="L54" s="0"/>
-      <c r="M54" s="0"/>
-      <c r="N54" s="0"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" s="0"/>
-      <c r="P54" s="0"/>
-      <c r="Q54" s="0"/>
-      <c r="R54" s="0"/>
-      <c r="S54" s="0"/>
-      <c r="T54" s="0"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
-      <c r="D55" s="0"/>
-      <c r="E55" s="0"/>
-      <c r="F55" s="0"/>
-      <c r="G55" s="0"/>
-      <c r="H55" s="0"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="0"/>
-      <c r="K55" s="0"/>
-      <c r="L55" s="0"/>
-      <c r="M55" s="0"/>
-      <c r="N55" s="0"/>
+        <v>67</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>5.38658385093168</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>289.08</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>0.89776397515528</v>
+      </c>
+      <c r="I55" s="4" t="n">
+        <v>322</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>0.00882191780821918</v>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>0.220547945205479</v>
+      </c>
+      <c r="L55" s="2" t="n">
+        <v>53.6666666666667</v>
+      </c>
+      <c r="M55" s="2" t="n">
+        <v>0.14703196347032</v>
+      </c>
+      <c r="N55" s="2" t="n">
+        <v>0.882191780821918</v>
+      </c>
       <c r="O55" s="0"/>
-      <c r="P55" s="0"/>
-      <c r="Q55" s="0"/>
-      <c r="R55" s="0"/>
-      <c r="S55" s="0"/>
-      <c r="T55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="P55" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q55" s="2" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="R55" s="2" t="n">
+        <v>469.025</v>
+      </c>
+      <c r="S55" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="T55" s="2" t="n">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2"/>
       <c r="B56" s="0"/>
-      <c r="C56" s="0"/>
-      <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
-      <c r="G56" s="0"/>
-      <c r="H56" s="0"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="I56" s="4"/>
-      <c r="J56" s="0"/>
-      <c r="K56" s="0"/>
-      <c r="L56" s="0"/>
-      <c r="M56" s="0"/>
-      <c r="N56" s="0"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" s="0"/>
-      <c r="P56" s="0"/>
-      <c r="Q56" s="0"/>
-      <c r="R56" s="0"/>
-      <c r="S56" s="0"/>
-      <c r="T56" s="0"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="0"/>
-      <c r="C57" s="0"/>
-      <c r="D57" s="0"/>
-      <c r="E57" s="0"/>
-      <c r="F57" s="0"/>
-      <c r="G57" s="0"/>
-      <c r="H57" s="0"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="0"/>
-      <c r="K57" s="0"/>
-      <c r="L57" s="0"/>
-      <c r="M57" s="0"/>
-      <c r="N57" s="0"/>
+        <v>68</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>4.45881748071979</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>289.08</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>0.743136246786632</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>389</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>0.0106575342465753</v>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>0.266438356164384</v>
+      </c>
+      <c r="L57" s="2" t="n">
+        <v>64.8333333333333</v>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>0.177625570776256</v>
+      </c>
+      <c r="N57" s="2" t="n">
+        <v>1.06575342465753</v>
+      </c>
       <c r="O57" s="0"/>
-      <c r="P57" s="0"/>
-      <c r="Q57" s="0"/>
-      <c r="R57" s="0"/>
-      <c r="S57" s="0"/>
-      <c r="T57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="P57" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q57" s="2" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="R57" s="2" t="n">
+        <v>489.1</v>
+      </c>
+      <c r="S57" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="T57" s="2" t="n">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2"/>
       <c r="B58" s="0"/>
-      <c r="C58" s="0"/>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
-      <c r="F58" s="0"/>
-      <c r="G58" s="0"/>
-      <c r="H58" s="0"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="0"/>
-      <c r="K58" s="0"/>
-      <c r="L58" s="0"/>
-      <c r="M58" s="0"/>
-      <c r="N58" s="0"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" s="0"/>
-      <c r="P58" s="0"/>
-      <c r="Q58" s="0"/>
-      <c r="R58" s="0"/>
-      <c r="S58" s="0"/>
-      <c r="T58" s="0"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="0"/>
-      <c r="C59" s="0"/>
-      <c r="D59" s="0"/>
-      <c r="E59" s="0"/>
-      <c r="F59" s="0"/>
-      <c r="G59" s="0"/>
-      <c r="H59" s="0"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="0"/>
-      <c r="K59" s="0"/>
-      <c r="L59" s="0"/>
-      <c r="M59" s="0"/>
-      <c r="N59" s="0"/>
+        <v>69</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>4.97519163763066</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>237.98</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>0.829198606271777</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>287</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>0.00786301369863014</v>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>0.196575342465753</v>
+      </c>
+      <c r="L59" s="2" t="n">
+        <v>47.8333333333333</v>
+      </c>
+      <c r="M59" s="2" t="n">
+        <v>0.131050228310502</v>
+      </c>
+      <c r="N59" s="2" t="n">
+        <v>0.786301369863014</v>
+      </c>
       <c r="O59" s="0"/>
-      <c r="P59" s="0"/>
-      <c r="Q59" s="0"/>
-      <c r="R59" s="0"/>
-      <c r="S59" s="0"/>
-      <c r="T59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="P59" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q59" s="2" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="R59" s="2" t="n">
+        <v>509.175</v>
+      </c>
+      <c r="S59" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="T59" s="2" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2"/>
       <c r="B60" s="0"/>
-      <c r="C60" s="0"/>
-      <c r="D60" s="0"/>
-      <c r="E60" s="0"/>
-      <c r="F60" s="0"/>
-      <c r="G60" s="0"/>
-      <c r="H60" s="0"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="0"/>
-      <c r="K60" s="0"/>
-      <c r="L60" s="0"/>
-      <c r="M60" s="0"/>
-      <c r="N60" s="0"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" s="0"/>
-      <c r="P60" s="0"/>
-      <c r="Q60" s="0"/>
-      <c r="R60" s="0"/>
-      <c r="S60" s="0"/>
-      <c r="T60" s="0"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B61" s="0"/>
-      <c r="C61" s="0"/>
-      <c r="D61" s="0"/>
-      <c r="E61" s="0"/>
-      <c r="F61" s="0"/>
-      <c r="G61" s="0"/>
-      <c r="H61" s="0"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="0"/>
-      <c r="K61" s="0"/>
-      <c r="L61" s="0"/>
-      <c r="M61" s="0"/>
-      <c r="N61" s="0"/>
+      <c r="C61" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>6.08823266219239</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>340.18</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>0.761029082774049</v>
+      </c>
+      <c r="I61" s="4" t="n">
+        <v>447</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>0.0122465753424658</v>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>0.306164383561644</v>
+      </c>
+      <c r="L61" s="2" t="n">
+        <v>55.875</v>
+      </c>
+      <c r="M61" s="2" t="n">
+        <v>0.153082191780822</v>
+      </c>
+      <c r="N61" s="2" t="n">
+        <v>1.22465753424658</v>
+      </c>
       <c r="O61" s="0"/>
-      <c r="P61" s="0"/>
-      <c r="Q61" s="0"/>
-      <c r="R61" s="0"/>
-      <c r="S61" s="0"/>
-      <c r="T61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="P61" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q61" s="2" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="R61" s="2" t="n">
+        <v>368.65</v>
+      </c>
+      <c r="S61" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="T61" s="2" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2"/>
       <c r="B62" s="0"/>
-      <c r="C62" s="0"/>
-      <c r="D62" s="0"/>
-      <c r="E62" s="0"/>
-      <c r="F62" s="0"/>
-      <c r="G62" s="0"/>
-      <c r="H62" s="0"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="I62" s="4"/>
-      <c r="J62" s="0"/>
-      <c r="K62" s="0"/>
-      <c r="L62" s="0"/>
-      <c r="M62" s="0"/>
-      <c r="N62" s="0"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" s="0"/>
-      <c r="P62" s="0"/>
-      <c r="Q62" s="0"/>
-      <c r="R62" s="0"/>
-      <c r="S62" s="0"/>
-      <c r="T62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B63" s="0"/>
-      <c r="C63" s="0"/>
+      <c r="C63" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="D63" s="0"/>
-      <c r="E63" s="0"/>
-      <c r="F63" s="0"/>
-      <c r="G63" s="0"/>
-      <c r="H63" s="0"/>
+      <c r="E63" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>57</v>
+      </c>
       <c r="I63" s="4"/>
       <c r="J63" s="0"/>
       <c r="K63" s="0"/>
@@ -2738,7 +2753,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B64" s="0"/>
       <c r="C64" s="0"/>
@@ -2762,7 +2777,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B65" s="0"/>
       <c r="C65" s="0"/>
@@ -2786,65 +2801,31 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B66" s="0"/>
-      <c r="C66" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>2.4645871559633</v>
-      </c>
-      <c r="E66" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F66" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="G66" s="2" t="n">
-        <v>67.16</v>
-      </c>
-      <c r="H66" s="2" t="n">
-        <v>0.616146788990826</v>
-      </c>
-      <c r="I66" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="J66" s="2" t="n">
-        <v>0.00298630136986301</v>
-      </c>
-      <c r="K66" s="2" t="n">
-        <v>0.0746575342465753</v>
-      </c>
-      <c r="L66" s="2" t="n">
-        <v>27.25</v>
-      </c>
-      <c r="M66" s="2" t="n">
-        <v>0.0746575342465753</v>
-      </c>
-      <c r="N66" s="2" t="n">
-        <v>0.298630136986301</v>
-      </c>
+      <c r="C66" s="0"/>
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+      <c r="G66" s="0"/>
+      <c r="H66" s="0"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="0"/>
+      <c r="K66" s="0"/>
+      <c r="L66" s="0"/>
+      <c r="M66" s="0"/>
+      <c r="N66" s="0"/>
       <c r="O66" s="0"/>
-      <c r="P66" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q66" s="2" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="R66" s="2" t="n">
-        <v>589.475</v>
-      </c>
-      <c r="S66" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="T66" s="2" t="n">
-        <v>6.46</v>
-      </c>
+      <c r="P66" s="0"/>
+      <c r="Q66" s="0"/>
+      <c r="R66" s="0"/>
+      <c r="S66" s="0"/>
+      <c r="T66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B67" s="0"/>
       <c r="C67" s="0"/>
@@ -2868,7 +2849,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B68" s="0"/>
       <c r="C68" s="0"/>
@@ -2892,7 +2873,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B69" s="0"/>
       <c r="C69" s="0"/>
@@ -2916,7 +2897,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B70" s="0"/>
       <c r="C70" s="0"/>
@@ -2940,15 +2921,27 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" s="0"/>
-      <c r="C71" s="0"/>
+        <v>79</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="D71" s="0"/>
-      <c r="E71" s="0"/>
-      <c r="F71" s="0"/>
-      <c r="G71" s="0"/>
-      <c r="H71" s="0"/>
+      <c r="E71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>57</v>
+      </c>
       <c r="I71" s="4"/>
       <c r="J71" s="0"/>
       <c r="K71" s="0"/>
@@ -2964,7 +2957,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B72" s="0"/>
       <c r="C72" s="0"/>
@@ -2988,7 +2981,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B73" s="0"/>
       <c r="C73" s="0"/>
@@ -3012,7 +3005,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B74" s="0"/>
       <c r="C74" s="0"/>
@@ -3036,7 +3029,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B75" s="0"/>
       <c r="C75" s="0"/>
@@ -3060,89 +3053,89 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B76" s="0"/>
-      <c r="C76" s="0"/>
-      <c r="D76" s="0"/>
-      <c r="E76" s="0"/>
-      <c r="F76" s="0"/>
-      <c r="G76" s="0"/>
-      <c r="H76" s="0"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="0"/>
-      <c r="K76" s="0"/>
-      <c r="L76" s="0"/>
-      <c r="M76" s="0"/>
-      <c r="N76" s="0"/>
+      <c r="C76" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>2.4645871559633</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>67.16</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>0.616146788990826</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="J76" s="2" t="n">
+        <v>0.00298630136986301</v>
+      </c>
+      <c r="K76" s="2" t="n">
+        <v>0.0746575342465753</v>
+      </c>
+      <c r="L76" s="2" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="M76" s="2" t="n">
+        <v>0.0746575342465753</v>
+      </c>
+      <c r="N76" s="2" t="n">
+        <v>0.298630136986301</v>
+      </c>
       <c r="O76" s="0"/>
-      <c r="P76" s="0"/>
-      <c r="Q76" s="0"/>
-      <c r="R76" s="0"/>
-      <c r="S76" s="0"/>
-      <c r="T76" s="0"/>
+      <c r="P76" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q76" s="2" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="R76" s="2" t="n">
+        <v>589.475</v>
+      </c>
+      <c r="S76" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="T76" s="2" t="n">
+        <v>6.46</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B77" s="0"/>
-      <c r="C77" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D77" s="2" t="n">
-        <v>1.04285714285714</v>
-      </c>
-      <c r="E77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F77" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G77" s="2" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="H77" s="2" t="n">
-        <v>0.521428571428571</v>
-      </c>
-      <c r="I77" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="J77" s="2" t="n">
-        <v>0.00115068493150685</v>
-      </c>
-      <c r="K77" s="2" t="n">
-        <v>0.0287671232876712</v>
-      </c>
-      <c r="L77" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="M77" s="2" t="n">
-        <v>0.0575342465753425</v>
-      </c>
-      <c r="N77" s="2" t="n">
-        <v>0.115068493150685</v>
-      </c>
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+      <c r="G77" s="0"/>
+      <c r="H77" s="0"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="0"/>
+      <c r="K77" s="0"/>
+      <c r="L77" s="0"/>
+      <c r="M77" s="0"/>
+      <c r="N77" s="0"/>
       <c r="O77" s="0"/>
-      <c r="P77" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q77" s="2" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="R77" s="2" t="n">
-        <v>649.7</v>
-      </c>
-      <c r="S77" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="T77" s="2" t="n">
-        <v>7.12</v>
-      </c>
+      <c r="P77" s="0"/>
+      <c r="Q77" s="0"/>
+      <c r="R77" s="0"/>
+      <c r="S77" s="0"/>
+      <c r="T77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B78" s="0"/>
       <c r="C78" s="0"/>
@@ -3166,16 +3159,16 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B79" s="0"/>
       <c r="C79" s="0"/>
       <c r="D79" s="0"/>
       <c r="E79" s="0"/>
-      <c r="F79" s="4"/>
+      <c r="F79" s="0"/>
       <c r="G79" s="0"/>
       <c r="H79" s="0"/>
-      <c r="I79" s="0"/>
+      <c r="I79" s="4"/>
       <c r="J79" s="0"/>
       <c r="K79" s="0"/>
       <c r="L79" s="0"/>
@@ -3190,16 +3183,16 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B80" s="0"/>
       <c r="C80" s="0"/>
       <c r="D80" s="0"/>
       <c r="E80" s="0"/>
-      <c r="F80" s="4"/>
+      <c r="F80" s="0"/>
       <c r="G80" s="0"/>
       <c r="H80" s="0"/>
-      <c r="I80" s="0"/>
+      <c r="I80" s="4"/>
       <c r="J80" s="0"/>
       <c r="K80" s="0"/>
       <c r="L80" s="0"/>
@@ -3214,16 +3207,16 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B81" s="0"/>
       <c r="C81" s="0"/>
       <c r="D81" s="0"/>
       <c r="E81" s="0"/>
-      <c r="F81" s="4"/>
+      <c r="F81" s="0"/>
       <c r="G81" s="0"/>
       <c r="H81" s="0"/>
-      <c r="I81" s="0"/>
+      <c r="I81" s="4"/>
       <c r="J81" s="0"/>
       <c r="K81" s="0"/>
       <c r="L81" s="0"/>
@@ -3238,16 +3231,16 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B82" s="0"/>
       <c r="C82" s="0"/>
       <c r="D82" s="0"/>
       <c r="E82" s="0"/>
-      <c r="F82" s="4"/>
+      <c r="F82" s="0"/>
       <c r="G82" s="0"/>
       <c r="H82" s="0"/>
-      <c r="I82" s="0"/>
+      <c r="I82" s="4"/>
       <c r="J82" s="0"/>
       <c r="K82" s="0"/>
       <c r="L82" s="0"/>
@@ -3261,15 +3254,17 @@
       <c r="T82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0"/>
+      <c r="A83" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="B83" s="0"/>
       <c r="C83" s="0"/>
       <c r="D83" s="0"/>
       <c r="E83" s="0"/>
-      <c r="F83" s="4"/>
+      <c r="F83" s="0"/>
       <c r="G83" s="0"/>
       <c r="H83" s="0"/>
-      <c r="I83" s="0"/>
+      <c r="I83" s="4"/>
       <c r="J83" s="0"/>
       <c r="K83" s="0"/>
       <c r="L83" s="0"/>
@@ -3283,17 +3278,17 @@
       <c r="T83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
-        <v>98</v>
+      <c r="A84" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B84" s="0"/>
       <c r="C84" s="0"/>
       <c r="D84" s="0"/>
       <c r="E84" s="0"/>
-      <c r="F84" s="4"/>
+      <c r="F84" s="0"/>
       <c r="G84" s="0"/>
       <c r="H84" s="0"/>
-      <c r="I84" s="0"/>
+      <c r="I84" s="4"/>
       <c r="J84" s="0"/>
       <c r="K84" s="0"/>
       <c r="L84" s="0"/>
@@ -3308,186 +3303,114 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>175</v>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>27.7898660749663</v>
-      </c>
-      <c r="E85" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="F85" s="2" t="n">
-        <v>3336</v>
-      </c>
-      <c r="G85" s="2" t="n">
-        <v>4870.56</v>
-      </c>
-      <c r="H85" s="2" t="n">
-        <v>0.192985181076155</v>
-      </c>
-      <c r="I85" s="2" t="n">
-        <v>25238</v>
-      </c>
-      <c r="J85" s="2" t="n">
-        <v>0.691452054794521</v>
-      </c>
-      <c r="K85" s="2" t="n">
-        <v>17.286301369863</v>
-      </c>
-      <c r="L85" s="2" t="n">
-        <v>175.263888888889</v>
-      </c>
-      <c r="M85" s="2" t="n">
-        <v>0.48017503805175</v>
-      </c>
-      <c r="N85" s="2" t="n">
-        <v>69.1452054794521</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="P85" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R85" s="2" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="S85" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T85" s="2" t="n">
-        <v>0.08</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B85" s="0"/>
+      <c r="C85" s="0"/>
+      <c r="D85" s="0"/>
+      <c r="E85" s="0"/>
+      <c r="F85" s="0"/>
+      <c r="G85" s="0"/>
+      <c r="H85" s="0"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="0"/>
+      <c r="K85" s="0"/>
+      <c r="L85" s="0"/>
+      <c r="M85" s="0"/>
+      <c r="N85" s="0"/>
+      <c r="O85" s="0"/>
+      <c r="P85" s="0"/>
+      <c r="Q85" s="0"/>
+      <c r="R85" s="0"/>
+      <c r="S85" s="0"/>
+      <c r="T85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>65.5280369515012</v>
-      </c>
-      <c r="E86" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="F86" s="2" t="n">
-        <v>3239</v>
-      </c>
-      <c r="G86" s="2" t="n">
-        <v>4728.94</v>
-      </c>
-      <c r="H86" s="2" t="n">
-        <v>0.910111624326405</v>
-      </c>
-      <c r="I86" s="2" t="n">
-        <v>5196</v>
-      </c>
-      <c r="J86" s="2" t="n">
-        <v>0.142356164383562</v>
-      </c>
-      <c r="K86" s="2" t="n">
-        <v>3.55890410958904</v>
-      </c>
-      <c r="L86" s="2" t="n">
-        <v>72.1666666666667</v>
-      </c>
-      <c r="M86" s="2" t="n">
-        <v>0.197716894977169</v>
-      </c>
-      <c r="N86" s="2" t="n">
-        <v>14.2356164383562</v>
-      </c>
-      <c r="P86" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q86" s="2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="R86" s="2" t="n">
-        <v>12.775</v>
-      </c>
-      <c r="S86" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T86" s="2" t="n">
-        <v>0.14</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B86" s="0"/>
+      <c r="C86" s="0"/>
+      <c r="D86" s="0"/>
+      <c r="E86" s="0"/>
+      <c r="F86" s="0"/>
+      <c r="G86" s="0"/>
+      <c r="H86" s="0"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="0"/>
+      <c r="K86" s="0"/>
+      <c r="L86" s="0"/>
+      <c r="M86" s="0"/>
+      <c r="N86" s="0"/>
+      <c r="O86" s="0"/>
+      <c r="P86" s="0"/>
+      <c r="Q86" s="0"/>
+      <c r="R86" s="0"/>
+      <c r="S86" s="0"/>
+      <c r="T86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B87" s="0"/>
       <c r="C87" s="2" t="n">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>18.1214328358209</v>
+        <v>1.04285714285714</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>1953</v>
+        <v>15</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>2851.38</v>
+        <v>21.9</v>
       </c>
       <c r="H87" s="2" t="n">
-        <v>0.274567164179104</v>
+        <v>0.521428571428571</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>10385</v>
+        <v>42</v>
       </c>
       <c r="J87" s="2" t="n">
-        <v>0.284520547945205</v>
+        <v>0.00115068493150685</v>
       </c>
       <c r="K87" s="2" t="n">
-        <v>7.11301369863014</v>
+        <v>0.0287671232876712</v>
       </c>
       <c r="L87" s="2" t="n">
-        <v>157.348484848485</v>
+        <v>21</v>
       </c>
       <c r="M87" s="2" t="n">
-        <v>0.431091739310917</v>
+        <v>0.0575342465753425</v>
       </c>
       <c r="N87" s="2" t="n">
-        <v>28.4520547945205</v>
-      </c>
+        <v>0.115068493150685</v>
+      </c>
+      <c r="O87" s="0"/>
       <c r="P87" s="2" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="Q87" s="2" t="n">
-        <v>0.23</v>
+        <v>7.12</v>
       </c>
       <c r="R87" s="2" t="n">
-        <v>20.9875</v>
+        <v>649.7</v>
       </c>
       <c r="S87" s="2" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="T87" s="2" t="n">
-        <v>0.23</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0"/>
+      <c r="A88" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="B88" s="0"/>
       <c r="C88" s="0"/>
       <c r="D88" s="0"/>
@@ -3495,12 +3418,13 @@
       <c r="F88" s="0"/>
       <c r="G88" s="0"/>
       <c r="H88" s="0"/>
-      <c r="I88" s="0"/>
+      <c r="I88" s="4"/>
       <c r="J88" s="0"/>
       <c r="K88" s="0"/>
       <c r="L88" s="0"/>
       <c r="M88" s="0"/>
       <c r="N88" s="0"/>
+      <c r="O88" s="0"/>
       <c r="P88" s="0"/>
       <c r="Q88" s="0"/>
       <c r="R88" s="0"/>
@@ -3508,12 +3432,14 @@
       <c r="T88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0"/>
+      <c r="A89" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="B89" s="0"/>
       <c r="C89" s="0"/>
       <c r="D89" s="0"/>
       <c r="E89" s="0"/>
-      <c r="F89" s="0"/>
+      <c r="F89" s="4"/>
       <c r="G89" s="0"/>
       <c r="H89" s="0"/>
       <c r="I89" s="0"/>
@@ -3522,6 +3448,7 @@
       <c r="L89" s="0"/>
       <c r="M89" s="0"/>
       <c r="N89" s="0"/>
+      <c r="O89" s="0"/>
       <c r="P89" s="0"/>
       <c r="Q89" s="0"/>
       <c r="R89" s="0"/>
@@ -3529,12 +3456,14 @@
       <c r="T89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0"/>
+      <c r="A90" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="B90" s="0"/>
       <c r="C90" s="0"/>
       <c r="D90" s="0"/>
       <c r="E90" s="0"/>
-      <c r="F90" s="0"/>
+      <c r="F90" s="4"/>
       <c r="G90" s="0"/>
       <c r="H90" s="0"/>
       <c r="I90" s="0"/>
@@ -3543,6 +3472,7 @@
       <c r="L90" s="0"/>
       <c r="M90" s="0"/>
       <c r="N90" s="0"/>
+      <c r="O90" s="0"/>
       <c r="P90" s="0"/>
       <c r="Q90" s="0"/>
       <c r="R90" s="0"/>
@@ -3551,121 +3481,51 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D91" s="2" t="n">
-        <v>22.2369230769231</v>
-      </c>
-      <c r="E91" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="F91" s="2" t="n">
-        <v>1452</v>
-      </c>
-      <c r="G91" s="2" t="n">
-        <v>2119.92</v>
-      </c>
-      <c r="H91" s="2" t="n">
-        <v>0.570177514792899</v>
-      </c>
-      <c r="I91" s="2" t="n">
-        <v>3718</v>
-      </c>
-      <c r="J91" s="2" t="n">
-        <v>0.10186301369863</v>
-      </c>
-      <c r="K91" s="2" t="n">
-        <v>2.54657534246575</v>
-      </c>
-      <c r="L91" s="2" t="n">
-        <v>95.3333333333333</v>
-      </c>
-      <c r="M91" s="2" t="n">
-        <v>0.261187214611872</v>
-      </c>
-      <c r="N91" s="2" t="n">
-        <v>10.186301369863</v>
-      </c>
-      <c r="P91" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q91" s="2" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="R91" s="2" t="n">
-        <v>67.525</v>
-      </c>
-      <c r="S91" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="T91" s="2" t="n">
-        <v>0.74</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B91" s="0"/>
+      <c r="C91" s="0"/>
+      <c r="D91" s="0"/>
+      <c r="E91" s="0"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="0"/>
+      <c r="H91" s="0"/>
+      <c r="I91" s="0"/>
+      <c r="J91" s="0"/>
+      <c r="K91" s="0"/>
+      <c r="L91" s="0"/>
+      <c r="M91" s="0"/>
+      <c r="N91" s="0"/>
+      <c r="O91" s="0"/>
+      <c r="P91" s="0"/>
+      <c r="Q91" s="0"/>
+      <c r="R91" s="0"/>
+      <c r="S91" s="0"/>
+      <c r="T91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D92" s="2" t="n">
-        <v>13.0009127210496</v>
-      </c>
-      <c r="E92" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="F92" s="2" t="n">
-        <v>892</v>
-      </c>
-      <c r="G92" s="2" t="n">
-        <v>1302.32</v>
-      </c>
-      <c r="H92" s="2" t="n">
-        <v>0.371454649172847</v>
-      </c>
-      <c r="I92" s="2" t="n">
-        <v>3506</v>
-      </c>
-      <c r="J92" s="2" t="n">
-        <v>0.0960547945205479</v>
-      </c>
-      <c r="K92" s="2" t="n">
-        <v>2.4013698630137</v>
-      </c>
-      <c r="L92" s="2" t="n">
-        <v>100.171428571429</v>
-      </c>
-      <c r="M92" s="2" t="n">
-        <v>0.274442270058708</v>
-      </c>
-      <c r="N92" s="2" t="n">
-        <v>9.60547945205479</v>
-      </c>
-      <c r="P92" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q92" s="2" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="R92" s="2" t="n">
-        <v>87.6</v>
-      </c>
-      <c r="S92" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="T92" s="2" t="n">
-        <v>0.96</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B92" s="0"/>
+      <c r="C92" s="0"/>
+      <c r="D92" s="0"/>
+      <c r="E92" s="0"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="0"/>
+      <c r="H92" s="0"/>
+      <c r="I92" s="0"/>
+      <c r="J92" s="0"/>
+      <c r="K92" s="0"/>
+      <c r="L92" s="0"/>
+      <c r="M92" s="0"/>
+      <c r="N92" s="0"/>
+      <c r="O92" s="0"/>
+      <c r="P92" s="0"/>
+      <c r="Q92" s="0"/>
+      <c r="R92" s="0"/>
+      <c r="S92" s="0"/>
+      <c r="T92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0"/>
@@ -3673,7 +3533,7 @@
       <c r="C93" s="0"/>
       <c r="D93" s="0"/>
       <c r="E93" s="0"/>
-      <c r="F93" s="0"/>
+      <c r="F93" s="4"/>
       <c r="G93" s="0"/>
       <c r="H93" s="0"/>
       <c r="I93" s="0"/>
@@ -3682,6 +3542,7 @@
       <c r="L93" s="0"/>
       <c r="M93" s="0"/>
       <c r="N93" s="0"/>
+      <c r="O93" s="0"/>
       <c r="P93" s="0"/>
       <c r="Q93" s="0"/>
       <c r="R93" s="0"/>
@@ -3689,12 +3550,14 @@
       <c r="T93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0"/>
+      <c r="A94" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="B94" s="0"/>
       <c r="C94" s="0"/>
       <c r="D94" s="0"/>
       <c r="E94" s="0"/>
-      <c r="F94" s="0"/>
+      <c r="F94" s="4"/>
       <c r="G94" s="0"/>
       <c r="H94" s="0"/>
       <c r="I94" s="0"/>
@@ -3703,6 +3566,7 @@
       <c r="L94" s="0"/>
       <c r="M94" s="0"/>
       <c r="N94" s="0"/>
+      <c r="O94" s="0"/>
       <c r="P94" s="0"/>
       <c r="Q94" s="0"/>
       <c r="R94" s="0"/>
@@ -3710,46 +3574,125 @@
       <c r="T94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0"/>
-      <c r="B95" s="0"/>
-      <c r="C95" s="0"/>
-      <c r="D95" s="0"/>
-      <c r="E95" s="0"/>
-      <c r="F95" s="0"/>
-      <c r="G95" s="0"/>
-      <c r="H95" s="0"/>
-      <c r="I95" s="0"/>
-      <c r="J95" s="0"/>
-      <c r="K95" s="0"/>
-      <c r="L95" s="0"/>
-      <c r="M95" s="0"/>
-      <c r="N95" s="0"/>
-      <c r="P95" s="0"/>
-      <c r="Q95" s="0"/>
-      <c r="R95" s="0"/>
-      <c r="S95" s="0"/>
-      <c r="T95" s="0"/>
+      <c r="A95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>27.7898660749663</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>3336</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>4870.56</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>0.192985181076155</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>25238</v>
+      </c>
+      <c r="J95" s="2" t="n">
+        <v>0.691452054794521</v>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>17.286301369863</v>
+      </c>
+      <c r="L95" s="2" t="n">
+        <v>175.263888888889</v>
+      </c>
+      <c r="M95" s="2" t="n">
+        <v>0.48017503805175</v>
+      </c>
+      <c r="N95" s="2" t="n">
+        <v>69.1452054794521</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P95" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R95" s="2" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="S95" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T95" s="2" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0"/>
-      <c r="B96" s="0"/>
-      <c r="C96" s="0"/>
-      <c r="D96" s="0"/>
-      <c r="E96" s="0"/>
-      <c r="F96" s="0"/>
-      <c r="G96" s="0"/>
-      <c r="H96" s="0"/>
-      <c r="I96" s="0"/>
-      <c r="J96" s="0"/>
-      <c r="K96" s="0"/>
-      <c r="L96" s="0"/>
-      <c r="M96" s="0"/>
-      <c r="N96" s="0"/>
-      <c r="P96" s="0"/>
-      <c r="Q96" s="0"/>
-      <c r="R96" s="0"/>
-      <c r="S96" s="0"/>
-      <c r="T96" s="0"/>
+      <c r="A96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>65.5280369515012</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>3239</v>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>4728.94</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>0.910111624326405</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>5196</v>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>0.142356164383562</v>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>3.55890410958904</v>
+      </c>
+      <c r="L96" s="2" t="n">
+        <v>72.1666666666667</v>
+      </c>
+      <c r="M96" s="2" t="n">
+        <v>0.197716894977169</v>
+      </c>
+      <c r="N96" s="2" t="n">
+        <v>14.2356164383562</v>
+      </c>
+      <c r="P96" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R96" s="2" t="n">
+        <v>12.775</v>
+      </c>
+      <c r="S96" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T96" s="2" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
@@ -3759,323 +3702,262 @@
         <v>17</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>7.13718464351005</v>
+        <v>18.1214328358209</v>
       </c>
       <c r="E97" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>1953</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>2851.38</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>0.274567164179104</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>10385</v>
+      </c>
+      <c r="J97" s="2" t="n">
+        <v>0.284520547945205</v>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>7.11301369863014</v>
+      </c>
+      <c r="L97" s="2" t="n">
+        <v>157.348484848485</v>
+      </c>
+      <c r="M97" s="2" t="n">
+        <v>0.431091739310917</v>
+      </c>
+      <c r="N97" s="2" t="n">
+        <v>28.4520547945205</v>
+      </c>
+      <c r="P97" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" s="2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="R97" s="2" t="n">
+        <v>20.9875</v>
+      </c>
+      <c r="S97" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" s="2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0"/>
+      <c r="B98" s="0"/>
+      <c r="C98" s="0"/>
+      <c r="D98" s="0"/>
+      <c r="E98" s="0"/>
+      <c r="F98" s="0"/>
+      <c r="G98" s="0"/>
+      <c r="H98" s="0"/>
+      <c r="I98" s="0"/>
+      <c r="J98" s="0"/>
+      <c r="K98" s="0"/>
+      <c r="L98" s="0"/>
+      <c r="M98" s="0"/>
+      <c r="N98" s="0"/>
+      <c r="P98" s="0"/>
+      <c r="Q98" s="0"/>
+      <c r="R98" s="0"/>
+      <c r="S98" s="0"/>
+      <c r="T98" s="0"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0"/>
+      <c r="B99" s="0"/>
+      <c r="C99" s="0"/>
+      <c r="D99" s="0"/>
+      <c r="E99" s="0"/>
+      <c r="F99" s="0"/>
+      <c r="G99" s="0"/>
+      <c r="H99" s="0"/>
+      <c r="I99" s="0"/>
+      <c r="J99" s="0"/>
+      <c r="K99" s="0"/>
+      <c r="L99" s="0"/>
+      <c r="M99" s="0"/>
+      <c r="N99" s="0"/>
+      <c r="P99" s="0"/>
+      <c r="Q99" s="0"/>
+      <c r="R99" s="0"/>
+      <c r="S99" s="0"/>
+      <c r="T99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0"/>
+      <c r="B100" s="0"/>
+      <c r="C100" s="0"/>
+      <c r="D100" s="0"/>
+      <c r="E100" s="0"/>
+      <c r="F100" s="0"/>
+      <c r="G100" s="0"/>
+      <c r="H100" s="0"/>
+      <c r="I100" s="0"/>
+      <c r="J100" s="0"/>
+      <c r="K100" s="0"/>
+      <c r="L100" s="0"/>
+      <c r="M100" s="0"/>
+      <c r="N100" s="0"/>
+      <c r="P100" s="0"/>
+      <c r="Q100" s="0"/>
+      <c r="R100" s="0"/>
+      <c r="S100" s="0"/>
+      <c r="T100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>22.2369230769231</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>1452</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>2119.92</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>0.570177514792899</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>3718</v>
+      </c>
+      <c r="J101" s="2" t="n">
+        <v>0.10186301369863</v>
+      </c>
+      <c r="K101" s="2" t="n">
+        <v>2.54657534246575</v>
+      </c>
+      <c r="L101" s="2" t="n">
+        <v>95.3333333333333</v>
+      </c>
+      <c r="M101" s="2" t="n">
+        <v>0.261187214611872</v>
+      </c>
+      <c r="N101" s="2" t="n">
+        <v>10.186301369863</v>
+      </c>
+      <c r="P101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q101" s="2" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R101" s="2" t="n">
+        <v>67.525</v>
+      </c>
+      <c r="S101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T101" s="2" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>13.0009127210496</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>892</v>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>1302.32</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>0.371454649172847</v>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>3506</v>
+      </c>
+      <c r="J102" s="2" t="n">
+        <v>0.0960547945205479</v>
+      </c>
+      <c r="K102" s="2" t="n">
+        <v>2.4013698630137</v>
+      </c>
+      <c r="L102" s="2" t="n">
+        <v>100.171428571429</v>
+      </c>
+      <c r="M102" s="2" t="n">
+        <v>0.274442270058708</v>
+      </c>
+      <c r="N102" s="2" t="n">
+        <v>9.60547945205479</v>
+      </c>
+      <c r="P102" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F97" s="2" t="n">
-        <v>573</v>
-      </c>
-      <c r="G97" s="2" t="n">
-        <v>836.58</v>
-      </c>
-      <c r="H97" s="2" t="n">
-        <v>0.509798903107861</v>
-      </c>
-      <c r="I97" s="2" t="n">
-        <v>1641</v>
-      </c>
-      <c r="J97" s="2" t="n">
-        <v>0.044958904109589</v>
-      </c>
-      <c r="K97" s="2" t="n">
-        <v>1.12397260273973</v>
-      </c>
-      <c r="L97" s="2" t="n">
-        <v>117.214285714286</v>
-      </c>
-      <c r="M97" s="2" t="n">
-        <v>0.321135029354207</v>
-      </c>
-      <c r="N97" s="2" t="n">
-        <v>4.4958904109589</v>
-      </c>
-      <c r="P97" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q97" s="2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R97" s="2" t="n">
-        <v>187.975</v>
-      </c>
-      <c r="S97" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="T97" s="2" t="n">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>4.69211752786221</v>
-      </c>
-      <c r="E98" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F98" s="2" t="n">
-        <v>244</v>
-      </c>
-      <c r="G98" s="2" t="n">
-        <v>356.24</v>
-      </c>
-      <c r="H98" s="2" t="n">
-        <v>0.360932117527862</v>
-      </c>
-      <c r="I98" s="4" t="n">
-        <v>987</v>
-      </c>
-      <c r="J98" s="2" t="n">
-        <v>0.027041095890411</v>
-      </c>
-      <c r="K98" s="2" t="n">
-        <v>0.676027397260274</v>
-      </c>
-      <c r="L98" s="2" t="n">
-        <v>75.9230769230769</v>
-      </c>
-      <c r="M98" s="2" t="n">
-        <v>0.208008429926238</v>
-      </c>
-      <c r="N98" s="2" t="n">
-        <v>2.7041095890411</v>
-      </c>
-      <c r="P98" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q98" s="2" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R98" s="2" t="n">
-        <v>208.05</v>
-      </c>
-      <c r="S98" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="T98" s="2" t="n">
-        <v>2.28</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C99" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="n">
-        <v>6.00790381599582</v>
-      </c>
-      <c r="E99" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F99" s="2" t="n">
-        <v>656</v>
-      </c>
-      <c r="G99" s="2" t="n">
-        <v>957.76</v>
-      </c>
-      <c r="H99" s="2" t="n">
-        <v>0.500658651332985</v>
-      </c>
-      <c r="I99" s="2" t="n">
-        <v>1913</v>
-      </c>
-      <c r="J99" s="2" t="n">
-        <v>0.0524109589041096</v>
-      </c>
-      <c r="K99" s="2" t="n">
-        <v>1.31027397260274</v>
-      </c>
-      <c r="L99" s="2" t="n">
-        <v>159.416666666667</v>
-      </c>
-      <c r="M99" s="2" t="n">
-        <v>0.43675799086758</v>
-      </c>
-      <c r="N99" s="2" t="n">
-        <v>5.24109589041096</v>
-      </c>
-      <c r="P99" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q99" s="2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R99" s="2" t="n">
-        <v>228.125</v>
-      </c>
-      <c r="S99" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="T99" s="2" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C100" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D100" s="2" t="n">
-        <v>6.57830594184576</v>
-      </c>
-      <c r="E100" s="2" t="n">
+      <c r="Q102" s="2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="R102" s="2" t="n">
+        <v>87.6</v>
+      </c>
+      <c r="S102" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F100" s="2" t="n">
-        <v>324</v>
-      </c>
-      <c r="G100" s="2" t="n">
-        <v>473.04</v>
-      </c>
-      <c r="H100" s="2" t="n">
-        <v>0.598027812895069</v>
-      </c>
-      <c r="I100" s="4" t="n">
-        <v>791</v>
-      </c>
-      <c r="J100" s="2" t="n">
-        <v>0.0216712328767123</v>
-      </c>
-      <c r="K100" s="2" t="n">
-        <v>0.541780821917808</v>
-      </c>
-      <c r="L100" s="2" t="n">
-        <v>71.9090909090909</v>
-      </c>
-      <c r="M100" s="2" t="n">
-        <v>0.197011207970112</v>
-      </c>
-      <c r="N100" s="2" t="n">
-        <v>2.16712328767123</v>
-      </c>
-      <c r="P100" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q100" s="2" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R100" s="2" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="S100" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="T100" s="2" t="n">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0"/>
-      <c r="C101" s="0"/>
-      <c r="D101" s="0"/>
-      <c r="E101" s="0"/>
-      <c r="F101" s="0"/>
-      <c r="G101" s="0"/>
-      <c r="H101" s="0"/>
-      <c r="I101" s="0"/>
-      <c r="J101" s="0"/>
-      <c r="K101" s="0"/>
-      <c r="L101" s="0"/>
-      <c r="M101" s="0"/>
-      <c r="N101" s="0"/>
-      <c r="P101" s="0"/>
-      <c r="Q101" s="0"/>
-      <c r="R101" s="0"/>
-      <c r="S101" s="0"/>
-      <c r="T101" s="0"/>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0"/>
-      <c r="C102" s="0"/>
-      <c r="D102" s="0"/>
-      <c r="E102" s="0"/>
-      <c r="F102" s="0"/>
-      <c r="G102" s="0"/>
-      <c r="H102" s="0"/>
-      <c r="I102" s="0"/>
-      <c r="J102" s="0"/>
-      <c r="K102" s="0"/>
-      <c r="L102" s="0"/>
-      <c r="M102" s="0"/>
-      <c r="N102" s="0"/>
-      <c r="P102" s="0"/>
-      <c r="Q102" s="0"/>
-      <c r="R102" s="0"/>
-      <c r="S102" s="0"/>
-      <c r="T102" s="0"/>
+      <c r="T102" s="2" t="n">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>5.65969879518072</v>
-      </c>
-      <c r="E103" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F103" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="G103" s="2" t="n">
-        <v>170.82</v>
-      </c>
-      <c r="H103" s="2" t="n">
-        <v>0.514518072289157</v>
-      </c>
-      <c r="I103" s="4" t="n">
-        <v>332</v>
-      </c>
-      <c r="J103" s="2" t="n">
-        <v>0.00909589041095891</v>
-      </c>
-      <c r="K103" s="2" t="n">
-        <v>0.227397260273973</v>
-      </c>
-      <c r="L103" s="2" t="n">
-        <v>30.1818181818182</v>
-      </c>
-      <c r="M103" s="2" t="n">
-        <v>0.0826899128268991</v>
-      </c>
-      <c r="N103" s="2" t="n">
-        <v>0.90958904109589</v>
-      </c>
-      <c r="P103" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q103" s="2" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="R103" s="2" t="n">
-        <v>308.425</v>
-      </c>
-      <c r="S103" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="T103" s="2" t="n">
-        <v>3.38</v>
-      </c>
+      <c r="A103" s="0"/>
+      <c r="B103" s="0"/>
+      <c r="C103" s="0"/>
+      <c r="D103" s="0"/>
+      <c r="E103" s="0"/>
+      <c r="F103" s="0"/>
+      <c r="G103" s="0"/>
+      <c r="H103" s="0"/>
+      <c r="I103" s="0"/>
+      <c r="J103" s="0"/>
+      <c r="K103" s="0"/>
+      <c r="L103" s="0"/>
+      <c r="M103" s="0"/>
+      <c r="N103" s="0"/>
+      <c r="P103" s="0"/>
+      <c r="Q103" s="0"/>
+      <c r="R103" s="0"/>
+      <c r="S103" s="0"/>
+      <c r="T103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0"/>
+      <c r="B104" s="0"/>
       <c r="C104" s="0"/>
       <c r="D104" s="0"/>
       <c r="E104" s="0"/>
@@ -4095,63 +3977,29 @@
       <c r="T104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>3.20712430426716</v>
-      </c>
-      <c r="E105" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F105" s="2" t="n">
-        <v>148</v>
-      </c>
-      <c r="G105" s="2" t="n">
-        <v>216.08</v>
-      </c>
-      <c r="H105" s="2" t="n">
-        <v>0.400890538033395</v>
-      </c>
-      <c r="I105" s="4" t="n">
-        <v>539</v>
-      </c>
-      <c r="J105" s="2" t="n">
-        <v>0.0147671232876712</v>
-      </c>
-      <c r="K105" s="2" t="n">
-        <v>0.369178082191781</v>
-      </c>
-      <c r="L105" s="2" t="n">
-        <v>67.375</v>
-      </c>
-      <c r="M105" s="2" t="n">
-        <v>0.18458904109589</v>
-      </c>
-      <c r="N105" s="2" t="n">
-        <v>1.47671232876712</v>
-      </c>
-      <c r="P105" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q105" s="2" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="R105" s="2" t="n">
-        <v>348.575</v>
-      </c>
-      <c r="S105" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="T105" s="2" t="n">
-        <v>3.82</v>
-      </c>
+      <c r="A105" s="0"/>
+      <c r="B105" s="0"/>
+      <c r="C105" s="0"/>
+      <c r="D105" s="0"/>
+      <c r="E105" s="0"/>
+      <c r="F105" s="0"/>
+      <c r="G105" s="0"/>
+      <c r="H105" s="0"/>
+      <c r="I105" s="0"/>
+      <c r="J105" s="0"/>
+      <c r="K105" s="0"/>
+      <c r="L105" s="0"/>
+      <c r="M105" s="0"/>
+      <c r="N105" s="0"/>
+      <c r="P105" s="0"/>
+      <c r="Q105" s="0"/>
+      <c r="R105" s="0"/>
+      <c r="S105" s="0"/>
+      <c r="T105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0"/>
+      <c r="B106" s="0"/>
       <c r="C106" s="0"/>
       <c r="D106" s="0"/>
       <c r="E106" s="0"/>
@@ -4172,190 +4020,229 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C107" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>7.13718464351005</v>
+      </c>
+      <c r="E107" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D107" s="2" t="n">
-        <v>3.69359877488515</v>
-      </c>
-      <c r="E107" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="F107" s="2" t="n">
-        <v>236</v>
+        <v>573</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>344.56</v>
+        <v>836.58</v>
       </c>
       <c r="H107" s="2" t="n">
-        <v>0.527656967840735</v>
-      </c>
-      <c r="I107" s="4" t="n">
-        <v>653</v>
+        <v>0.509798903107861</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>1641</v>
       </c>
       <c r="J107" s="2" t="n">
-        <v>0.0178904109589041</v>
+        <v>0.044958904109589</v>
       </c>
       <c r="K107" s="2" t="n">
-        <v>0.447260273972603</v>
+        <v>1.12397260273973</v>
       </c>
       <c r="L107" s="2" t="n">
-        <v>93.2857142857143</v>
+        <v>117.214285714286</v>
       </c>
       <c r="M107" s="2" t="n">
-        <v>0.255577299412916</v>
+        <v>0.321135029354207</v>
       </c>
       <c r="N107" s="2" t="n">
-        <v>1.78904109589041</v>
+        <v>4.4958904109589</v>
       </c>
       <c r="P107" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q107" s="2" t="n">
-        <v>4.26</v>
+        <v>2.06</v>
       </c>
       <c r="R107" s="2" t="n">
-        <v>388.725</v>
+        <v>187.975</v>
       </c>
       <c r="S107" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="T107" s="2" t="n">
-        <v>4.26</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0"/>
-      <c r="C108" s="0"/>
-      <c r="D108" s="0"/>
-      <c r="E108" s="0"/>
-      <c r="F108" s="0"/>
-      <c r="G108" s="0"/>
-      <c r="H108" s="0"/>
-      <c r="I108" s="0"/>
-      <c r="J108" s="0"/>
-      <c r="K108" s="0"/>
-      <c r="L108" s="0"/>
-      <c r="M108" s="0"/>
-      <c r="N108" s="0"/>
-      <c r="P108" s="0"/>
-      <c r="Q108" s="0"/>
-      <c r="R108" s="0"/>
-      <c r="S108" s="0"/>
-      <c r="T108" s="0"/>
+      <c r="A108" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>4.69211752786221</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>356.24</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>0.360932117527862</v>
+      </c>
+      <c r="I108" s="4" t="n">
+        <v>987</v>
+      </c>
+      <c r="J108" s="2" t="n">
+        <v>0.027041095890411</v>
+      </c>
+      <c r="K108" s="2" t="n">
+        <v>0.676027397260274</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>75.9230769230769</v>
+      </c>
+      <c r="M108" s="2" t="n">
+        <v>0.208008429926238</v>
+      </c>
+      <c r="N108" s="2" t="n">
+        <v>2.7041095890411</v>
+      </c>
+      <c r="P108" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q108" s="2" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R108" s="2" t="n">
+        <v>208.05</v>
+      </c>
+      <c r="S108" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="T108" s="2" t="n">
+        <v>2.28</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>3.17172413793103</v>
+        <v>6.00790381599582</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>99</v>
+        <v>656</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>144.54</v>
+        <v>957.76</v>
       </c>
       <c r="H109" s="2" t="n">
-        <v>0.453103448275862</v>
-      </c>
-      <c r="I109" s="4" t="n">
-        <v>319</v>
+        <v>0.500658651332985</v>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>1913</v>
       </c>
       <c r="J109" s="2" t="n">
-        <v>0.00873972602739726</v>
+        <v>0.0524109589041096</v>
       </c>
       <c r="K109" s="2" t="n">
-        <v>0.218493150684931</v>
+        <v>1.31027397260274</v>
       </c>
       <c r="L109" s="2" t="n">
-        <v>45.5714285714286</v>
+        <v>159.416666666667</v>
       </c>
       <c r="M109" s="2" t="n">
-        <v>0.124853228962818</v>
+        <v>0.43675799086758</v>
       </c>
       <c r="N109" s="2" t="n">
-        <v>0.873972602739726</v>
+        <v>5.24109589041096</v>
       </c>
       <c r="P109" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Q109" s="2" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="R109" s="2" t="n">
-        <v>428.875</v>
+        <v>228.125</v>
       </c>
       <c r="S109" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T109" s="2" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>2.65275908479139</v>
+        <v>6.57830594184576</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>225</v>
+        <v>324</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>328.5</v>
+        <v>473.04</v>
       </c>
       <c r="H110" s="2" t="n">
-        <v>0.442126514131898</v>
-      </c>
-      <c r="I110" s="2" t="n">
-        <v>743</v>
+        <v>0.598027812895069</v>
+      </c>
+      <c r="I110" s="4" t="n">
+        <v>791</v>
       </c>
       <c r="J110" s="2" t="n">
-        <v>0.0203561643835616</v>
+        <v>0.0216712328767123</v>
       </c>
       <c r="K110" s="2" t="n">
-        <v>0.508904109589041</v>
+        <v>0.541780821917808</v>
       </c>
       <c r="L110" s="2" t="n">
-        <v>123.833333333333</v>
+        <v>71.9090909090909</v>
       </c>
       <c r="M110" s="2" t="n">
-        <v>0.339269406392694</v>
+        <v>0.197011207970112</v>
       </c>
       <c r="N110" s="2" t="n">
-        <v>2.03561643835616</v>
+        <v>2.16712328767123</v>
       </c>
       <c r="P110" s="2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q110" s="2" t="n">
-        <v>4.92</v>
+        <v>2.72</v>
       </c>
       <c r="R110" s="2" t="n">
-        <v>448.95</v>
+        <v>248.2</v>
       </c>
       <c r="S110" s="2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T110" s="2" t="n">
-        <v>4.92</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4399,675 +4286,835 @@
       <c r="T112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0"/>
-      <c r="C113" s="0"/>
-      <c r="D113" s="0"/>
-      <c r="E113" s="0"/>
-      <c r="F113" s="0"/>
-      <c r="G113" s="0"/>
-      <c r="H113" s="0"/>
-      <c r="I113" s="0"/>
-      <c r="J113" s="0"/>
-      <c r="K113" s="0"/>
-      <c r="L113" s="0"/>
-      <c r="M113" s="0"/>
-      <c r="N113" s="0"/>
-      <c r="P113" s="0"/>
-      <c r="Q113" s="0"/>
-      <c r="R113" s="0"/>
-      <c r="S113" s="0"/>
-      <c r="T113" s="0"/>
+      <c r="A113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>5.65969879518072</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>170.82</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>0.514518072289157</v>
+      </c>
+      <c r="I113" s="4" t="n">
+        <v>332</v>
+      </c>
+      <c r="J113" s="2" t="n">
+        <v>0.00909589041095891</v>
+      </c>
+      <c r="K113" s="2" t="n">
+        <v>0.227397260273973</v>
+      </c>
+      <c r="L113" s="2" t="n">
+        <v>30.1818181818182</v>
+      </c>
+      <c r="M113" s="2" t="n">
+        <v>0.0826899128268991</v>
+      </c>
+      <c r="N113" s="2" t="n">
+        <v>0.90958904109589</v>
+      </c>
+      <c r="P113" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q113" s="2" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="R113" s="2" t="n">
+        <v>308.425</v>
+      </c>
+      <c r="S113" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="T113" s="2" t="n">
+        <v>3.38</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>1.2155023923445</v>
-      </c>
-      <c r="E114" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F114" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="G114" s="2" t="n">
-        <v>42.34</v>
-      </c>
-      <c r="H114" s="2" t="n">
-        <v>0.202583732057416</v>
-      </c>
-      <c r="I114" s="2" t="n">
-        <v>209</v>
-      </c>
-      <c r="J114" s="2" t="n">
-        <v>0.00572602739726027</v>
-      </c>
-      <c r="K114" s="2" t="n">
-        <v>0.143150684931507</v>
-      </c>
-      <c r="L114" s="2" t="n">
-        <v>34.8333333333333</v>
-      </c>
-      <c r="M114" s="2" t="n">
-        <v>0.0954337899543379</v>
-      </c>
-      <c r="N114" s="2" t="n">
-        <v>0.572602739726027</v>
-      </c>
-      <c r="P114" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q114" s="2" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="R114" s="2" t="n">
-        <v>529.25</v>
-      </c>
-      <c r="S114" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="T114" s="2" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="A114" s="0"/>
+      <c r="C114" s="0"/>
+      <c r="D114" s="0"/>
+      <c r="E114" s="0"/>
+      <c r="F114" s="0"/>
+      <c r="G114" s="0"/>
+      <c r="H114" s="0"/>
+      <c r="I114" s="0"/>
+      <c r="J114" s="0"/>
+      <c r="K114" s="0"/>
+      <c r="L114" s="0"/>
+      <c r="M114" s="0"/>
+      <c r="N114" s="0"/>
+      <c r="P114" s="0"/>
+      <c r="Q114" s="0"/>
+      <c r="R114" s="0"/>
+      <c r="S114" s="0"/>
+      <c r="T114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C115" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>3.20712430426716</v>
+      </c>
+      <c r="E115" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D115" s="2" t="n">
-        <v>1.6504347826087</v>
-      </c>
-      <c r="E115" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="F115" s="2" t="n">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>75.92</v>
+        <v>216.08</v>
       </c>
       <c r="H115" s="2" t="n">
-        <v>0.412608695652174</v>
-      </c>
-      <c r="I115" s="2" t="n">
-        <v>184</v>
+        <v>0.400890538033395</v>
+      </c>
+      <c r="I115" s="4" t="n">
+        <v>539</v>
       </c>
       <c r="J115" s="2" t="n">
-        <v>0.00504109589041096</v>
+        <v>0.0147671232876712</v>
       </c>
       <c r="K115" s="2" t="n">
-        <v>0.126027397260274</v>
+        <v>0.369178082191781</v>
       </c>
       <c r="L115" s="2" t="n">
-        <v>46</v>
+        <v>67.375</v>
       </c>
       <c r="M115" s="2" t="n">
-        <v>0.126027397260274</v>
+        <v>0.18458904109589</v>
       </c>
       <c r="N115" s="2" t="n">
-        <v>0.504109589041096</v>
+        <v>1.47671232876712</v>
       </c>
       <c r="P115" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q115" s="2" t="n">
-        <v>6.02</v>
+        <v>3.82</v>
       </c>
       <c r="R115" s="2" t="n">
-        <v>549.325</v>
+        <v>348.575</v>
       </c>
       <c r="S115" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T115" s="2" t="n">
-        <v>6.02</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C116" s="2" t="n">
+      <c r="A116" s="0"/>
+      <c r="C116" s="0"/>
+      <c r="D116" s="0"/>
+      <c r="E116" s="0"/>
+      <c r="F116" s="0"/>
+      <c r="G116" s="0"/>
+      <c r="H116" s="0"/>
+      <c r="I116" s="0"/>
+      <c r="J116" s="0"/>
+      <c r="K116" s="0"/>
+      <c r="L116" s="0"/>
+      <c r="M116" s="0"/>
+      <c r="N116" s="0"/>
+      <c r="P116" s="0"/>
+      <c r="Q116" s="0"/>
+      <c r="R116" s="0"/>
+      <c r="S116" s="0"/>
+      <c r="T116" s="0"/>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>3.69359877488515</v>
+      </c>
+      <c r="E117" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D116" s="2" t="n">
-        <v>1.21393258426966</v>
-      </c>
-      <c r="E116" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F116" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="G116" s="2" t="n">
-        <v>54.02</v>
-      </c>
-      <c r="H116" s="2" t="n">
-        <v>0.303483146067416</v>
-      </c>
-      <c r="I116" s="4" t="n">
-        <v>178</v>
-      </c>
-      <c r="J116" s="2" t="n">
-        <v>0.00487671232876712</v>
-      </c>
-      <c r="K116" s="2" t="n">
-        <v>0.121917808219178</v>
-      </c>
-      <c r="L116" s="2" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="M116" s="2" t="n">
-        <v>0.121917808219178</v>
-      </c>
-      <c r="N116" s="2" t="n">
-        <v>0.487671232876712</v>
-      </c>
-      <c r="P116" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q116" s="2" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="R116" s="2" t="n">
-        <v>569.4</v>
-      </c>
-      <c r="S116" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="T116" s="2" t="n">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0"/>
-      <c r="C117" s="0"/>
-      <c r="D117" s="0"/>
-      <c r="E117" s="0"/>
-      <c r="F117" s="0"/>
-      <c r="G117" s="0"/>
-      <c r="H117" s="0"/>
-      <c r="I117" s="0"/>
-      <c r="J117" s="0"/>
-      <c r="K117" s="0"/>
-      <c r="L117" s="0"/>
-      <c r="M117" s="0"/>
-      <c r="N117" s="0"/>
-      <c r="P117" s="0"/>
-      <c r="Q117" s="0"/>
-      <c r="R117" s="0"/>
-      <c r="S117" s="0"/>
-      <c r="T117" s="0"/>
+      <c r="F117" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>344.56</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>0.527656967840735</v>
+      </c>
+      <c r="I117" s="4" t="n">
+        <v>653</v>
+      </c>
+      <c r="J117" s="2" t="n">
+        <v>0.0178904109589041</v>
+      </c>
+      <c r="K117" s="2" t="n">
+        <v>0.447260273972603</v>
+      </c>
+      <c r="L117" s="2" t="n">
+        <v>93.2857142857143</v>
+      </c>
+      <c r="M117" s="2" t="n">
+        <v>0.255577299412916</v>
+      </c>
+      <c r="N117" s="2" t="n">
+        <v>1.78904109589041</v>
+      </c>
+      <c r="P117" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q117" s="2" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="R117" s="2" t="n">
+        <v>388.725</v>
+      </c>
+      <c r="S117" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="T117" s="2" t="n">
+        <v>4.26</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0.929090909090909</v>
-      </c>
-      <c r="E118" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F118" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="G118" s="2" t="n">
-        <v>30.66</v>
-      </c>
-      <c r="H118" s="2" t="n">
-        <v>0.30969696969697</v>
-      </c>
-      <c r="I118" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="J118" s="2" t="n">
-        <v>0.00271232876712329</v>
-      </c>
-      <c r="K118" s="2" t="n">
-        <v>0.0678082191780822</v>
-      </c>
-      <c r="L118" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="M118" s="2" t="n">
-        <v>0.0904109589041096</v>
-      </c>
-      <c r="N118" s="2" t="n">
-        <v>0.271232876712329</v>
-      </c>
-      <c r="P118" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q118" s="2" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="R118" s="2" t="n">
-        <v>609.55</v>
-      </c>
-      <c r="S118" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="T118" s="2" t="n">
-        <v>6.68</v>
-      </c>
+      <c r="A118" s="0"/>
+      <c r="C118" s="0"/>
+      <c r="D118" s="0"/>
+      <c r="E118" s="0"/>
+      <c r="F118" s="0"/>
+      <c r="G118" s="0"/>
+      <c r="H118" s="0"/>
+      <c r="I118" s="0"/>
+      <c r="J118" s="0"/>
+      <c r="K118" s="0"/>
+      <c r="L118" s="0"/>
+      <c r="M118" s="0"/>
+      <c r="N118" s="0"/>
+      <c r="P118" s="0"/>
+      <c r="Q118" s="0"/>
+      <c r="R118" s="0"/>
+      <c r="S118" s="0"/>
+      <c r="T118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C119" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>3.17172413793103</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>144.54</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>0.453103448275862</v>
+      </c>
+      <c r="I119" s="4" t="n">
+        <v>319</v>
+      </c>
+      <c r="J119" s="2" t="n">
+        <v>0.00873972602739726</v>
+      </c>
+      <c r="K119" s="2" t="n">
+        <v>0.218493150684931</v>
+      </c>
+      <c r="L119" s="2" t="n">
+        <v>45.5714285714286</v>
+      </c>
+      <c r="M119" s="2" t="n">
+        <v>0.124853228962818</v>
+      </c>
+      <c r="N119" s="2" t="n">
+        <v>0.873972602739726</v>
+      </c>
+      <c r="P119" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q119" s="2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="R119" s="2" t="n">
+        <v>428.875</v>
+      </c>
+      <c r="S119" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="T119" s="2" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>2.65275908479139</v>
+      </c>
+      <c r="E120" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D119" s="2" t="n">
-        <v>0.925853658536585</v>
-      </c>
-      <c r="E119" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F119" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="G119" s="2" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="H119" s="2" t="n">
-        <v>0.462926829268293</v>
-      </c>
-      <c r="I119" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="J119" s="2" t="n">
-        <v>0.00112328767123288</v>
-      </c>
-      <c r="K119" s="2" t="n">
-        <v>0.0280821917808219</v>
-      </c>
-      <c r="L119" s="2" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="M119" s="2" t="n">
-        <v>0.0561643835616438</v>
-      </c>
-      <c r="N119" s="2" t="n">
-        <v>0.112328767123288</v>
-      </c>
-      <c r="P119" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q119" s="2" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="R119" s="2" t="n">
-        <v>629.625</v>
-      </c>
-      <c r="S119" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="T119" s="2" t="n">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0"/>
-      <c r="C120" s="0"/>
-      <c r="D120" s="0"/>
-      <c r="E120" s="0"/>
-      <c r="F120" s="0"/>
-      <c r="G120" s="0"/>
-      <c r="H120" s="0"/>
-      <c r="I120" s="0"/>
-      <c r="J120" s="0"/>
-      <c r="K120" s="0"/>
-      <c r="L120" s="0"/>
-      <c r="M120" s="0"/>
-      <c r="N120" s="0"/>
-      <c r="P120" s="0"/>
-      <c r="Q120" s="0"/>
-      <c r="R120" s="0"/>
-      <c r="S120" s="0"/>
-      <c r="T120" s="0"/>
+      <c r="F120" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>0.442126514131898</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>743</v>
+      </c>
+      <c r="J120" s="2" t="n">
+        <v>0.0203561643835616</v>
+      </c>
+      <c r="K120" s="2" t="n">
+        <v>0.508904109589041</v>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>123.833333333333</v>
+      </c>
+      <c r="M120" s="2" t="n">
+        <v>0.339269406392694</v>
+      </c>
+      <c r="N120" s="2" t="n">
+        <v>2.03561643835616</v>
+      </c>
+      <c r="P120" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q120" s="2" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="R120" s="2" t="n">
+        <v>448.95</v>
+      </c>
+      <c r="S120" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="T120" s="2" t="n">
+        <v>4.92</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>1.21666666666667</v>
-      </c>
-      <c r="E121" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F121" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="G121" s="2" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="H121" s="2" t="n">
-        <v>1.21666666666667</v>
-      </c>
-      <c r="I121" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="J121" s="2" t="n">
-        <v>0.000821917808219178</v>
-      </c>
-      <c r="K121" s="2" t="n">
-        <v>0.0205479452054794</v>
-      </c>
-      <c r="L121" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="M121" s="2" t="n">
-        <v>0.0821917808219178</v>
-      </c>
-      <c r="N121" s="2" t="n">
-        <v>0.0821917808219178</v>
-      </c>
-      <c r="P121" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q121" s="2" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="R121" s="2" t="n">
-        <v>669.775</v>
-      </c>
-      <c r="S121" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="T121" s="2" t="n">
-        <v>7.34</v>
-      </c>
+      <c r="A121" s="0"/>
+      <c r="C121" s="0"/>
+      <c r="D121" s="0"/>
+      <c r="E121" s="0"/>
+      <c r="F121" s="0"/>
+      <c r="G121" s="0"/>
+      <c r="H121" s="0"/>
+      <c r="I121" s="0"/>
+      <c r="J121" s="0"/>
+      <c r="K121" s="0"/>
+      <c r="L121" s="0"/>
+      <c r="M121" s="0"/>
+      <c r="N121" s="0"/>
+      <c r="P121" s="0"/>
+      <c r="Q121" s="0"/>
+      <c r="R121" s="0"/>
+      <c r="S121" s="0"/>
+      <c r="T121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>0.297959183673469</v>
-      </c>
-      <c r="E122" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F122" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="H122" s="2" t="n">
-        <v>0.297959183673469</v>
-      </c>
-      <c r="I122" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="J122" s="2" t="n">
-        <v>0.00134246575342466</v>
-      </c>
-      <c r="K122" s="2" t="n">
-        <v>0.0335616438356164</v>
-      </c>
-      <c r="L122" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="M122" s="2" t="n">
-        <v>0.134246575342466</v>
-      </c>
-      <c r="N122" s="2" t="n">
-        <v>0.134246575342466</v>
-      </c>
-      <c r="P122" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q122" s="2" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R122" s="2" t="n">
-        <v>689.85</v>
-      </c>
-      <c r="S122" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="T122" s="2" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="A122" s="0"/>
+      <c r="C122" s="0"/>
+      <c r="D122" s="0"/>
+      <c r="E122" s="0"/>
+      <c r="F122" s="0"/>
+      <c r="G122" s="0"/>
+      <c r="H122" s="0"/>
+      <c r="I122" s="0"/>
+      <c r="J122" s="0"/>
+      <c r="K122" s="0"/>
+      <c r="L122" s="0"/>
+      <c r="M122" s="0"/>
+      <c r="N122" s="0"/>
+      <c r="P122" s="0"/>
+      <c r="Q122" s="0"/>
+      <c r="R122" s="0"/>
+      <c r="S122" s="0"/>
+      <c r="T122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0"/>
       <c r="C123" s="0"/>
+      <c r="D123" s="0"/>
+      <c r="E123" s="0"/>
       <c r="F123" s="0"/>
       <c r="G123" s="0"/>
+      <c r="H123" s="0"/>
       <c r="I123" s="0"/>
-      <c r="P123" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q123" s="2" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="R123" s="2" t="n">
-        <v>709.925</v>
-      </c>
-      <c r="S123" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="T123" s="2" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J123" s="0"/>
+      <c r="K123" s="0"/>
+      <c r="L123" s="0"/>
+      <c r="M123" s="0"/>
+      <c r="N123" s="0"/>
+      <c r="P123" s="0"/>
+      <c r="Q123" s="0"/>
+      <c r="R123" s="0"/>
+      <c r="S123" s="0"/>
+      <c r="T123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0"/>
-      <c r="C124" s="0"/>
-      <c r="F124" s="0"/>
-      <c r="G124" s="0"/>
-      <c r="I124" s="0"/>
+      <c r="A124" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>1.2155023923445</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>42.34</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>0.202583732057416</v>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="J124" s="2" t="n">
+        <v>0.00572602739726027</v>
+      </c>
+      <c r="K124" s="2" t="n">
+        <v>0.143150684931507</v>
+      </c>
+      <c r="L124" s="2" t="n">
+        <v>34.8333333333333</v>
+      </c>
+      <c r="M124" s="2" t="n">
+        <v>0.0954337899543379</v>
+      </c>
+      <c r="N124" s="2" t="n">
+        <v>0.572602739726027</v>
+      </c>
       <c r="P124" s="2" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="Q124" s="2" t="n">
-        <v>8</v>
+        <v>5.8</v>
       </c>
       <c r="R124" s="2" t="n">
-        <v>730</v>
+        <v>529.25</v>
       </c>
       <c r="S124" s="2" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="T124" s="2" t="n">
-        <v>8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0"/>
-      <c r="C125" s="0"/>
-      <c r="F125" s="0"/>
-      <c r="G125" s="0"/>
-      <c r="I125" s="0"/>
+      <c r="A125" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>1.6504347826087</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>75.92</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>0.412608695652174</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="J125" s="2" t="n">
+        <v>0.00504109589041096</v>
+      </c>
+      <c r="K125" s="2" t="n">
+        <v>0.126027397260274</v>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="M125" s="2" t="n">
+        <v>0.126027397260274</v>
+      </c>
+      <c r="N125" s="2" t="n">
+        <v>0.504109589041096</v>
+      </c>
       <c r="P125" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q125" s="2" t="n">
-        <v>8.22</v>
+        <v>6.02</v>
       </c>
       <c r="R125" s="2" t="n">
-        <v>750.075</v>
+        <v>549.325</v>
       </c>
       <c r="S125" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="T125" s="2" t="n">
-        <v>8.22</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0"/>
-      <c r="C126" s="0"/>
-      <c r="F126" s="0"/>
-      <c r="G126" s="0"/>
-      <c r="I126" s="0"/>
+      <c r="A126" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>1.21393258426966</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>54.02</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>0.303483146067416</v>
+      </c>
+      <c r="I126" s="4" t="n">
+        <v>178</v>
+      </c>
+      <c r="J126" s="2" t="n">
+        <v>0.00487671232876712</v>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>0.121917808219178</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="M126" s="2" t="n">
+        <v>0.121917808219178</v>
+      </c>
+      <c r="N126" s="2" t="n">
+        <v>0.487671232876712</v>
+      </c>
       <c r="P126" s="2" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q126" s="2" t="n">
-        <v>9.32</v>
+        <v>6.24</v>
       </c>
       <c r="R126" s="2" t="n">
-        <v>850.45</v>
+        <v>569.4</v>
       </c>
       <c r="S126" s="2" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="T126" s="2" t="n">
-        <v>8.44</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0"/>
       <c r="C127" s="0"/>
+      <c r="D127" s="0"/>
+      <c r="E127" s="0"/>
       <c r="F127" s="0"/>
       <c r="G127" s="0"/>
+      <c r="H127" s="0"/>
       <c r="I127" s="0"/>
-      <c r="P127" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q127" s="2" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="R127" s="2" t="n">
-        <v>950.825</v>
-      </c>
-      <c r="S127" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="T127" s="2" t="n">
-        <v>8.66</v>
-      </c>
+      <c r="J127" s="0"/>
+      <c r="K127" s="0"/>
+      <c r="L127" s="0"/>
+      <c r="M127" s="0"/>
+      <c r="N127" s="0"/>
+      <c r="P127" s="0"/>
+      <c r="Q127" s="0"/>
+      <c r="R127" s="0"/>
+      <c r="S127" s="0"/>
+      <c r="T127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0"/>
-      <c r="C128" s="0"/>
-      <c r="F128" s="0"/>
-      <c r="G128" s="0"/>
-      <c r="I128" s="0"/>
+      <c r="A128" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>0.929090909090909</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>0.30969696969697</v>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="J128" s="2" t="n">
+        <v>0.00271232876712329</v>
+      </c>
+      <c r="K128" s="2" t="n">
+        <v>0.0678082191780822</v>
+      </c>
+      <c r="L128" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="M128" s="2" t="n">
+        <v>0.0904109589041096</v>
+      </c>
+      <c r="N128" s="2" t="n">
+        <v>0.271232876712329</v>
+      </c>
       <c r="P128" s="2" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="Q128" s="2" t="n">
-        <v>11.52</v>
+        <v>6.68</v>
       </c>
       <c r="R128" s="2" t="n">
-        <v>1051.2</v>
+        <v>609.55</v>
       </c>
       <c r="S128" s="2" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T128" s="2" t="n">
-        <v>8.88</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0"/>
-      <c r="C129" s="0"/>
-      <c r="F129" s="0"/>
-      <c r="G129" s="0"/>
-      <c r="I129" s="0"/>
+      <c r="A129" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>0.925853658536585</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>0.462926829268293</v>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="J129" s="2" t="n">
+        <v>0.00112328767123288</v>
+      </c>
+      <c r="K129" s="2" t="n">
+        <v>0.0280821917808219</v>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="M129" s="2" t="n">
+        <v>0.0561643835616438</v>
+      </c>
+      <c r="N129" s="2" t="n">
+        <v>0.112328767123288</v>
+      </c>
       <c r="P129" s="2" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="Q129" s="2" t="n">
-        <v>12.62</v>
+        <v>6.9</v>
       </c>
       <c r="R129" s="2" t="n">
-        <v>1151.575</v>
+        <v>629.625</v>
       </c>
       <c r="S129" s="2" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="T129" s="2" t="n">
-        <v>9.1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0"/>
       <c r="C130" s="0"/>
+      <c r="D130" s="0"/>
+      <c r="E130" s="0"/>
       <c r="F130" s="0"/>
       <c r="G130" s="0"/>
+      <c r="H130" s="0"/>
       <c r="I130" s="0"/>
-      <c r="P130" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Q130" s="2" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="R130" s="2" t="n">
-        <v>1251.95</v>
-      </c>
-      <c r="S130" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="T130" s="2" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J130" s="0"/>
+      <c r="K130" s="0"/>
+      <c r="L130" s="0"/>
+      <c r="M130" s="0"/>
+      <c r="N130" s="0"/>
+      <c r="P130" s="0"/>
+      <c r="Q130" s="0"/>
+      <c r="R130" s="0"/>
+      <c r="S130" s="0"/>
+      <c r="T130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0"/>
-      <c r="C131" s="0"/>
-      <c r="F131" s="0"/>
-      <c r="G131" s="0"/>
-      <c r="I131" s="0"/>
+      <c r="A131" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>1.21666666666667</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>1.21666666666667</v>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="J131" s="2" t="n">
+        <v>0.000821917808219178</v>
+      </c>
+      <c r="K131" s="2" t="n">
+        <v>0.0205479452054794</v>
+      </c>
+      <c r="L131" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="M131" s="2" t="n">
+        <v>0.0821917808219178</v>
+      </c>
+      <c r="N131" s="2" t="n">
+        <v>0.0821917808219178</v>
+      </c>
       <c r="P131" s="2" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="Q131" s="2" t="n">
-        <v>14.82</v>
+        <v>7.34</v>
       </c>
       <c r="R131" s="2" t="n">
-        <v>1352.325</v>
+        <v>669.775</v>
       </c>
       <c r="S131" s="2" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="T131" s="2" t="n">
-        <v>9.54</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0"/>
-      <c r="C132" s="0"/>
-      <c r="F132" s="0"/>
-      <c r="G132" s="0"/>
-      <c r="I132" s="0"/>
+      <c r="A132" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>0.297959183673469</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>0.297959183673469</v>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="J132" s="2" t="n">
+        <v>0.00134246575342466</v>
+      </c>
+      <c r="K132" s="2" t="n">
+        <v>0.0335616438356164</v>
+      </c>
+      <c r="L132" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="M132" s="2" t="n">
+        <v>0.134246575342466</v>
+      </c>
+      <c r="N132" s="2" t="n">
+        <v>0.134246575342466</v>
+      </c>
       <c r="P132" s="2" t="n">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="Q132" s="2" t="n">
-        <v>15.92</v>
+        <v>7.56</v>
       </c>
       <c r="R132" s="2" t="n">
-        <v>1452.7</v>
+        <v>689.85</v>
       </c>
       <c r="S132" s="2" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="T132" s="2" t="n">
-        <v>9.76</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5077,19 +5124,19 @@
       <c r="G133" s="0"/>
       <c r="I133" s="0"/>
       <c r="P133" s="2" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q133" s="2" t="n">
-        <v>17.02</v>
+        <v>7.78</v>
       </c>
       <c r="R133" s="2" t="n">
-        <v>1553.075</v>
+        <v>709.925</v>
       </c>
       <c r="S133" s="2" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="T133" s="2" t="n">
-        <v>9.98</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5099,67 +5146,63 @@
       <c r="G134" s="0"/>
       <c r="I134" s="0"/>
       <c r="P134" s="2" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="Q134" s="2" t="n">
-        <v>18.12</v>
+        <v>8</v>
       </c>
       <c r="R134" s="2" t="n">
-        <v>1653.45</v>
+        <v>730</v>
       </c>
       <c r="S134" s="2" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="T134" s="2" t="n">
-        <v>10.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="A135" s="0"/>
       <c r="C135" s="0"/>
       <c r="F135" s="0"/>
       <c r="G135" s="0"/>
       <c r="I135" s="0"/>
       <c r="P135" s="2" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="Q135" s="2" t="n">
-        <v>20.32</v>
+        <v>8.22</v>
       </c>
       <c r="R135" s="2" t="n">
-        <v>1854.2</v>
+        <v>750.075</v>
       </c>
       <c r="S135" s="2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T135" s="2" t="n">
-        <v>10.42</v>
+        <v>8.22</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="A136" s="0"/>
       <c r="C136" s="0"/>
       <c r="F136" s="0"/>
       <c r="G136" s="0"/>
       <c r="I136" s="0"/>
       <c r="P136" s="2" t="n">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="Q136" s="2" t="n">
-        <v>22.52</v>
+        <v>9.32</v>
       </c>
       <c r="R136" s="2" t="n">
-        <v>2054.95</v>
+        <v>850.45</v>
       </c>
       <c r="S136" s="2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="T136" s="2" t="n">
-        <v>10.64</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5169,19 +5212,19 @@
       <c r="G137" s="0"/>
       <c r="I137" s="0"/>
       <c r="P137" s="2" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="Q137" s="2" t="n">
-        <v>24.72</v>
+        <v>10.42</v>
       </c>
       <c r="R137" s="2" t="n">
-        <v>2255.7</v>
+        <v>950.825</v>
       </c>
       <c r="S137" s="2" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="T137" s="2" t="n">
-        <v>10.86</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5191,19 +5234,19 @@
       <c r="G138" s="0"/>
       <c r="I138" s="0"/>
       <c r="P138" s="2" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="Q138" s="2" t="n">
-        <v>26.92</v>
+        <v>11.52</v>
       </c>
       <c r="R138" s="2" t="n">
-        <v>2456.45</v>
+        <v>1051.2</v>
       </c>
       <c r="S138" s="2" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T138" s="2" t="n">
-        <v>11.08</v>
+        <v>8.88</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,19 +5256,19 @@
       <c r="G139" s="0"/>
       <c r="I139" s="0"/>
       <c r="P139" s="2" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="Q139" s="2" t="n">
-        <v>29.12</v>
+        <v>12.62</v>
       </c>
       <c r="R139" s="2" t="n">
-        <v>2657.2</v>
+        <v>1151.575</v>
       </c>
       <c r="S139" s="2" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="T139" s="2" t="n">
-        <v>11.3</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5235,19 +5278,19 @@
       <c r="G140" s="0"/>
       <c r="I140" s="0"/>
       <c r="P140" s="2" t="n">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="Q140" s="2" t="n">
-        <v>31.3199999999999</v>
+        <v>13.72</v>
       </c>
       <c r="R140" s="2" t="n">
-        <v>2857.94999999999</v>
+        <v>1251.95</v>
       </c>
       <c r="S140" s="2" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="T140" s="2" t="n">
-        <v>11.52</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,19 +5300,19 @@
       <c r="G141" s="0"/>
       <c r="I141" s="0"/>
       <c r="P141" s="2" t="n">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="Q141" s="2" t="n">
-        <v>33.5199999999999</v>
+        <v>14.82</v>
       </c>
       <c r="R141" s="2" t="n">
-        <v>3058.69999999999</v>
+        <v>1352.325</v>
       </c>
       <c r="S141" s="2" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="T141" s="2" t="n">
-        <v>11.74</v>
+        <v>9.54</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5279,19 +5322,19 @@
       <c r="G142" s="0"/>
       <c r="I142" s="0"/>
       <c r="P142" s="2" t="n">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="Q142" s="2" t="n">
-        <v>35.7199999999999</v>
+        <v>15.92</v>
       </c>
       <c r="R142" s="2" t="n">
-        <v>3259.44999999999</v>
+        <v>1452.7</v>
       </c>
       <c r="S142" s="2" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="T142" s="2" t="n">
-        <v>11.96</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,19 +5344,19 @@
       <c r="G143" s="0"/>
       <c r="I143" s="0"/>
       <c r="P143" s="2" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="Q143" s="2" t="n">
-        <v>37.9199999999999</v>
+        <v>17.02</v>
       </c>
       <c r="R143" s="2" t="n">
-        <v>3460.19999999999</v>
+        <v>1553.075</v>
       </c>
       <c r="S143" s="2" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="T143" s="2" t="n">
-        <v>12.18</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5323,63 +5366,67 @@
       <c r="G144" s="0"/>
       <c r="I144" s="0"/>
       <c r="P144" s="2" t="n">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="Q144" s="2" t="n">
-        <v>40.1199999999999</v>
+        <v>18.12</v>
       </c>
       <c r="R144" s="2" t="n">
-        <v>3660.94999999999</v>
+        <v>1653.45</v>
       </c>
       <c r="S144" s="2" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="T144" s="2" t="n">
-        <v>12.4</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0"/>
+      <c r="A145" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="C145" s="0"/>
       <c r="F145" s="0"/>
       <c r="G145" s="0"/>
       <c r="I145" s="0"/>
       <c r="P145" s="2" t="n">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="Q145" s="2" t="n">
-        <v>42.3199999999999</v>
+        <v>20.32</v>
       </c>
       <c r="R145" s="2" t="n">
-        <v>3861.69999999999</v>
+        <v>1854.2</v>
       </c>
       <c r="S145" s="2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T145" s="2" t="n">
-        <v>12.62</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0"/>
+      <c r="A146" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C146" s="0"/>
       <c r="F146" s="0"/>
       <c r="G146" s="0"/>
       <c r="I146" s="0"/>
       <c r="P146" s="2" t="n">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="Q146" s="2" t="n">
-        <v>44.5199999999999</v>
+        <v>22.52</v>
       </c>
       <c r="R146" s="2" t="n">
-        <v>4062.44999999999</v>
+        <v>2054.95</v>
       </c>
       <c r="S146" s="2" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="T146" s="2" t="n">
-        <v>12.84</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5388,11 +5435,20 @@
       <c r="F147" s="0"/>
       <c r="G147" s="0"/>
       <c r="I147" s="0"/>
+      <c r="P147" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="Q147" s="2" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="R147" s="2" t="n">
+        <v>2255.7</v>
+      </c>
       <c r="S147" s="2" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="T147" s="2" t="n">
-        <v>13.06</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5401,11 +5457,20 @@
       <c r="F148" s="0"/>
       <c r="G148" s="0"/>
       <c r="I148" s="0"/>
+      <c r="P148" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="Q148" s="2" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="R148" s="2" t="n">
+        <v>2456.45</v>
+      </c>
       <c r="S148" s="2" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="T148" s="2" t="n">
-        <v>13.28</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5414,11 +5479,20 @@
       <c r="F149" s="0"/>
       <c r="G149" s="0"/>
       <c r="I149" s="0"/>
+      <c r="P149" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="Q149" s="2" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="R149" s="2" t="n">
+        <v>2657.2</v>
+      </c>
       <c r="S149" s="2" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="T149" s="2" t="n">
-        <v>13.5</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5427,11 +5501,20 @@
       <c r="F150" s="0"/>
       <c r="G150" s="0"/>
       <c r="I150" s="0"/>
+      <c r="P150" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="Q150" s="2" t="n">
+        <v>31.3199999999999</v>
+      </c>
+      <c r="R150" s="2" t="n">
+        <v>2857.94999999999</v>
+      </c>
       <c r="S150" s="2" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="T150" s="2" t="n">
-        <v>13.72</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5440,11 +5523,20 @@
       <c r="F151" s="0"/>
       <c r="G151" s="0"/>
       <c r="I151" s="0"/>
+      <c r="P151" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="Q151" s="2" t="n">
+        <v>33.5199999999999</v>
+      </c>
+      <c r="R151" s="2" t="n">
+        <v>3058.69999999999</v>
+      </c>
       <c r="S151" s="2" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="T151" s="2" t="n">
-        <v>13.94</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5453,11 +5545,20 @@
       <c r="F152" s="0"/>
       <c r="G152" s="0"/>
       <c r="I152" s="0"/>
+      <c r="P152" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="Q152" s="2" t="n">
+        <v>35.7199999999999</v>
+      </c>
+      <c r="R152" s="2" t="n">
+        <v>3259.44999999999</v>
+      </c>
       <c r="S152" s="2" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="T152" s="2" t="n">
-        <v>14.16</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5466,11 +5567,20 @@
       <c r="F153" s="0"/>
       <c r="G153" s="0"/>
       <c r="I153" s="0"/>
+      <c r="P153" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="Q153" s="2" t="n">
+        <v>37.9199999999999</v>
+      </c>
+      <c r="R153" s="2" t="n">
+        <v>3460.19999999999</v>
+      </c>
       <c r="S153" s="2" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="T153" s="2" t="n">
-        <v>14.38</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5479,11 +5589,20 @@
       <c r="F154" s="0"/>
       <c r="G154" s="0"/>
       <c r="I154" s="0"/>
+      <c r="P154" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="Q154" s="2" t="n">
+        <v>40.1199999999999</v>
+      </c>
+      <c r="R154" s="2" t="n">
+        <v>3660.94999999999</v>
+      </c>
       <c r="S154" s="2" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="T154" s="2" t="n">
-        <v>14.6</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5492,11 +5611,20 @@
       <c r="F155" s="0"/>
       <c r="G155" s="0"/>
       <c r="I155" s="0"/>
+      <c r="P155" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="Q155" s="2" t="n">
+        <v>42.3199999999999</v>
+      </c>
+      <c r="R155" s="2" t="n">
+        <v>3861.69999999999</v>
+      </c>
       <c r="S155" s="2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="T155" s="2" t="n">
-        <v>14.82</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5505,11 +5633,20 @@
       <c r="F156" s="0"/>
       <c r="G156" s="0"/>
       <c r="I156" s="0"/>
+      <c r="P156" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="Q156" s="2" t="n">
+        <v>44.5199999999999</v>
+      </c>
+      <c r="R156" s="2" t="n">
+        <v>4062.44999999999</v>
+      </c>
       <c r="S156" s="2" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="T156" s="2" t="n">
-        <v>15.04</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5519,10 +5656,10 @@
       <c r="G157" s="0"/>
       <c r="I157" s="0"/>
       <c r="S157" s="2" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="T157" s="2" t="n">
-        <v>15.26</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5532,10 +5669,10 @@
       <c r="G158" s="0"/>
       <c r="I158" s="0"/>
       <c r="S158" s="2" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="T158" s="2" t="n">
-        <v>15.48</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5545,10 +5682,10 @@
       <c r="G159" s="0"/>
       <c r="I159" s="0"/>
       <c r="S159" s="2" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="T159" s="2" t="n">
-        <v>15.7</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5558,10 +5695,10 @@
       <c r="G160" s="0"/>
       <c r="I160" s="0"/>
       <c r="S160" s="2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="T160" s="2" t="n">
-        <v>15.92</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5571,10 +5708,10 @@
       <c r="G161" s="0"/>
       <c r="I161" s="0"/>
       <c r="S161" s="2" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="T161" s="2" t="n">
-        <v>16.14</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5584,1217 +5721,1347 @@
       <c r="G162" s="0"/>
       <c r="I162" s="0"/>
       <c r="S162" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="T162" s="2" t="n">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0"/>
+      <c r="C163" s="0"/>
+      <c r="F163" s="0"/>
+      <c r="G163" s="0"/>
+      <c r="I163" s="0"/>
+      <c r="S163" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="T163" s="2" t="n">
+        <v>14.38</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0"/>
+      <c r="C164" s="0"/>
+      <c r="F164" s="0"/>
+      <c r="G164" s="0"/>
+      <c r="I164" s="0"/>
+      <c r="S164" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="T164" s="2" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0"/>
+      <c r="C165" s="0"/>
+      <c r="F165" s="0"/>
+      <c r="G165" s="0"/>
+      <c r="I165" s="0"/>
+      <c r="S165" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="T165" s="2" t="n">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0"/>
+      <c r="C166" s="0"/>
+      <c r="F166" s="0"/>
+      <c r="G166" s="0"/>
+      <c r="I166" s="0"/>
+      <c r="S166" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="T166" s="2" t="n">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0"/>
+      <c r="C167" s="0"/>
+      <c r="F167" s="0"/>
+      <c r="G167" s="0"/>
+      <c r="I167" s="0"/>
+      <c r="S167" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="T167" s="2" t="n">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0"/>
+      <c r="C168" s="0"/>
+      <c r="F168" s="0"/>
+      <c r="G168" s="0"/>
+      <c r="I168" s="0"/>
+      <c r="S168" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="T168" s="2" t="n">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0"/>
+      <c r="C169" s="0"/>
+      <c r="F169" s="0"/>
+      <c r="G169" s="0"/>
+      <c r="I169" s="0"/>
+      <c r="S169" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="T169" s="2" t="n">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0"/>
+      <c r="C170" s="0"/>
+      <c r="F170" s="0"/>
+      <c r="G170" s="0"/>
+      <c r="I170" s="0"/>
+      <c r="S170" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="T170" s="2" t="n">
+        <v>15.92</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0"/>
+      <c r="C171" s="0"/>
+      <c r="F171" s="0"/>
+      <c r="G171" s="0"/>
+      <c r="I171" s="0"/>
+      <c r="S171" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="T171" s="2" t="n">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0"/>
+      <c r="C172" s="0"/>
+      <c r="F172" s="0"/>
+      <c r="G172" s="0"/>
+      <c r="I172" s="0"/>
+      <c r="S172" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="T162" s="2" t="n">
+      <c r="T172" s="2" t="n">
         <v>16.36</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I163" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="S163" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="T163" s="2" t="n">
-        <v>16.58</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C164" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="S164" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="T164" s="2" t="n">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C165" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="S165" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="T165" s="2" t="n">
-        <v>17.02</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C166" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="S166" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="T166" s="2" t="n">
-        <v>17.24</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C167" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="S167" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="T167" s="2" t="n">
-        <v>17.46</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C168" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="S168" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="T168" s="2" t="n">
-        <v>17.68</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C169" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="S169" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="T169" s="2" t="n">
-        <v>17.9</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C170" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="S170" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="T170" s="2" t="n">
-        <v>18.12</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C171" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="S171" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="T171" s="2" t="n">
-        <v>18.34</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C172" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="S172" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="T172" s="2" t="n">
-        <v>18.56</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C173" s="2" t="n">
-        <v>16</v>
+      <c r="I173" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="S173" s="2" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="T173" s="2" t="n">
-        <v>18.78</v>
+        <v>16.58</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="C174" s="2" t="n">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="S174" s="2" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="T174" s="2" t="n">
-        <v>19</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C175" s="2" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="S175" s="2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="T175" s="2" t="n">
-        <v>19.22</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C176" s="2" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="S176" s="2" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="T176" s="2" t="n">
-        <v>19.44</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="C177" s="2" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="S177" s="2" t="n">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="T177" s="2" t="n">
-        <v>19.66</v>
+        <v>17.46</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="C178" s="2" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="S178" s="2" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="T178" s="2" t="n">
-        <v>19.88</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C179" s="2" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="S179" s="2" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="T179" s="2" t="n">
-        <v>20.1</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="C180" s="2" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="S180" s="2" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="T180" s="2" t="n">
-        <v>20.32</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="C181" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S181" s="2" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="T181" s="2" t="n">
-        <v>20.54</v>
+        <v>18.34</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="C182" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="S182" s="2" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="T182" s="2" t="n">
-        <v>20.76</v>
+        <v>18.56</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C183" s="2" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="S183" s="2" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="T183" s="2" t="n">
-        <v>20.98</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C184" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S184" s="2" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="T184" s="2" t="n">
-        <v>21.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C185" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S185" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="T185" s="2" t="n">
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C186" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="S186" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="T186" s="2" t="n">
+        <v>19.44</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C187" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="S187" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="T187" s="2" t="n">
+        <v>19.66</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C188" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="S188" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="T188" s="2" t="n">
+        <v>19.88</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C189" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="S189" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="T189" s="2" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C190" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S190" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="T190" s="2" t="n">
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C191" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S191" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="T191" s="2" t="n">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="S185" s="2" t="n">
+      <c r="C192" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S192" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="T192" s="2" t="n">
+        <v>20.76</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C193" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S193" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="T193" s="2" t="n">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C194" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S194" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="T194" s="2" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="S195" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="T185" s="2" t="n">
+      <c r="T195" s="2" t="n">
         <v>21.42</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S186" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="T186" s="2" t="n">
-        <v>21.64</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S187" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="T187" s="2" t="n">
-        <v>21.86</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S188" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="T188" s="2" t="n">
-        <v>22.08</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S189" s="2" t="n">
-        <v>104</v>
-      </c>
-      <c r="T189" s="2" t="n">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S190" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="T190" s="2" t="n">
-        <v>22.52</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S191" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="T191" s="2" t="n">
-        <v>22.74</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S192" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="T192" s="2" t="n">
-        <v>22.96</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S193" s="2" t="n">
-        <v>108</v>
-      </c>
-      <c r="T193" s="2" t="n">
-        <v>23.18</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S194" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="T194" s="2" t="n">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S195" s="2" t="n">
-        <v>110</v>
-      </c>
-      <c r="T195" s="2" t="n">
-        <v>23.62</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S196" s="2" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="T196" s="2" t="n">
-        <v>23.84</v>
+        <v>21.64</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S197" s="2" t="n">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T197" s="2" t="n">
-        <v>24.06</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S198" s="2" t="n">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="T198" s="2" t="n">
-        <v>24.28</v>
+        <v>22.08</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S199" s="2" t="n">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T199" s="2" t="n">
-        <v>24.5</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S200" s="2" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="T200" s="2" t="n">
-        <v>24.72</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S201" s="2" t="n">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="T201" s="2" t="n">
-        <v>24.94</v>
+        <v>22.74</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S202" s="2" t="n">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="T202" s="2" t="n">
-        <v>25.16</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S203" s="2" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="T203" s="2" t="n">
-        <v>25.38</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S204" s="2" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="T204" s="2" t="n">
-        <v>25.6</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S205" s="2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="T205" s="2" t="n">
-        <v>25.82</v>
+        <v>23.62</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S206" s="2" t="n">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="T206" s="2" t="n">
-        <v>26.04</v>
+        <v>23.84</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S207" s="2" t="n">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="T207" s="2" t="n">
-        <v>26.26</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S208" s="2" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="T208" s="2" t="n">
-        <v>26.48</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S209" s="2" t="n">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="T209" s="2" t="n">
-        <v>26.7</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S210" s="2" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="T210" s="2" t="n">
-        <v>26.92</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S211" s="2" t="n">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="T211" s="2" t="n">
-        <v>27.14</v>
+        <v>24.94</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S212" s="2" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="T212" s="2" t="n">
-        <v>27.36</v>
+        <v>25.16</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S213" s="2" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T213" s="2" t="n">
-        <v>27.58</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S214" s="2" t="n">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="T214" s="2" t="n">
-        <v>27.8</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S215" s="2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="T215" s="2" t="n">
-        <v>28.02</v>
+        <v>25.82</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S216" s="2" t="n">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="T216" s="2" t="n">
-        <v>28.24</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S217" s="2" t="n">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="T217" s="2" t="n">
-        <v>28.46</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S218" s="2" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="T218" s="2" t="n">
-        <v>28.68</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S219" s="2" t="n">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="T219" s="2" t="n">
-        <v>28.9</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S220" s="2" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="T220" s="2" t="n">
-        <v>29.12</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S221" s="2" t="n">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="T221" s="2" t="n">
-        <v>29.34</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S222" s="2" t="n">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="T222" s="2" t="n">
-        <v>29.56</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S223" s="2" t="n">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="T223" s="2" t="n">
-        <v>29.78</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S224" s="2" t="n">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="T224" s="2" t="n">
-        <v>30</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S225" s="2" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="T225" s="2" t="n">
-        <v>30.22</v>
+        <v>28.02</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S226" s="2" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="T226" s="2" t="n">
-        <v>30.44</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S227" s="2" t="n">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="T227" s="2" t="n">
-        <v>30.66</v>
+        <v>28.46</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S228" s="2" t="n">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T228" s="2" t="n">
-        <v>30.88</v>
+        <v>28.68</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S229" s="2" t="n">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="T229" s="2" t="n">
-        <v>31.1</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S230" s="2" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="T230" s="2" t="n">
-        <v>31.32</v>
+        <v>29.12</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S231" s="2" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="T231" s="2" t="n">
-        <v>31.54</v>
+        <v>29.34</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S232" s="2" t="n">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="T232" s="2" t="n">
-        <v>31.76</v>
+        <v>29.56</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S233" s="2" t="n">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="T233" s="2" t="n">
-        <v>31.98</v>
+        <v>29.78</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S234" s="2" t="n">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="T234" s="2" t="n">
-        <v>32.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S235" s="2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="T235" s="2" t="n">
-        <v>32.42</v>
+        <v>30.22</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S236" s="2" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="T236" s="2" t="n">
-        <v>32.64</v>
+        <v>30.44</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S237" s="2" t="n">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="T237" s="2" t="n">
-        <v>32.86</v>
+        <v>30.66</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S238" s="2" t="n">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="T238" s="2" t="n">
-        <v>33.08</v>
+        <v>30.88</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S239" s="2" t="n">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="T239" s="2" t="n">
-        <v>33.3</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S240" s="2" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T240" s="2" t="n">
-        <v>33.52</v>
+        <v>31.32</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S241" s="2" t="n">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="T241" s="2" t="n">
-        <v>33.74</v>
+        <v>31.54</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S242" s="2" t="n">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="T242" s="2" t="n">
-        <v>33.96</v>
+        <v>31.76</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S243" s="2" t="n">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="T243" s="2" t="n">
-        <v>34.18</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S244" s="2" t="n">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="T244" s="2" t="n">
-        <v>34.4</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S245" s="2" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="T245" s="2" t="n">
-        <v>34.62</v>
+        <v>32.42</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S246" s="2" t="n">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="T246" s="2" t="n">
-        <v>34.84</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S247" s="2" t="n">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="T247" s="2" t="n">
-        <v>35.06</v>
+        <v>32.86</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S248" s="2" t="n">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="T248" s="2" t="n">
-        <v>35.28</v>
+        <v>33.08</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S249" s="2" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="T249" s="2" t="n">
-        <v>35.5</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S250" s="2" t="n">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="T250" s="2" t="n">
-        <v>35.72</v>
+        <v>33.52</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S251" s="2" t="n">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="T251" s="2" t="n">
-        <v>35.94</v>
+        <v>33.74</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S252" s="2" t="n">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="T252" s="2" t="n">
-        <v>36.16</v>
+        <v>33.96</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S253" s="2" t="n">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="T253" s="2" t="n">
-        <v>36.38</v>
+        <v>34.18</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S254" s="2" t="n">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="T254" s="2" t="n">
-        <v>36.6</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S255" s="2" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="T255" s="2" t="n">
-        <v>36.82</v>
+        <v>34.62</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S256" s="2" t="n">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="T256" s="2" t="n">
-        <v>37.04</v>
+        <v>34.84</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S257" s="2" t="n">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="T257" s="2" t="n">
-        <v>37.26</v>
+        <v>35.06</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S258" s="2" t="n">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T258" s="2" t="n">
-        <v>37.48</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S259" s="2" t="n">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="T259" s="2" t="n">
-        <v>37.7</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S260" s="2" t="n">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="T260" s="2" t="n">
-        <v>37.92</v>
+        <v>35.72</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S261" s="2" t="n">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="T261" s="2" t="n">
-        <v>38.14</v>
+        <v>35.94</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S262" s="2" t="n">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="T262" s="2" t="n">
-        <v>38.36</v>
+        <v>36.16</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S263" s="2" t="n">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="T263" s="2" t="n">
-        <v>38.58</v>
+        <v>36.38</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S264" s="2" t="n">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="T264" s="2" t="n">
-        <v>38.8</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S265" s="2" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="T265" s="2" t="n">
-        <v>39.02</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S266" s="2" t="n">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="T266" s="2" t="n">
-        <v>39.24</v>
+        <v>37.04</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S267" s="2" t="n">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="T267" s="2" t="n">
-        <v>39.46</v>
+        <v>37.26</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S268" s="2" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="T268" s="2" t="n">
-        <v>39.68</v>
+        <v>37.48</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S269" s="2" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="T269" s="2" t="n">
-        <v>39.9</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S270" s="2" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="T270" s="2" t="n">
-        <v>40.12</v>
+        <v>37.92</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S271" s="2" t="n">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="T271" s="2" t="n">
-        <v>40.34</v>
+        <v>38.14</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S272" s="2" t="n">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="T272" s="2" t="n">
-        <v>40.56</v>
+        <v>38.36</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S273" s="2" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="T273" s="2" t="n">
-        <v>40.78</v>
+        <v>38.58</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S274" s="2" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="T274" s="2" t="n">
-        <v>41</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S275" s="2" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="T275" s="2" t="n">
-        <v>41.22</v>
+        <v>39.02</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S276" s="2" t="n">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="T276" s="2" t="n">
-        <v>41.44</v>
+        <v>39.24</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S277" s="2" t="n">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="T277" s="2" t="n">
-        <v>41.66</v>
+        <v>39.46</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S278" s="2" t="n">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="T278" s="2" t="n">
-        <v>41.88</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S279" s="2" t="n">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="T279" s="2" t="n">
-        <v>42.1</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S280" s="2" t="n">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="T280" s="2" t="n">
-        <v>42.32</v>
+        <v>40.12</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S281" s="2" t="n">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="T281" s="2" t="n">
-        <v>42.54</v>
+        <v>40.34</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S282" s="2" t="n">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="T282" s="2" t="n">
-        <v>42.76</v>
+        <v>40.56</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S283" s="2" t="n">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="T283" s="2" t="n">
-        <v>42.98</v>
+        <v>40.78</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S284" s="2" t="n">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="T284" s="2" t="n">
-        <v>43.2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S285" s="2" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="T285" s="2" t="n">
-        <v>43.42</v>
+        <v>41.22</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S286" s="2" t="n">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="T286" s="2" t="n">
-        <v>43.64</v>
+        <v>41.44</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S287" s="2" t="n">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="T287" s="2" t="n">
-        <v>43.86</v>
+        <v>41.66</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S288" s="2" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="T288" s="2" t="n">
-        <v>44.08</v>
+        <v>41.88</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S289" s="2" t="n">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="T289" s="2" t="n">
-        <v>44.3</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S290" s="2" t="n">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="T290" s="2" t="n">
-        <v>44.52</v>
+        <v>42.32</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S291" s="2" t="n">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="T291" s="2" t="n">
-        <v>44.74</v>
+        <v>42.54</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S292" s="2" t="n">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="T292" s="2" t="n">
-        <v>44.96</v>
+        <v>42.76</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S293" s="2" t="n">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="T293" s="2" t="n">
-        <v>45.18</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S294" s="2" t="n">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="T294" s="2" t="n">
-        <v>45.4</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S295" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="T295" s="2" t="n">
+        <v>43.42</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S296" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="T296" s="2" t="n">
+        <v>43.64</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S297" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="T297" s="2" t="n">
+        <v>43.86</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S298" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="T298" s="2" t="n">
+        <v>44.08</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S299" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="T299" s="2" t="n">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S300" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="T300" s="2" t="n">
+        <v>44.52</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S301" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="T301" s="2" t="n">
+        <v>44.74</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S302" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="T302" s="2" t="n">
+        <v>44.96</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S303" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="T303" s="2" t="n">
+        <v>45.18</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S304" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="T304" s="2" t="n">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S305" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="T295" s="2" t="n">
+      <c r="T305" s="2" t="n">
         <v>45.62</v>
       </c>
     </row>

--- a/Modding resources/economy spreadsheets/size_modifier.xlsx
+++ b/Modding resources/economy spreadsheets/size_modifier.xlsx
@@ -593,36 +593,36 @@
   <dimension ref="A1:X303"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
+      <selection pane="bottomLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.1813953488372"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.16744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.16744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.68837209302326"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.06976744186047"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="4.62790697674419"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="5.13488372093023"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.22790697674419"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.73953488372093"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="17.8418604651163"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="16" min="14" style="1" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="12.553488372093"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="3.81395348837209"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="4.67441860465116"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="5.16744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.3348837209302"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="16" min="14" style="1" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="12.8"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="3.93953488372093"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="10.4604651162791"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="1" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="1" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="1" width="13.906976744186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,13 +1246,25 @@
         <v>38</v>
       </c>
       <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
+      <c r="C19" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
+      <c r="I19" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>

--- a/Modding resources/economy spreadsheets/size_modifier.xlsx
+++ b/Modding resources/economy spreadsheets/size_modifier.xlsx
@@ -595,34 +595,34 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.6744186046512"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.16744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.89302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.4"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.38604651162791"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="4.67441860465116"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="5.16744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="16" min="14" style="1" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="12.8"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="3.93953488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.8279069767442"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="16" min="14" style="1" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="4.06046511627907"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="10.706976744186"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="1" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="1" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="1" width="14.2744186046512"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,13 +792,25 @@
         <v>23</v>
       </c>
       <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
+      <c r="C4" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
+      <c r="I4" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
@@ -876,13 +888,25 @@
         <v>26</v>
       </c>
       <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
+      <c r="C7" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
+      <c r="I7" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
@@ -1314,13 +1338,25 @@
         <v>40</v>
       </c>
       <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
+      <c r="C21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
+      <c r="I21" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
@@ -1398,13 +1434,25 @@
         <v>43</v>
       </c>
       <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
+      <c r="C24" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
+      <c r="I24" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>

--- a/Modding resources/economy spreadsheets/size_modifier.xlsx
+++ b/Modding resources/economy spreadsheets/size_modifier.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="182">
   <si>
     <t>Name</t>
   </si>
@@ -346,12 +346,93 @@
     <t>India</t>
   </si>
   <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
     <t>Russia</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
+    <t>thailand</t>
+  </si>
+  <si>
+    <t>taiwan</t>
+  </si>
+  <si>
+    <t>vietnam</t>
+  </si>
+  <si>
+    <t>cambodia</t>
+  </si>
+  <si>
+    <t>malaysia</t>
+  </si>
+  <si>
+    <t>myanmar</t>
+  </si>
+  <si>
+    <t>bangladesh</t>
+  </si>
+  <si>
+    <t>papua</t>
+  </si>
+  <si>
+    <t>kaz</t>
+  </si>
+  <si>
+    <t>uzb</t>
+  </si>
+  <si>
+    <t>taj</t>
+  </si>
+  <si>
+    <t>kyrg</t>
+  </si>
+  <si>
+    <t>turkmen</t>
+  </si>
+  <si>
+    <t>azeri</t>
+  </si>
+  <si>
+    <t>kurdi</t>
+  </si>
+  <si>
+    <t>armenia</t>
+  </si>
+  <si>
+    <t>georgia</t>
+  </si>
+  <si>
+    <t>iraq</t>
+  </si>
+  <si>
+    <t>syria</t>
+  </si>
+  <si>
+    <t>jordan</t>
+  </si>
+  <si>
+    <t>lebanon</t>
+  </si>
+  <si>
+    <t>yemen</t>
+  </si>
+  <si>
+    <t>qatar</t>
+  </si>
+  <si>
+    <t>kuwait</t>
+  </si>
+  <si>
+    <t>oman</t>
+  </si>
+  <si>
     <t>Iran</t>
   </si>
   <si>
@@ -362,6 +443,30 @@
   </si>
   <si>
     <t>South Africa</t>
+  </si>
+  <si>
+    <t>libya</t>
+  </si>
+  <si>
+    <t>egypt</t>
+  </si>
+  <si>
+    <t>tunisia</t>
+  </si>
+  <si>
+    <t>mauritania</t>
+  </si>
+  <si>
+    <t>senegal</t>
+  </si>
+  <si>
+    <t>guinea</t>
+  </si>
+  <si>
+    <t>nigeria</t>
+  </si>
+  <si>
+    <t>drc</t>
   </si>
   <si>
     <t>Israel</t>
@@ -590,39 +695,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X303"/>
+  <dimension ref="A1:X337"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="G133" activeCellId="0" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.1674418604651"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.16744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.4"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.01395348837209"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.38604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.13953488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.50697674418605"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="4.67441860465116"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="5.16744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.73953488372093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="16" min="14" style="1" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="16" min="14" style="1" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.7813953488372"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="4.06046511627907"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="11.0744186046512"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="1" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="1" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="1" width="14.646511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,13 +1173,25 @@
         <v>32</v>
       </c>
       <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
+      <c r="C13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
+      <c r="I13" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
@@ -1152,13 +1269,25 @@
         <v>35</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
+      <c r="C16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
+      <c r="I16" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
@@ -1180,13 +1309,25 @@
         <v>36</v>
       </c>
       <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
+      <c r="C17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
+      <c r="I17" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
@@ -1211,15 +1352,23 @@
       <c r="C18" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="H18" s="2" t="n">
         <v>3.60989010989011</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" s="2" t="n">
         <v>125</v>
@@ -1283,7 +1432,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="0"/>
       <c r="I19" s="0" t="n">
@@ -1310,13 +1459,21 @@
         <v>39</v>
       </c>
       <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
+      <c r="C20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
+      <c r="I20" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
@@ -4284,15 +4441,31 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0"/>
-      <c r="B96" s="0"/>
-      <c r="C96" s="0"/>
-      <c r="D96" s="0"/>
-      <c r="E96" s="0"/>
-      <c r="F96" s="0"/>
-      <c r="G96" s="0"/>
+      <c r="A96" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="H96" s="0"/>
-      <c r="I96" s="0"/>
+      <c r="I96" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="J96" s="0"/>
       <c r="K96" s="0"/>
       <c r="L96" s="0"/>
@@ -4309,15 +4482,31 @@
       <c r="X96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0"/>
-      <c r="B97" s="0"/>
-      <c r="C97" s="0"/>
-      <c r="D97" s="0"/>
-      <c r="E97" s="0"/>
-      <c r="F97" s="0"/>
-      <c r="G97" s="0"/>
+      <c r="A97" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="H97" s="0"/>
-      <c r="I97" s="0"/>
+      <c r="I97" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="J97" s="0"/>
       <c r="K97" s="0"/>
       <c r="L97" s="0"/>
@@ -4360,7 +4549,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>21</v>
@@ -4423,7 +4612,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>21</v>
@@ -4485,15 +4674,31 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0"/>
-      <c r="B101" s="0"/>
-      <c r="C101" s="0"/>
-      <c r="D101" s="0"/>
-      <c r="E101" s="0"/>
-      <c r="F101" s="0"/>
-      <c r="G101" s="0"/>
+      <c r="A101" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="H101" s="0"/>
-      <c r="I101" s="0"/>
+      <c r="I101" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="J101" s="0"/>
       <c r="K101" s="0"/>
       <c r="L101" s="0"/>
@@ -4510,15 +4715,31 @@
       <c r="X101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0"/>
-      <c r="B102" s="0"/>
-      <c r="C102" s="0"/>
-      <c r="D102" s="0"/>
-      <c r="E102" s="0"/>
-      <c r="F102" s="0"/>
-      <c r="G102" s="0"/>
+      <c r="A102" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="H102" s="0"/>
-      <c r="I102" s="0"/>
+      <c r="I102" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="J102" s="0"/>
       <c r="K102" s="0"/>
       <c r="L102" s="0"/>
@@ -4535,15 +4756,31 @@
       <c r="X102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0"/>
-      <c r="B103" s="0"/>
-      <c r="C103" s="0"/>
-      <c r="D103" s="0"/>
-      <c r="E103" s="0"/>
-      <c r="F103" s="0"/>
-      <c r="G103" s="0"/>
+      <c r="A103" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H103" s="0"/>
-      <c r="I103" s="0"/>
+      <c r="I103" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="J103" s="0"/>
       <c r="K103" s="0"/>
       <c r="L103" s="0"/>
@@ -4560,8 +4797,12 @@
       <c r="X103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0"/>
-      <c r="B104" s="0"/>
+      <c r="A104" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="C104" s="0"/>
       <c r="D104" s="0"/>
       <c r="E104" s="0"/>
@@ -4585,257 +4826,157 @@
       <c r="X104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2" t="n">
-        <v>7.13718464351005</v>
-      </c>
-      <c r="I105" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J105" s="2" t="n">
-        <v>573</v>
-      </c>
-      <c r="K105" s="2" t="n">
-        <v>836.58</v>
-      </c>
-      <c r="L105" s="2" t="n">
-        <v>0.509798903107861</v>
-      </c>
-      <c r="M105" s="2" t="n">
-        <v>1641</v>
-      </c>
-      <c r="N105" s="2" t="n">
-        <v>0.044958904109589</v>
-      </c>
-      <c r="O105" s="2" t="n">
-        <v>1.12397260273973</v>
-      </c>
-      <c r="P105" s="2" t="n">
-        <v>117.214285714286</v>
-      </c>
-      <c r="Q105" s="2" t="n">
-        <v>0.321135029354207</v>
-      </c>
-      <c r="R105" s="2" t="n">
-        <v>4.4958904109589</v>
-      </c>
-      <c r="T105" s="2" t="n">
+      <c r="A105" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F105" s="0"/>
+      <c r="G105" s="0"/>
+      <c r="H105" s="0"/>
+      <c r="I105" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J105" s="0"/>
+      <c r="K105" s="0"/>
+      <c r="L105" s="0"/>
+      <c r="M105" s="0"/>
+      <c r="N105" s="0"/>
+      <c r="O105" s="0"/>
+      <c r="P105" s="0"/>
+      <c r="Q105" s="0"/>
+      <c r="R105" s="0"/>
+      <c r="T105" s="0"/>
+      <c r="U105" s="0"/>
+      <c r="V105" s="0"/>
+      <c r="W105" s="0"/>
+      <c r="X105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" s="0"/>
+      <c r="D106" s="0"/>
+      <c r="E106" s="0"/>
+      <c r="F106" s="0"/>
+      <c r="G106" s="0"/>
+      <c r="H106" s="0"/>
+      <c r="I106" s="0"/>
+      <c r="J106" s="0"/>
+      <c r="K106" s="0"/>
+      <c r="L106" s="0"/>
+      <c r="M106" s="0"/>
+      <c r="N106" s="0"/>
+      <c r="O106" s="0"/>
+      <c r="P106" s="0"/>
+      <c r="Q106" s="0"/>
+      <c r="R106" s="0"/>
+      <c r="T106" s="0"/>
+      <c r="U106" s="0"/>
+      <c r="V106" s="0"/>
+      <c r="W106" s="0"/>
+      <c r="X106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C107" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="U105" s="2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V105" s="2" t="n">
-        <v>187.975</v>
-      </c>
-      <c r="W105" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="X105" s="2" t="n">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2" t="n">
-        <v>4.69211752786221</v>
-      </c>
-      <c r="I106" s="2" t="n">
+      <c r="D107" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" s="0"/>
+      <c r="G107" s="0"/>
+      <c r="H107" s="0"/>
+      <c r="I107" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="J106" s="2" t="n">
-        <v>244</v>
-      </c>
-      <c r="K106" s="2" t="n">
-        <v>356.24</v>
-      </c>
-      <c r="L106" s="2" t="n">
-        <v>0.360932117527862</v>
-      </c>
-      <c r="M106" s="4" t="n">
-        <v>987</v>
-      </c>
-      <c r="N106" s="2" t="n">
-        <v>0.027041095890411</v>
-      </c>
-      <c r="O106" s="2" t="n">
-        <v>0.676027397260274</v>
-      </c>
-      <c r="P106" s="2" t="n">
-        <v>75.9230769230769</v>
-      </c>
-      <c r="Q106" s="2" t="n">
-        <v>0.208008429926238</v>
-      </c>
-      <c r="R106" s="2" t="n">
-        <v>2.7041095890411</v>
-      </c>
-      <c r="T106" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="U106" s="2" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V106" s="2" t="n">
-        <v>208.05</v>
-      </c>
-      <c r="W106" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="X106" s="2" t="n">
-        <v>2.28</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2" t="n">
-        <v>6.00790381599582</v>
-      </c>
-      <c r="I107" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J107" s="2" t="n">
-        <v>656</v>
-      </c>
-      <c r="K107" s="2" t="n">
-        <v>957.76</v>
-      </c>
-      <c r="L107" s="2" t="n">
-        <v>0.500658651332985</v>
-      </c>
-      <c r="M107" s="2" t="n">
-        <v>1913</v>
-      </c>
-      <c r="N107" s="2" t="n">
-        <v>0.0524109589041096</v>
-      </c>
-      <c r="O107" s="2" t="n">
-        <v>1.31027397260274</v>
-      </c>
-      <c r="P107" s="2" t="n">
-        <v>159.416666666667</v>
-      </c>
-      <c r="Q107" s="2" t="n">
-        <v>0.43675799086758</v>
-      </c>
-      <c r="R107" s="2" t="n">
-        <v>5.24109589041096</v>
-      </c>
-      <c r="T107" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="U107" s="2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V107" s="2" t="n">
-        <v>228.125</v>
-      </c>
-      <c r="W107" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="X107" s="2" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2" t="n">
-        <v>6.57830594184576</v>
-      </c>
-      <c r="I108" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J108" s="2" t="n">
-        <v>324</v>
-      </c>
-      <c r="K108" s="2" t="n">
-        <v>473.04</v>
-      </c>
-      <c r="L108" s="2" t="n">
-        <v>0.598027812895069</v>
-      </c>
-      <c r="M108" s="4" t="n">
-        <v>791</v>
-      </c>
-      <c r="N108" s="2" t="n">
-        <v>0.0216712328767123</v>
-      </c>
-      <c r="O108" s="2" t="n">
-        <v>0.541780821917808</v>
-      </c>
-      <c r="P108" s="2" t="n">
-        <v>71.9090909090909</v>
-      </c>
-      <c r="Q108" s="2" t="n">
-        <v>0.197011207970112</v>
-      </c>
-      <c r="R108" s="2" t="n">
-        <v>2.16712328767123</v>
-      </c>
-      <c r="T108" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="U108" s="2" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="V108" s="2" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="W108" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="X108" s="2" t="n">
-        <v>2.72</v>
-      </c>
+      <c r="J107" s="0"/>
+      <c r="K107" s="0"/>
+      <c r="L107" s="0"/>
+      <c r="M107" s="0"/>
+      <c r="N107" s="0"/>
+      <c r="O107" s="0"/>
+      <c r="P107" s="0"/>
+      <c r="Q107" s="0"/>
+      <c r="R107" s="0"/>
+      <c r="T107" s="0"/>
+      <c r="U107" s="0"/>
+      <c r="V107" s="0"/>
+      <c r="W107" s="0"/>
+      <c r="X107" s="0"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108" s="0"/>
+      <c r="D108" s="0"/>
+      <c r="E108" s="0"/>
+      <c r="F108" s="0"/>
+      <c r="G108" s="0"/>
+      <c r="H108" s="0"/>
+      <c r="I108" s="0"/>
+      <c r="J108" s="0"/>
+      <c r="K108" s="0"/>
+      <c r="L108" s="0"/>
+      <c r="M108" s="0"/>
+      <c r="N108" s="0"/>
+      <c r="O108" s="0"/>
+      <c r="P108" s="0"/>
+      <c r="Q108" s="0"/>
+      <c r="R108" s="0"/>
+      <c r="T108" s="0"/>
+      <c r="U108" s="0"/>
+      <c r="V108" s="0"/>
+      <c r="W108" s="0"/>
+      <c r="X108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0"/>
-      <c r="C109" s="0"/>
-      <c r="D109" s="0"/>
+      <c r="A109" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="E109" s="0"/>
       <c r="F109" s="0"/>
       <c r="G109" s="0"/>
       <c r="H109" s="0"/>
-      <c r="I109" s="0"/>
+      <c r="I109" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="J109" s="0"/>
       <c r="K109" s="0"/>
       <c r="L109" s="0"/>
@@ -4852,14 +4993,25 @@
       <c r="X109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0"/>
-      <c r="C110" s="0"/>
-      <c r="D110" s="0"/>
+      <c r="A110" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="E110" s="0"/>
       <c r="F110" s="0"/>
       <c r="G110" s="0"/>
       <c r="H110" s="0"/>
-      <c r="I110" s="0"/>
+      <c r="I110" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="J110" s="0"/>
       <c r="K110" s="0"/>
       <c r="L110" s="0"/>
@@ -4875,68 +5027,42 @@
       <c r="W110" s="0"/>
       <c r="X110" s="0"/>
     </row>
-    <row r="111" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2" t="n">
-        <v>5.65969879518072</v>
-      </c>
-      <c r="I111" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="J111" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="K111" s="2" t="n">
-        <v>170.82</v>
-      </c>
-      <c r="L111" s="2" t="n">
-        <v>0.514518072289157</v>
-      </c>
-      <c r="M111" s="4" t="n">
-        <v>332</v>
-      </c>
-      <c r="N111" s="2" t="n">
-        <v>0.00909589041095891</v>
-      </c>
-      <c r="O111" s="2" t="n">
-        <v>0.227397260273973</v>
-      </c>
-      <c r="P111" s="2" t="n">
-        <v>30.1818181818182</v>
-      </c>
-      <c r="Q111" s="2" t="n">
-        <v>0.0826899128268991</v>
-      </c>
-      <c r="R111" s="2" t="n">
-        <v>0.90958904109589</v>
-      </c>
-      <c r="T111" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="U111" s="2" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="V111" s="2" t="n">
-        <v>308.425</v>
-      </c>
-      <c r="W111" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="X111" s="2" t="n">
-        <v>3.38</v>
-      </c>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C111" s="0"/>
+      <c r="D111" s="0"/>
+      <c r="E111" s="0"/>
+      <c r="F111" s="0"/>
+      <c r="G111" s="0"/>
+      <c r="H111" s="0"/>
+      <c r="I111" s="0"/>
+      <c r="J111" s="0"/>
+      <c r="K111" s="0"/>
+      <c r="L111" s="0"/>
+      <c r="M111" s="0"/>
+      <c r="N111" s="0"/>
+      <c r="O111" s="0"/>
+      <c r="P111" s="0"/>
+      <c r="Q111" s="0"/>
+      <c r="R111" s="0"/>
+      <c r="T111" s="0"/>
+      <c r="U111" s="0"/>
+      <c r="V111" s="0"/>
+      <c r="W111" s="0"/>
+      <c r="X111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0"/>
+      <c r="A112" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="C112" s="0"/>
       <c r="D112" s="0"/>
       <c r="E112" s="0"/>
@@ -4959,68 +5085,42 @@
       <c r="W112" s="0"/>
       <c r="X112" s="0"/>
     </row>
-    <row r="113" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2" t="n">
-        <v>3.20712430426716</v>
-      </c>
-      <c r="I113" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J113" s="2" t="n">
-        <v>148</v>
-      </c>
-      <c r="K113" s="2" t="n">
-        <v>216.08</v>
-      </c>
-      <c r="L113" s="2" t="n">
-        <v>0.400890538033395</v>
-      </c>
-      <c r="M113" s="4" t="n">
-        <v>539</v>
-      </c>
-      <c r="N113" s="2" t="n">
-        <v>0.0147671232876712</v>
-      </c>
-      <c r="O113" s="2" t="n">
-        <v>0.369178082191781</v>
-      </c>
-      <c r="P113" s="2" t="n">
-        <v>67.375</v>
-      </c>
-      <c r="Q113" s="2" t="n">
-        <v>0.18458904109589</v>
-      </c>
-      <c r="R113" s="2" t="n">
-        <v>1.47671232876712</v>
-      </c>
-      <c r="T113" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="U113" s="2" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="V113" s="2" t="n">
-        <v>348.575</v>
-      </c>
-      <c r="W113" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="X113" s="2" t="n">
-        <v>3.82</v>
-      </c>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113" s="0"/>
+      <c r="D113" s="0"/>
+      <c r="E113" s="0"/>
+      <c r="F113" s="0"/>
+      <c r="G113" s="0"/>
+      <c r="H113" s="0"/>
+      <c r="I113" s="0"/>
+      <c r="J113" s="0"/>
+      <c r="K113" s="0"/>
+      <c r="L113" s="0"/>
+      <c r="M113" s="0"/>
+      <c r="N113" s="0"/>
+      <c r="O113" s="0"/>
+      <c r="P113" s="0"/>
+      <c r="Q113" s="0"/>
+      <c r="R113" s="0"/>
+      <c r="T113" s="0"/>
+      <c r="U113" s="0"/>
+      <c r="V113" s="0"/>
+      <c r="W113" s="0"/>
+      <c r="X113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0"/>
+      <c r="A114" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="C114" s="0"/>
       <c r="D114" s="0"/>
       <c r="E114" s="0"/>
@@ -5043,68 +5143,42 @@
       <c r="W114" s="0"/>
       <c r="X114" s="0"/>
     </row>
-    <row r="115" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2" t="n">
-        <v>3.69359877488515</v>
-      </c>
-      <c r="I115" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J115" s="2" t="n">
-        <v>236</v>
-      </c>
-      <c r="K115" s="2" t="n">
-        <v>344.56</v>
-      </c>
-      <c r="L115" s="2" t="n">
-        <v>0.527656967840735</v>
-      </c>
-      <c r="M115" s="4" t="n">
-        <v>653</v>
-      </c>
-      <c r="N115" s="2" t="n">
-        <v>0.0178904109589041</v>
-      </c>
-      <c r="O115" s="2" t="n">
-        <v>0.447260273972603</v>
-      </c>
-      <c r="P115" s="2" t="n">
-        <v>93.2857142857143</v>
-      </c>
-      <c r="Q115" s="2" t="n">
-        <v>0.255577299412916</v>
-      </c>
-      <c r="R115" s="2" t="n">
-        <v>1.78904109589041</v>
-      </c>
-      <c r="T115" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="U115" s="2" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="V115" s="2" t="n">
-        <v>388.725</v>
-      </c>
-      <c r="W115" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="X115" s="2" t="n">
-        <v>4.26</v>
-      </c>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" s="0"/>
+      <c r="D115" s="0"/>
+      <c r="E115" s="0"/>
+      <c r="F115" s="0"/>
+      <c r="G115" s="0"/>
+      <c r="H115" s="0"/>
+      <c r="I115" s="0"/>
+      <c r="J115" s="0"/>
+      <c r="K115" s="0"/>
+      <c r="L115" s="0"/>
+      <c r="M115" s="0"/>
+      <c r="N115" s="0"/>
+      <c r="O115" s="0"/>
+      <c r="P115" s="0"/>
+      <c r="Q115" s="0"/>
+      <c r="R115" s="0"/>
+      <c r="T115" s="0"/>
+      <c r="U115" s="0"/>
+      <c r="V115" s="0"/>
+      <c r="W115" s="0"/>
+      <c r="X115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0"/>
+      <c r="A116" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="C116" s="0"/>
       <c r="D116" s="0"/>
       <c r="E116" s="0"/>
@@ -5127,135 +5201,82 @@
       <c r="W116" s="0"/>
       <c r="X116" s="0"/>
     </row>
-    <row r="117" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2" t="n">
-        <v>3.17172413793103</v>
-      </c>
-      <c r="I117" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J117" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="K117" s="2" t="n">
-        <v>144.54</v>
-      </c>
-      <c r="L117" s="2" t="n">
-        <v>0.453103448275862</v>
-      </c>
-      <c r="M117" s="4" t="n">
-        <v>319</v>
-      </c>
-      <c r="N117" s="2" t="n">
-        <v>0.00873972602739726</v>
-      </c>
-      <c r="O117" s="2" t="n">
-        <v>0.218493150684931</v>
-      </c>
-      <c r="P117" s="2" t="n">
-        <v>45.5714285714286</v>
-      </c>
-      <c r="Q117" s="2" t="n">
-        <v>0.124853228962818</v>
-      </c>
-      <c r="R117" s="2" t="n">
-        <v>0.873972602739726</v>
-      </c>
-      <c r="T117" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="U117" s="2" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="V117" s="2" t="n">
-        <v>428.875</v>
-      </c>
-      <c r="W117" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="X117" s="2" t="n">
-        <v>4.7</v>
-      </c>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" s="0"/>
+      <c r="D117" s="0"/>
+      <c r="E117" s="0"/>
+      <c r="F117" s="0"/>
+      <c r="G117" s="0"/>
+      <c r="H117" s="0"/>
+      <c r="I117" s="0"/>
+      <c r="J117" s="0"/>
+      <c r="K117" s="0"/>
+      <c r="L117" s="0"/>
+      <c r="M117" s="0"/>
+      <c r="N117" s="0"/>
+      <c r="O117" s="0"/>
+      <c r="P117" s="0"/>
+      <c r="Q117" s="0"/>
+      <c r="R117" s="0"/>
+      <c r="T117" s="0"/>
+      <c r="U117" s="0"/>
+      <c r="V117" s="0"/>
+      <c r="W117" s="0"/>
+      <c r="X117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2" t="n">
-        <v>2.65275908479139</v>
-      </c>
-      <c r="I118" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J118" s="2" t="n">
-        <v>225</v>
-      </c>
-      <c r="K118" s="2" t="n">
-        <v>328.5</v>
-      </c>
-      <c r="L118" s="2" t="n">
-        <v>0.442126514131898</v>
-      </c>
-      <c r="M118" s="2" t="n">
-        <v>743</v>
-      </c>
-      <c r="N118" s="2" t="n">
-        <v>0.0203561643835616</v>
-      </c>
-      <c r="O118" s="2" t="n">
-        <v>0.508904109589041</v>
-      </c>
-      <c r="P118" s="2" t="n">
-        <v>123.833333333333</v>
-      </c>
-      <c r="Q118" s="2" t="n">
-        <v>0.339269406392694</v>
-      </c>
-      <c r="R118" s="2" t="n">
-        <v>2.03561643835616</v>
-      </c>
-      <c r="T118" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="U118" s="2" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="V118" s="2" t="n">
-        <v>448.95</v>
-      </c>
-      <c r="W118" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="X118" s="2" t="n">
-        <v>4.92</v>
-      </c>
+      <c r="A118" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C118" s="0"/>
+      <c r="D118" s="0"/>
+      <c r="E118" s="0"/>
+      <c r="F118" s="0"/>
+      <c r="G118" s="0"/>
+      <c r="H118" s="0"/>
+      <c r="I118" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J118" s="0"/>
+      <c r="K118" s="0"/>
+      <c r="L118" s="0"/>
+      <c r="M118" s="0"/>
+      <c r="N118" s="0"/>
+      <c r="O118" s="0"/>
+      <c r="P118" s="0"/>
+      <c r="Q118" s="0"/>
+      <c r="R118" s="0"/>
+      <c r="T118" s="0"/>
+      <c r="U118" s="0"/>
+      <c r="V118" s="0"/>
+      <c r="W118" s="0"/>
+      <c r="X118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0"/>
+      <c r="A119" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="C119" s="0"/>
       <c r="D119" s="0"/>
       <c r="E119" s="0"/>
       <c r="F119" s="0"/>
       <c r="G119" s="0"/>
       <c r="H119" s="0"/>
-      <c r="I119" s="0"/>
+      <c r="I119" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="J119" s="0"/>
       <c r="K119" s="0"/>
       <c r="L119" s="0"/>
@@ -5272,7 +5293,12 @@
       <c r="X119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0"/>
+      <c r="A120" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="C120" s="0"/>
       <c r="D120" s="0"/>
       <c r="E120" s="0"/>
@@ -5296,7 +5322,12 @@
       <c r="X120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0"/>
+      <c r="A121" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="C121" s="0"/>
       <c r="D121" s="0"/>
       <c r="E121" s="0"/>
@@ -5320,187 +5351,99 @@
       <c r="X121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2" t="n">
-        <v>1.2155023923445</v>
-      </c>
-      <c r="I122" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="K122" s="2" t="n">
-        <v>42.34</v>
-      </c>
-      <c r="L122" s="2" t="n">
-        <v>0.202583732057416</v>
-      </c>
-      <c r="M122" s="2" t="n">
-        <v>209</v>
-      </c>
-      <c r="N122" s="2" t="n">
-        <v>0.00572602739726027</v>
-      </c>
-      <c r="O122" s="2" t="n">
-        <v>0.143150684931507</v>
-      </c>
-      <c r="P122" s="2" t="n">
-        <v>34.8333333333333</v>
-      </c>
-      <c r="Q122" s="2" t="n">
-        <v>0.0954337899543379</v>
-      </c>
-      <c r="R122" s="2" t="n">
-        <v>0.572602739726027</v>
-      </c>
-      <c r="T122" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="U122" s="2" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="V122" s="2" t="n">
-        <v>529.25</v>
-      </c>
-      <c r="W122" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="X122" s="2" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="A122" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122" s="0"/>
+      <c r="D122" s="0"/>
+      <c r="E122" s="0"/>
+      <c r="F122" s="0"/>
+      <c r="G122" s="0"/>
+      <c r="H122" s="0"/>
+      <c r="I122" s="0"/>
+      <c r="J122" s="0"/>
+      <c r="K122" s="0"/>
+      <c r="L122" s="0"/>
+      <c r="M122" s="0"/>
+      <c r="N122" s="0"/>
+      <c r="O122" s="0"/>
+      <c r="P122" s="0"/>
+      <c r="Q122" s="0"/>
+      <c r="R122" s="0"/>
+      <c r="T122" s="0"/>
+      <c r="U122" s="0"/>
+      <c r="V122" s="0"/>
+      <c r="W122" s="0"/>
+      <c r="X122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2" t="n">
-        <v>1.6504347826087</v>
-      </c>
-      <c r="I123" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J123" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="K123" s="2" t="n">
-        <v>75.92</v>
-      </c>
-      <c r="L123" s="2" t="n">
-        <v>0.412608695652174</v>
-      </c>
-      <c r="M123" s="2" t="n">
-        <v>184</v>
-      </c>
-      <c r="N123" s="2" t="n">
-        <v>0.00504109589041096</v>
-      </c>
-      <c r="O123" s="2" t="n">
-        <v>0.126027397260274</v>
-      </c>
-      <c r="P123" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Q123" s="2" t="n">
-        <v>0.126027397260274</v>
-      </c>
-      <c r="R123" s="2" t="n">
-        <v>0.504109589041096</v>
-      </c>
-      <c r="T123" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="U123" s="2" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="V123" s="2" t="n">
-        <v>549.325</v>
-      </c>
-      <c r="W123" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="X123" s="2" t="n">
-        <v>6.02</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2" t="n">
-        <v>1.21393258426966</v>
-      </c>
-      <c r="I124" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="K124" s="2" t="n">
-        <v>54.02</v>
-      </c>
-      <c r="L124" s="2" t="n">
-        <v>0.303483146067416</v>
-      </c>
-      <c r="M124" s="4" t="n">
-        <v>178</v>
-      </c>
-      <c r="N124" s="2" t="n">
-        <v>0.00487671232876712</v>
-      </c>
-      <c r="O124" s="2" t="n">
-        <v>0.121917808219178</v>
-      </c>
-      <c r="P124" s="2" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="Q124" s="2" t="n">
-        <v>0.121917808219178</v>
-      </c>
-      <c r="R124" s="2" t="n">
-        <v>0.487671232876712</v>
-      </c>
-      <c r="T124" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="U124" s="2" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="V124" s="2" t="n">
-        <v>569.4</v>
-      </c>
-      <c r="W124" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="X124" s="2" t="n">
-        <v>6.24</v>
-      </c>
+      <c r="A123" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C123" s="0"/>
+      <c r="D123" s="0"/>
+      <c r="E123" s="0"/>
+      <c r="F123" s="0"/>
+      <c r="G123" s="0"/>
+      <c r="H123" s="0"/>
+      <c r="I123" s="0"/>
+      <c r="J123" s="0"/>
+      <c r="K123" s="0"/>
+      <c r="L123" s="0"/>
+      <c r="M123" s="0"/>
+      <c r="N123" s="0"/>
+      <c r="O123" s="0"/>
+      <c r="P123" s="0"/>
+      <c r="Q123" s="0"/>
+      <c r="R123" s="0"/>
+      <c r="T123" s="0"/>
+      <c r="U123" s="0"/>
+      <c r="V123" s="0"/>
+      <c r="W123" s="0"/>
+      <c r="X123" s="0"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" s="0"/>
+      <c r="D124" s="0"/>
+      <c r="E124" s="0"/>
+      <c r="F124" s="0"/>
+      <c r="G124" s="0"/>
+      <c r="H124" s="0"/>
+      <c r="I124" s="0"/>
+      <c r="J124" s="0"/>
+      <c r="K124" s="0"/>
+      <c r="L124" s="0"/>
+      <c r="M124" s="0"/>
+      <c r="N124" s="0"/>
+      <c r="O124" s="0"/>
+      <c r="P124" s="0"/>
+      <c r="Q124" s="0"/>
+      <c r="R124" s="0"/>
+      <c r="T124" s="0"/>
+      <c r="U124" s="0"/>
+      <c r="V124" s="0"/>
+      <c r="W124" s="0"/>
+      <c r="X124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0"/>
+      <c r="A125" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="C125" s="0"/>
       <c r="D125" s="0"/>
       <c r="E125" s="0"/>
@@ -5525,449 +5468,520 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2" t="n">
-        <v>0.929090909090909</v>
+        <v>7.13718464351005</v>
       </c>
       <c r="I126" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J126" s="2" t="n">
+        <v>573</v>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>836.58</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>0.509798903107861</v>
+      </c>
+      <c r="M126" s="2" t="n">
+        <v>1641</v>
+      </c>
+      <c r="N126" s="2" t="n">
+        <v>0.044958904109589</v>
+      </c>
+      <c r="O126" s="2" t="n">
+        <v>1.12397260273973</v>
+      </c>
+      <c r="P126" s="2" t="n">
+        <v>117.214285714286</v>
+      </c>
+      <c r="Q126" s="2" t="n">
+        <v>0.321135029354207</v>
+      </c>
+      <c r="R126" s="2" t="n">
+        <v>4.4958904109589</v>
+      </c>
+      <c r="T126" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="U126" s="2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V126" s="2" t="n">
+        <v>187.975</v>
+      </c>
+      <c r="W126" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="X126" s="2" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>4.69211752786221</v>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J127" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="K127" s="2" t="n">
+        <v>356.24</v>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>0.360932117527862</v>
+      </c>
+      <c r="M127" s="4" t="n">
+        <v>987</v>
+      </c>
+      <c r="N127" s="2" t="n">
+        <v>0.027041095890411</v>
+      </c>
+      <c r="O127" s="2" t="n">
+        <v>0.676027397260274</v>
+      </c>
+      <c r="P127" s="2" t="n">
+        <v>75.9230769230769</v>
+      </c>
+      <c r="Q127" s="2" t="n">
+        <v>0.208008429926238</v>
+      </c>
+      <c r="R127" s="2" t="n">
+        <v>2.7041095890411</v>
+      </c>
+      <c r="T127" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="U127" s="2" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V127" s="2" t="n">
+        <v>208.05</v>
+      </c>
+      <c r="W127" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="X127" s="2" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2" t="n">
+        <v>6.00790381599582</v>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J128" s="2" t="n">
+        <v>656</v>
+      </c>
+      <c r="K128" s="2" t="n">
+        <v>957.76</v>
+      </c>
+      <c r="L128" s="2" t="n">
+        <v>0.500658651332985</v>
+      </c>
+      <c r="M128" s="2" t="n">
+        <v>1913</v>
+      </c>
+      <c r="N128" s="2" t="n">
+        <v>0.0524109589041096</v>
+      </c>
+      <c r="O128" s="2" t="n">
+        <v>1.31027397260274</v>
+      </c>
+      <c r="P128" s="2" t="n">
+        <v>159.416666666667</v>
+      </c>
+      <c r="Q128" s="2" t="n">
+        <v>0.43675799086758</v>
+      </c>
+      <c r="R128" s="2" t="n">
+        <v>5.24109589041096</v>
+      </c>
+      <c r="T128" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="U128" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V128" s="2" t="n">
+        <v>228.125</v>
+      </c>
+      <c r="W128" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="X128" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E129" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J126" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="K126" s="2" t="n">
-        <v>30.66</v>
-      </c>
-      <c r="L126" s="2" t="n">
-        <v>0.30969696969697</v>
-      </c>
-      <c r="M126" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="N126" s="2" t="n">
-        <v>0.00271232876712329</v>
-      </c>
-      <c r="O126" s="2" t="n">
-        <v>0.0678082191780822</v>
-      </c>
-      <c r="P126" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q126" s="2" t="n">
-        <v>0.0904109589041096</v>
-      </c>
-      <c r="R126" s="2" t="n">
-        <v>0.271232876712329</v>
-      </c>
-      <c r="T126" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="U126" s="2" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="V126" s="2" t="n">
-        <v>609.55</v>
-      </c>
-      <c r="W126" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="X126" s="2" t="n">
-        <v>6.68</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C127" s="2" t="n">
+      <c r="F129" s="2"/>
+      <c r="G129" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>6.57830594184576</v>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J129" s="2" t="n">
+        <v>324</v>
+      </c>
+      <c r="K129" s="2" t="n">
+        <v>473.04</v>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>0.598027812895069</v>
+      </c>
+      <c r="M129" s="4" t="n">
+        <v>791</v>
+      </c>
+      <c r="N129" s="2" t="n">
+        <v>0.0216712328767123</v>
+      </c>
+      <c r="O129" s="2" t="n">
+        <v>0.541780821917808</v>
+      </c>
+      <c r="P129" s="2" t="n">
+        <v>71.9090909090909</v>
+      </c>
+      <c r="Q129" s="2" t="n">
+        <v>0.197011207970112</v>
+      </c>
+      <c r="R129" s="2" t="n">
+        <v>2.16712328767123</v>
+      </c>
+      <c r="T129" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="U129" s="2" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V129" s="2" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="W129" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="X129" s="2" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C130" s="0"/>
+      <c r="D130" s="0"/>
+      <c r="E130" s="0"/>
+      <c r="F130" s="0"/>
+      <c r="G130" s="0"/>
+      <c r="H130" s="0"/>
+      <c r="I130" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J130" s="0"/>
+      <c r="K130" s="0"/>
+      <c r="L130" s="0"/>
+      <c r="M130" s="0"/>
+      <c r="N130" s="0"/>
+      <c r="O130" s="0"/>
+      <c r="P130" s="0"/>
+      <c r="Q130" s="0"/>
+      <c r="R130" s="0"/>
+      <c r="T130" s="0"/>
+      <c r="U130" s="0"/>
+      <c r="V130" s="0"/>
+      <c r="W130" s="0"/>
+      <c r="X130" s="0"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E131" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2" t="n">
-        <v>0.925853658536585</v>
-      </c>
-      <c r="I127" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="K127" s="2" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="L127" s="2" t="n">
-        <v>0.462926829268293</v>
-      </c>
-      <c r="M127" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="N127" s="2" t="n">
-        <v>0.00112328767123288</v>
-      </c>
-      <c r="O127" s="2" t="n">
-        <v>0.0280821917808219</v>
-      </c>
-      <c r="P127" s="2" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="Q127" s="2" t="n">
-        <v>0.0561643835616438</v>
-      </c>
-      <c r="R127" s="2" t="n">
-        <v>0.112328767123288</v>
-      </c>
-      <c r="T127" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="U127" s="2" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="V127" s="2" t="n">
-        <v>629.625</v>
-      </c>
-      <c r="W127" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="X127" s="2" t="n">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0"/>
-      <c r="C128" s="0"/>
-      <c r="D128" s="0"/>
-      <c r="E128" s="0"/>
-      <c r="F128" s="0"/>
-      <c r="G128" s="0"/>
-      <c r="H128" s="0"/>
-      <c r="I128" s="0"/>
-      <c r="J128" s="0"/>
-      <c r="K128" s="0"/>
-      <c r="L128" s="0"/>
-      <c r="M128" s="0"/>
-      <c r="N128" s="0"/>
-      <c r="O128" s="0"/>
-      <c r="P128" s="0"/>
-      <c r="Q128" s="0"/>
-      <c r="R128" s="0"/>
-      <c r="T128" s="0"/>
-      <c r="U128" s="0"/>
-      <c r="V128" s="0"/>
-      <c r="W128" s="0"/>
-      <c r="X128" s="0"/>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C129" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2" t="n">
-        <v>1.21666666666667</v>
-      </c>
-      <c r="I129" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J129" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="K129" s="2" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L129" s="2" t="n">
-        <v>1.21666666666667</v>
-      </c>
-      <c r="M129" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="N129" s="2" t="n">
-        <v>0.000821917808219178</v>
-      </c>
-      <c r="O129" s="2" t="n">
-        <v>0.0205479452054794</v>
-      </c>
-      <c r="P129" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q129" s="2" t="n">
-        <v>0.0821917808219178</v>
-      </c>
-      <c r="R129" s="2" t="n">
-        <v>0.0821917808219178</v>
-      </c>
-      <c r="T129" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="U129" s="2" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="V129" s="2" t="n">
-        <v>669.775</v>
-      </c>
-      <c r="W129" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="X129" s="2" t="n">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C130" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2" t="n">
-        <v>0.297959183673469</v>
-      </c>
-      <c r="I130" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="K130" s="2" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L130" s="2" t="n">
-        <v>0.297959183673469</v>
-      </c>
-      <c r="M130" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="N130" s="2" t="n">
-        <v>0.00134246575342466</v>
-      </c>
-      <c r="O130" s="2" t="n">
-        <v>0.0335616438356164</v>
-      </c>
-      <c r="P130" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Q130" s="2" t="n">
-        <v>0.134246575342466</v>
-      </c>
-      <c r="R130" s="2" t="n">
-        <v>0.134246575342466</v>
-      </c>
-      <c r="T130" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="U130" s="2" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="V130" s="2" t="n">
-        <v>689.85</v>
-      </c>
-      <c r="W130" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="X130" s="2" t="n">
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0"/>
-      <c r="C131" s="0"/>
-      <c r="D131" s="0"/>
-      <c r="E131" s="0"/>
       <c r="F131" s="0"/>
       <c r="G131" s="0"/>
+      <c r="H131" s="0"/>
+      <c r="I131" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="J131" s="0"/>
       <c r="K131" s="0"/>
+      <c r="L131" s="0"/>
       <c r="M131" s="0"/>
-      <c r="T131" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="U131" s="2" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="V131" s="2" t="n">
-        <v>709.925</v>
-      </c>
-      <c r="W131" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="X131" s="2" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="N131" s="0"/>
+      <c r="O131" s="0"/>
+      <c r="P131" s="0"/>
+      <c r="Q131" s="0"/>
+      <c r="R131" s="0"/>
+      <c r="T131" s="0"/>
+      <c r="U131" s="0"/>
+      <c r="V131" s="0"/>
+      <c r="W131" s="0"/>
+      <c r="X131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0"/>
+      <c r="A132" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C132" s="0"/>
       <c r="D132" s="0"/>
       <c r="E132" s="0"/>
       <c r="F132" s="0"/>
       <c r="G132" s="0"/>
+      <c r="H132" s="0"/>
+      <c r="I132" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="J132" s="0"/>
       <c r="K132" s="0"/>
+      <c r="L132" s="0"/>
       <c r="M132" s="0"/>
-      <c r="T132" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="U132" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="V132" s="2" t="n">
-        <v>730</v>
-      </c>
-      <c r="W132" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="X132" s="2" t="n">
-        <v>8</v>
-      </c>
+      <c r="N132" s="0"/>
+      <c r="O132" s="0"/>
+      <c r="P132" s="0"/>
+      <c r="Q132" s="0"/>
+      <c r="R132" s="0"/>
+      <c r="T132" s="0"/>
+      <c r="U132" s="0"/>
+      <c r="V132" s="0"/>
+      <c r="W132" s="0"/>
+      <c r="X132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0"/>
+      <c r="A133" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C133" s="0"/>
       <c r="D133" s="0"/>
       <c r="E133" s="0"/>
       <c r="F133" s="0"/>
       <c r="G133" s="0"/>
+      <c r="H133" s="0"/>
+      <c r="I133" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J133" s="0"/>
       <c r="K133" s="0"/>
+      <c r="L133" s="0"/>
       <c r="M133" s="0"/>
-      <c r="T133" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="U133" s="2" t="n">
-        <v>8.22</v>
-      </c>
-      <c r="V133" s="2" t="n">
-        <v>750.075</v>
-      </c>
-      <c r="W133" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="X133" s="2" t="n">
-        <v>8.22</v>
-      </c>
+      <c r="N133" s="0"/>
+      <c r="O133" s="0"/>
+      <c r="P133" s="0"/>
+      <c r="Q133" s="0"/>
+      <c r="R133" s="0"/>
+      <c r="T133" s="0"/>
+      <c r="U133" s="0"/>
+      <c r="V133" s="0"/>
+      <c r="W133" s="0"/>
+      <c r="X133" s="0"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0"/>
+      <c r="A134" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C134" s="0"/>
       <c r="D134" s="0"/>
       <c r="E134" s="0"/>
       <c r="F134" s="0"/>
       <c r="G134" s="0"/>
+      <c r="H134" s="0"/>
+      <c r="I134" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="J134" s="0"/>
       <c r="K134" s="0"/>
+      <c r="L134" s="0"/>
       <c r="M134" s="0"/>
-      <c r="T134" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="U134" s="2" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="V134" s="2" t="n">
-        <v>850.45</v>
-      </c>
-      <c r="W134" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="X134" s="2" t="n">
-        <v>8.44</v>
-      </c>
+      <c r="N134" s="0"/>
+      <c r="O134" s="0"/>
+      <c r="P134" s="0"/>
+      <c r="Q134" s="0"/>
+      <c r="R134" s="0"/>
+      <c r="T134" s="0"/>
+      <c r="U134" s="0"/>
+      <c r="V134" s="0"/>
+      <c r="W134" s="0"/>
+      <c r="X134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0"/>
+      <c r="A135" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C135" s="0"/>
       <c r="D135" s="0"/>
       <c r="E135" s="0"/>
       <c r="F135" s="0"/>
       <c r="G135" s="0"/>
+      <c r="H135" s="0"/>
+      <c r="I135" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="J135" s="0"/>
       <c r="K135" s="0"/>
+      <c r="L135" s="0"/>
       <c r="M135" s="0"/>
-      <c r="T135" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="U135" s="2" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="V135" s="2" t="n">
-        <v>950.825</v>
-      </c>
-      <c r="W135" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="X135" s="2" t="n">
-        <v>8.66</v>
-      </c>
+      <c r="N135" s="0"/>
+      <c r="O135" s="0"/>
+      <c r="P135" s="0"/>
+      <c r="Q135" s="0"/>
+      <c r="R135" s="0"/>
+      <c r="T135" s="0"/>
+      <c r="U135" s="0"/>
+      <c r="V135" s="0"/>
+      <c r="W135" s="0"/>
+      <c r="X135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0"/>
+      <c r="A136" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C136" s="0"/>
       <c r="D136" s="0"/>
       <c r="E136" s="0"/>
       <c r="F136" s="0"/>
       <c r="G136" s="0"/>
+      <c r="H136" s="0"/>
+      <c r="I136" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="J136" s="0"/>
       <c r="K136" s="0"/>
+      <c r="L136" s="0"/>
       <c r="M136" s="0"/>
-      <c r="T136" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="U136" s="2" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="V136" s="2" t="n">
-        <v>1051.2</v>
-      </c>
-      <c r="W136" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="X136" s="2" t="n">
-        <v>8.88</v>
-      </c>
+      <c r="N136" s="0"/>
+      <c r="O136" s="0"/>
+      <c r="P136" s="0"/>
+      <c r="Q136" s="0"/>
+      <c r="R136" s="0"/>
+      <c r="T136" s="0"/>
+      <c r="U136" s="0"/>
+      <c r="V136" s="0"/>
+      <c r="W136" s="0"/>
+      <c r="X136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0"/>
+      <c r="A137" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C137" s="0"/>
       <c r="D137" s="0"/>
       <c r="E137" s="0"/>
       <c r="F137" s="0"/>
       <c r="G137" s="0"/>
+      <c r="H137" s="0"/>
+      <c r="I137" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="J137" s="0"/>
       <c r="K137" s="0"/>
+      <c r="L137" s="0"/>
       <c r="M137" s="0"/>
-      <c r="T137" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="U137" s="2" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="V137" s="2" t="n">
-        <v>1151.575</v>
-      </c>
-      <c r="W137" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="X137" s="2" t="n">
-        <v>9.1</v>
-      </c>
+      <c r="N137" s="0"/>
+      <c r="O137" s="0"/>
+      <c r="P137" s="0"/>
+      <c r="Q137" s="0"/>
+      <c r="R137" s="0"/>
+      <c r="T137" s="0"/>
+      <c r="U137" s="0"/>
+      <c r="V137" s="0"/>
+      <c r="W137" s="0"/>
+      <c r="X137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0"/>
@@ -5976,24 +5990,22 @@
       <c r="E138" s="0"/>
       <c r="F138" s="0"/>
       <c r="G138" s="0"/>
+      <c r="H138" s="0"/>
+      <c r="I138" s="0"/>
       <c r="J138" s="0"/>
       <c r="K138" s="0"/>
+      <c r="L138" s="0"/>
       <c r="M138" s="0"/>
-      <c r="T138" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="U138" s="2" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="V138" s="2" t="n">
-        <v>1251.95</v>
-      </c>
-      <c r="W138" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="X138" s="2" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="N138" s="0"/>
+      <c r="O138" s="0"/>
+      <c r="P138" s="0"/>
+      <c r="Q138" s="0"/>
+      <c r="R138" s="0"/>
+      <c r="T138" s="0"/>
+      <c r="U138" s="0"/>
+      <c r="V138" s="0"/>
+      <c r="W138" s="0"/>
+      <c r="X138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0"/>
@@ -6002,24 +6014,22 @@
       <c r="E139" s="0"/>
       <c r="F139" s="0"/>
       <c r="G139" s="0"/>
+      <c r="H139" s="0"/>
+      <c r="I139" s="0"/>
       <c r="J139" s="0"/>
       <c r="K139" s="0"/>
+      <c r="L139" s="0"/>
       <c r="M139" s="0"/>
-      <c r="T139" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="U139" s="2" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="V139" s="2" t="n">
-        <v>1352.325</v>
-      </c>
-      <c r="W139" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="X139" s="2" t="n">
-        <v>9.54</v>
-      </c>
+      <c r="N139" s="0"/>
+      <c r="O139" s="0"/>
+      <c r="P139" s="0"/>
+      <c r="Q139" s="0"/>
+      <c r="R139" s="0"/>
+      <c r="T139" s="0"/>
+      <c r="U139" s="0"/>
+      <c r="V139" s="0"/>
+      <c r="W139" s="0"/>
+      <c r="X139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0"/>
@@ -6028,24 +6038,22 @@
       <c r="E140" s="0"/>
       <c r="F140" s="0"/>
       <c r="G140" s="0"/>
+      <c r="H140" s="0"/>
+      <c r="I140" s="0"/>
       <c r="J140" s="0"/>
       <c r="K140" s="0"/>
+      <c r="L140" s="0"/>
       <c r="M140" s="0"/>
-      <c r="T140" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="U140" s="2" t="n">
-        <v>15.92</v>
-      </c>
-      <c r="V140" s="2" t="n">
-        <v>1452.7</v>
-      </c>
-      <c r="W140" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="X140" s="2" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="N140" s="0"/>
+      <c r="O140" s="0"/>
+      <c r="P140" s="0"/>
+      <c r="Q140" s="0"/>
+      <c r="R140" s="0"/>
+      <c r="T140" s="0"/>
+      <c r="U140" s="0"/>
+      <c r="V140" s="0"/>
+      <c r="W140" s="0"/>
+      <c r="X140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0"/>
@@ -6054,24 +6062,22 @@
       <c r="E141" s="0"/>
       <c r="F141" s="0"/>
       <c r="G141" s="0"/>
+      <c r="H141" s="0"/>
+      <c r="I141" s="0"/>
       <c r="J141" s="0"/>
       <c r="K141" s="0"/>
+      <c r="L141" s="0"/>
       <c r="M141" s="0"/>
-      <c r="T141" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="U141" s="2" t="n">
-        <v>17.02</v>
-      </c>
-      <c r="V141" s="2" t="n">
-        <v>1553.075</v>
-      </c>
-      <c r="W141" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="X141" s="2" t="n">
-        <v>9.98</v>
-      </c>
+      <c r="N141" s="0"/>
+      <c r="O141" s="0"/>
+      <c r="P141" s="0"/>
+      <c r="Q141" s="0"/>
+      <c r="R141" s="0"/>
+      <c r="T141" s="0"/>
+      <c r="U141" s="0"/>
+      <c r="V141" s="0"/>
+      <c r="W141" s="0"/>
+      <c r="X141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0"/>
@@ -6080,105 +6086,132 @@
       <c r="E142" s="0"/>
       <c r="F142" s="0"/>
       <c r="G142" s="0"/>
+      <c r="H142" s="0"/>
+      <c r="I142" s="0"/>
       <c r="J142" s="0"/>
       <c r="K142" s="0"/>
+      <c r="L142" s="0"/>
       <c r="M142" s="0"/>
-      <c r="T142" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="U142" s="2" t="n">
-        <v>18.12</v>
-      </c>
-      <c r="V142" s="2" t="n">
-        <v>1653.45</v>
-      </c>
-      <c r="W142" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="X142" s="2" t="n">
-        <v>10.2</v>
-      </c>
+      <c r="N142" s="0"/>
+      <c r="O142" s="0"/>
+      <c r="P142" s="0"/>
+      <c r="Q142" s="0"/>
+      <c r="R142" s="0"/>
+      <c r="T142" s="0"/>
+      <c r="U142" s="0"/>
+      <c r="V142" s="0"/>
+      <c r="W142" s="0"/>
+      <c r="X142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="A143" s="0"/>
       <c r="C143" s="0"/>
       <c r="D143" s="0"/>
       <c r="E143" s="0"/>
       <c r="F143" s="0"/>
       <c r="G143" s="0"/>
+      <c r="H143" s="0"/>
+      <c r="I143" s="0"/>
       <c r="J143" s="0"/>
       <c r="K143" s="0"/>
+      <c r="L143" s="0"/>
       <c r="M143" s="0"/>
-      <c r="T143" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="U143" s="2" t="n">
-        <v>20.32</v>
-      </c>
-      <c r="V143" s="2" t="n">
-        <v>1854.2</v>
-      </c>
-      <c r="W143" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="X143" s="2" t="n">
-        <v>10.42</v>
-      </c>
+      <c r="N143" s="0"/>
+      <c r="O143" s="0"/>
+      <c r="P143" s="0"/>
+      <c r="Q143" s="0"/>
+      <c r="R143" s="0"/>
+      <c r="T143" s="0"/>
+      <c r="U143" s="0"/>
+      <c r="V143" s="0"/>
+      <c r="W143" s="0"/>
+      <c r="X143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="A144" s="0"/>
       <c r="C144" s="0"/>
       <c r="D144" s="0"/>
       <c r="E144" s="0"/>
       <c r="F144" s="0"/>
       <c r="G144" s="0"/>
+      <c r="H144" s="0"/>
+      <c r="I144" s="0"/>
       <c r="J144" s="0"/>
       <c r="K144" s="0"/>
+      <c r="L144" s="0"/>
       <c r="M144" s="0"/>
-      <c r="T144" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="U144" s="2" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="V144" s="2" t="n">
-        <v>2054.95</v>
-      </c>
-      <c r="W144" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="X144" s="2" t="n">
-        <v>10.64</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0"/>
-      <c r="C145" s="0"/>
-      <c r="D145" s="0"/>
-      <c r="E145" s="0"/>
-      <c r="F145" s="0"/>
-      <c r="G145" s="0"/>
-      <c r="J145" s="0"/>
-      <c r="K145" s="0"/>
-      <c r="M145" s="0"/>
+      <c r="N144" s="0"/>
+      <c r="O144" s="0"/>
+      <c r="P144" s="0"/>
+      <c r="Q144" s="0"/>
+      <c r="R144" s="0"/>
+      <c r="T144" s="0"/>
+      <c r="U144" s="0"/>
+      <c r="V144" s="0"/>
+      <c r="W144" s="0"/>
+      <c r="X144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2" t="n">
+        <v>5.65969879518072</v>
+      </c>
+      <c r="I145" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J145" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="K145" s="2" t="n">
+        <v>170.82</v>
+      </c>
+      <c r="L145" s="2" t="n">
+        <v>0.514518072289157</v>
+      </c>
+      <c r="M145" s="4" t="n">
+        <v>332</v>
+      </c>
+      <c r="N145" s="2" t="n">
+        <v>0.00909589041095891</v>
+      </c>
+      <c r="O145" s="2" t="n">
+        <v>0.227397260273973</v>
+      </c>
+      <c r="P145" s="2" t="n">
+        <v>30.1818181818182</v>
+      </c>
+      <c r="Q145" s="2" t="n">
+        <v>0.0826899128268991</v>
+      </c>
+      <c r="R145" s="2" t="n">
+        <v>0.90958904109589</v>
+      </c>
       <c r="T145" s="2" t="n">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="U145" s="2" t="n">
-        <v>24.72</v>
+        <v>3.38</v>
       </c>
       <c r="V145" s="2" t="n">
-        <v>2255.7</v>
+        <v>308.425</v>
       </c>
       <c r="W145" s="2" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="X145" s="2" t="n">
-        <v>10.86</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6188,49 +6221,84 @@
       <c r="E146" s="0"/>
       <c r="F146" s="0"/>
       <c r="G146" s="0"/>
+      <c r="H146" s="0"/>
+      <c r="I146" s="0"/>
       <c r="J146" s="0"/>
       <c r="K146" s="0"/>
+      <c r="L146" s="0"/>
       <c r="M146" s="0"/>
-      <c r="T146" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="U146" s="2" t="n">
-        <v>26.92</v>
-      </c>
-      <c r="V146" s="2" t="n">
-        <v>2456.45</v>
-      </c>
-      <c r="W146" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="X146" s="2" t="n">
-        <v>11.08</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0"/>
-      <c r="C147" s="0"/>
-      <c r="D147" s="0"/>
-      <c r="E147" s="0"/>
-      <c r="F147" s="0"/>
-      <c r="G147" s="0"/>
-      <c r="J147" s="0"/>
-      <c r="K147" s="0"/>
-      <c r="M147" s="0"/>
+      <c r="N146" s="0"/>
+      <c r="O146" s="0"/>
+      <c r="P146" s="0"/>
+      <c r="Q146" s="0"/>
+      <c r="R146" s="0"/>
+      <c r="T146" s="0"/>
+      <c r="U146" s="0"/>
+      <c r="V146" s="0"/>
+      <c r="W146" s="0"/>
+      <c r="X146" s="0"/>
+    </row>
+    <row r="147" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2" t="n">
+        <v>3.20712430426716</v>
+      </c>
+      <c r="I147" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J147" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="K147" s="2" t="n">
+        <v>216.08</v>
+      </c>
+      <c r="L147" s="2" t="n">
+        <v>0.400890538033395</v>
+      </c>
+      <c r="M147" s="4" t="n">
+        <v>539</v>
+      </c>
+      <c r="N147" s="2" t="n">
+        <v>0.0147671232876712</v>
+      </c>
+      <c r="O147" s="2" t="n">
+        <v>0.369178082191781</v>
+      </c>
+      <c r="P147" s="2" t="n">
+        <v>67.375</v>
+      </c>
+      <c r="Q147" s="2" t="n">
+        <v>0.18458904109589</v>
+      </c>
+      <c r="R147" s="2" t="n">
+        <v>1.47671232876712</v>
+      </c>
       <c r="T147" s="2" t="n">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="U147" s="2" t="n">
-        <v>29.12</v>
+        <v>3.82</v>
       </c>
       <c r="V147" s="2" t="n">
-        <v>2657.2</v>
+        <v>348.575</v>
       </c>
       <c r="W147" s="2" t="n">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="X147" s="2" t="n">
-        <v>11.3</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6240,49 +6308,84 @@
       <c r="E148" s="0"/>
       <c r="F148" s="0"/>
       <c r="G148" s="0"/>
+      <c r="H148" s="0"/>
+      <c r="I148" s="0"/>
       <c r="J148" s="0"/>
       <c r="K148" s="0"/>
+      <c r="L148" s="0"/>
       <c r="M148" s="0"/>
-      <c r="T148" s="2" t="n">
-        <v>145</v>
-      </c>
-      <c r="U148" s="2" t="n">
-        <v>31.3199999999999</v>
-      </c>
-      <c r="V148" s="2" t="n">
-        <v>2857.94999999999</v>
-      </c>
-      <c r="W148" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="X148" s="2" t="n">
-        <v>11.52</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0"/>
-      <c r="C149" s="0"/>
-      <c r="D149" s="0"/>
-      <c r="E149" s="0"/>
-      <c r="F149" s="0"/>
-      <c r="G149" s="0"/>
-      <c r="J149" s="0"/>
-      <c r="K149" s="0"/>
-      <c r="M149" s="0"/>
+      <c r="N148" s="0"/>
+      <c r="O148" s="0"/>
+      <c r="P148" s="0"/>
+      <c r="Q148" s="0"/>
+      <c r="R148" s="0"/>
+      <c r="T148" s="0"/>
+      <c r="U148" s="0"/>
+      <c r="V148" s="0"/>
+      <c r="W148" s="0"/>
+      <c r="X148" s="0"/>
+    </row>
+    <row r="149" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2" t="n">
+        <v>3.69359877488515</v>
+      </c>
+      <c r="I149" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J149" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="K149" s="2" t="n">
+        <v>344.56</v>
+      </c>
+      <c r="L149" s="2" t="n">
+        <v>0.527656967840735</v>
+      </c>
+      <c r="M149" s="4" t="n">
+        <v>653</v>
+      </c>
+      <c r="N149" s="2" t="n">
+        <v>0.0178904109589041</v>
+      </c>
+      <c r="O149" s="2" t="n">
+        <v>0.447260273972603</v>
+      </c>
+      <c r="P149" s="2" t="n">
+        <v>93.2857142857143</v>
+      </c>
+      <c r="Q149" s="2" t="n">
+        <v>0.255577299412916</v>
+      </c>
+      <c r="R149" s="2" t="n">
+        <v>1.78904109589041</v>
+      </c>
       <c r="T149" s="2" t="n">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="U149" s="2" t="n">
-        <v>33.5199999999999</v>
+        <v>4.26</v>
       </c>
       <c r="V149" s="2" t="n">
-        <v>3058.69999999999</v>
+        <v>388.725</v>
       </c>
       <c r="W149" s="2" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="X149" s="2" t="n">
-        <v>11.74</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6292,75 +6395,147 @@
       <c r="E150" s="0"/>
       <c r="F150" s="0"/>
       <c r="G150" s="0"/>
+      <c r="H150" s="0"/>
+      <c r="I150" s="0"/>
       <c r="J150" s="0"/>
       <c r="K150" s="0"/>
+      <c r="L150" s="0"/>
       <c r="M150" s="0"/>
-      <c r="T150" s="2" t="n">
-        <v>165</v>
-      </c>
-      <c r="U150" s="2" t="n">
-        <v>35.7199999999999</v>
-      </c>
-      <c r="V150" s="2" t="n">
-        <v>3259.44999999999</v>
-      </c>
-      <c r="W150" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="X150" s="2" t="n">
-        <v>11.96</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0"/>
-      <c r="C151" s="0"/>
-      <c r="D151" s="0"/>
-      <c r="E151" s="0"/>
-      <c r="F151" s="0"/>
-      <c r="G151" s="0"/>
-      <c r="J151" s="0"/>
-      <c r="K151" s="0"/>
-      <c r="M151" s="0"/>
+      <c r="N150" s="0"/>
+      <c r="O150" s="0"/>
+      <c r="P150" s="0"/>
+      <c r="Q150" s="0"/>
+      <c r="R150" s="0"/>
+      <c r="T150" s="0"/>
+      <c r="U150" s="0"/>
+      <c r="V150" s="0"/>
+      <c r="W150" s="0"/>
+      <c r="X150" s="0"/>
+    </row>
+    <row r="151" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2" t="n">
+        <v>3.17172413793103</v>
+      </c>
+      <c r="I151" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J151" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="K151" s="2" t="n">
+        <v>144.54</v>
+      </c>
+      <c r="L151" s="2" t="n">
+        <v>0.453103448275862</v>
+      </c>
+      <c r="M151" s="4" t="n">
+        <v>319</v>
+      </c>
+      <c r="N151" s="2" t="n">
+        <v>0.00873972602739726</v>
+      </c>
+      <c r="O151" s="2" t="n">
+        <v>0.218493150684931</v>
+      </c>
+      <c r="P151" s="2" t="n">
+        <v>45.5714285714286</v>
+      </c>
+      <c r="Q151" s="2" t="n">
+        <v>0.124853228962818</v>
+      </c>
+      <c r="R151" s="2" t="n">
+        <v>0.873972602739726</v>
+      </c>
       <c r="T151" s="2" t="n">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="U151" s="2" t="n">
-        <v>37.9199999999999</v>
+        <v>4.7</v>
       </c>
       <c r="V151" s="2" t="n">
-        <v>3460.19999999999</v>
+        <v>428.875</v>
       </c>
       <c r="W151" s="2" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="X151" s="2" t="n">
-        <v>12.18</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0"/>
-      <c r="C152" s="0"/>
-      <c r="D152" s="0"/>
-      <c r="E152" s="0"/>
-      <c r="F152" s="0"/>
-      <c r="G152" s="0"/>
-      <c r="J152" s="0"/>
-      <c r="K152" s="0"/>
-      <c r="M152" s="0"/>
+      <c r="A152" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2" t="n">
+        <v>2.65275908479139</v>
+      </c>
+      <c r="I152" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J152" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="K152" s="2" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="L152" s="2" t="n">
+        <v>0.442126514131898</v>
+      </c>
+      <c r="M152" s="2" t="n">
+        <v>743</v>
+      </c>
+      <c r="N152" s="2" t="n">
+        <v>0.0203561643835616</v>
+      </c>
+      <c r="O152" s="2" t="n">
+        <v>0.508904109589041</v>
+      </c>
+      <c r="P152" s="2" t="n">
+        <v>123.833333333333</v>
+      </c>
+      <c r="Q152" s="2" t="n">
+        <v>0.339269406392694</v>
+      </c>
+      <c r="R152" s="2" t="n">
+        <v>2.03561643835616</v>
+      </c>
       <c r="T152" s="2" t="n">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="U152" s="2" t="n">
-        <v>40.1199999999999</v>
+        <v>4.92</v>
       </c>
       <c r="V152" s="2" t="n">
-        <v>3660.94999999999</v>
+        <v>448.95</v>
       </c>
       <c r="W152" s="2" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="X152" s="2" t="n">
-        <v>12.4</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6370,24 +6545,22 @@
       <c r="E153" s="0"/>
       <c r="F153" s="0"/>
       <c r="G153" s="0"/>
+      <c r="H153" s="0"/>
+      <c r="I153" s="0"/>
       <c r="J153" s="0"/>
       <c r="K153" s="0"/>
+      <c r="L153" s="0"/>
       <c r="M153" s="0"/>
-      <c r="T153" s="2" t="n">
-        <v>195</v>
-      </c>
-      <c r="U153" s="2" t="n">
-        <v>42.3199999999999</v>
-      </c>
-      <c r="V153" s="2" t="n">
-        <v>3861.69999999999</v>
-      </c>
-      <c r="W153" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="X153" s="2" t="n">
-        <v>12.62</v>
-      </c>
+      <c r="N153" s="0"/>
+      <c r="O153" s="0"/>
+      <c r="P153" s="0"/>
+      <c r="Q153" s="0"/>
+      <c r="R153" s="0"/>
+      <c r="T153" s="0"/>
+      <c r="U153" s="0"/>
+      <c r="V153" s="0"/>
+      <c r="W153" s="0"/>
+      <c r="X153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0"/>
@@ -6396,24 +6569,22 @@
       <c r="E154" s="0"/>
       <c r="F154" s="0"/>
       <c r="G154" s="0"/>
+      <c r="H154" s="0"/>
+      <c r="I154" s="0"/>
       <c r="J154" s="0"/>
       <c r="K154" s="0"/>
+      <c r="L154" s="0"/>
       <c r="M154" s="0"/>
-      <c r="T154" s="2" t="n">
-        <v>205</v>
-      </c>
-      <c r="U154" s="2" t="n">
-        <v>44.5199999999999</v>
-      </c>
-      <c r="V154" s="2" t="n">
-        <v>4062.44999999999</v>
-      </c>
-      <c r="W154" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="X154" s="2" t="n">
-        <v>12.84</v>
-      </c>
+      <c r="N154" s="0"/>
+      <c r="O154" s="0"/>
+      <c r="P154" s="0"/>
+      <c r="Q154" s="0"/>
+      <c r="R154" s="0"/>
+      <c r="T154" s="0"/>
+      <c r="U154" s="0"/>
+      <c r="V154" s="0"/>
+      <c r="W154" s="0"/>
+      <c r="X154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0"/>
@@ -6422,65 +6593,201 @@
       <c r="E155" s="0"/>
       <c r="F155" s="0"/>
       <c r="G155" s="0"/>
+      <c r="H155" s="0"/>
+      <c r="I155" s="0"/>
       <c r="J155" s="0"/>
       <c r="K155" s="0"/>
+      <c r="L155" s="0"/>
       <c r="M155" s="0"/>
-      <c r="W155" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="X155" s="2" t="n">
-        <v>13.06</v>
-      </c>
+      <c r="N155" s="0"/>
+      <c r="O155" s="0"/>
+      <c r="P155" s="0"/>
+      <c r="Q155" s="0"/>
+      <c r="R155" s="0"/>
+      <c r="T155" s="0"/>
+      <c r="U155" s="0"/>
+      <c r="V155" s="0"/>
+      <c r="W155" s="0"/>
+      <c r="X155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0"/>
-      <c r="C156" s="0"/>
-      <c r="D156" s="0"/>
-      <c r="E156" s="0"/>
-      <c r="F156" s="0"/>
-      <c r="G156" s="0"/>
-      <c r="J156" s="0"/>
-      <c r="K156" s="0"/>
-      <c r="M156" s="0"/>
+      <c r="A156" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2" t="n">
+        <v>1.2155023923445</v>
+      </c>
+      <c r="I156" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J156" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="K156" s="2" t="n">
+        <v>42.34</v>
+      </c>
+      <c r="L156" s="2" t="n">
+        <v>0.202583732057416</v>
+      </c>
+      <c r="M156" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="N156" s="2" t="n">
+        <v>0.00572602739726027</v>
+      </c>
+      <c r="O156" s="2" t="n">
+        <v>0.143150684931507</v>
+      </c>
+      <c r="P156" s="2" t="n">
+        <v>34.8333333333333</v>
+      </c>
+      <c r="Q156" s="2" t="n">
+        <v>0.0954337899543379</v>
+      </c>
+      <c r="R156" s="2" t="n">
+        <v>0.572602739726027</v>
+      </c>
+      <c r="T156" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="U156" s="2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="V156" s="2" t="n">
+        <v>529.25</v>
+      </c>
       <c r="W156" s="2" t="n">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="X156" s="2" t="n">
-        <v>13.28</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0"/>
-      <c r="C157" s="0"/>
-      <c r="D157" s="0"/>
-      <c r="E157" s="0"/>
-      <c r="F157" s="0"/>
-      <c r="G157" s="0"/>
-      <c r="J157" s="0"/>
-      <c r="K157" s="0"/>
-      <c r="M157" s="0"/>
+      <c r="A157" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2" t="n">
+        <v>1.6504347826087</v>
+      </c>
+      <c r="I157" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J157" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="K157" s="2" t="n">
+        <v>75.92</v>
+      </c>
+      <c r="L157" s="2" t="n">
+        <v>0.412608695652174</v>
+      </c>
+      <c r="M157" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="N157" s="2" t="n">
+        <v>0.00504109589041096</v>
+      </c>
+      <c r="O157" s="2" t="n">
+        <v>0.126027397260274</v>
+      </c>
+      <c r="P157" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q157" s="2" t="n">
+        <v>0.126027397260274</v>
+      </c>
+      <c r="R157" s="2" t="n">
+        <v>0.504109589041096</v>
+      </c>
+      <c r="T157" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="U157" s="2" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="V157" s="2" t="n">
+        <v>549.325</v>
+      </c>
       <c r="W157" s="2" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="X157" s="2" t="n">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0"/>
-      <c r="C158" s="0"/>
-      <c r="D158" s="0"/>
-      <c r="E158" s="0"/>
-      <c r="F158" s="0"/>
-      <c r="G158" s="0"/>
-      <c r="J158" s="0"/>
-      <c r="K158" s="0"/>
-      <c r="M158" s="0"/>
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2" t="n">
+        <v>1.21393258426966</v>
+      </c>
+      <c r="I158" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J158" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="K158" s="2" t="n">
+        <v>54.02</v>
+      </c>
+      <c r="L158" s="2" t="n">
+        <v>0.303483146067416</v>
+      </c>
+      <c r="M158" s="4" t="n">
+        <v>178</v>
+      </c>
+      <c r="N158" s="2" t="n">
+        <v>0.00487671232876712</v>
+      </c>
+      <c r="O158" s="2" t="n">
+        <v>0.121917808219178</v>
+      </c>
+      <c r="P158" s="2" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="Q158" s="2" t="n">
+        <v>0.121917808219178</v>
+      </c>
+      <c r="R158" s="2" t="n">
+        <v>0.487671232876712</v>
+      </c>
+      <c r="T158" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="U158" s="2" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="V158" s="2" t="n">
+        <v>569.4</v>
+      </c>
       <c r="W158" s="2" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="X158" s="2" t="n">
-        <v>13.72</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6490,48 +6797,141 @@
       <c r="E159" s="0"/>
       <c r="F159" s="0"/>
       <c r="G159" s="0"/>
+      <c r="H159" s="0"/>
+      <c r="I159" s="0"/>
       <c r="J159" s="0"/>
       <c r="K159" s="0"/>
+      <c r="L159" s="0"/>
       <c r="M159" s="0"/>
-      <c r="W159" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="X159" s="2" t="n">
-        <v>13.94</v>
-      </c>
+      <c r="N159" s="0"/>
+      <c r="O159" s="0"/>
+      <c r="P159" s="0"/>
+      <c r="Q159" s="0"/>
+      <c r="R159" s="0"/>
+      <c r="T159" s="0"/>
+      <c r="U159" s="0"/>
+      <c r="V159" s="0"/>
+      <c r="W159" s="0"/>
+      <c r="X159" s="0"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0"/>
-      <c r="C160" s="0"/>
-      <c r="D160" s="0"/>
-      <c r="E160" s="0"/>
-      <c r="F160" s="0"/>
-      <c r="G160" s="0"/>
-      <c r="J160" s="0"/>
-      <c r="K160" s="0"/>
-      <c r="M160" s="0"/>
+      <c r="A160" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2" t="n">
+        <v>0.929090909090909</v>
+      </c>
+      <c r="I160" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="K160" s="2" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="L160" s="2" t="n">
+        <v>0.30969696969697</v>
+      </c>
+      <c r="M160" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="N160" s="2" t="n">
+        <v>0.00271232876712329</v>
+      </c>
+      <c r="O160" s="2" t="n">
+        <v>0.0678082191780822</v>
+      </c>
+      <c r="P160" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q160" s="2" t="n">
+        <v>0.0904109589041096</v>
+      </c>
+      <c r="R160" s="2" t="n">
+        <v>0.271232876712329</v>
+      </c>
+      <c r="T160" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="U160" s="2" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="V160" s="2" t="n">
+        <v>609.55</v>
+      </c>
       <c r="W160" s="2" t="n">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="X160" s="2" t="n">
-        <v>14.16</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0"/>
-      <c r="C161" s="0"/>
-      <c r="D161" s="0"/>
-      <c r="E161" s="0"/>
-      <c r="F161" s="0"/>
-      <c r="G161" s="0"/>
-      <c r="J161" s="0"/>
-      <c r="K161" s="0"/>
-      <c r="M161" s="0"/>
+      <c r="A161" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2" t="n">
+        <v>0.925853658536585</v>
+      </c>
+      <c r="I161" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="K161" s="2" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="L161" s="2" t="n">
+        <v>0.462926829268293</v>
+      </c>
+      <c r="M161" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="N161" s="2" t="n">
+        <v>0.00112328767123288</v>
+      </c>
+      <c r="O161" s="2" t="n">
+        <v>0.0280821917808219</v>
+      </c>
+      <c r="P161" s="2" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q161" s="2" t="n">
+        <v>0.0561643835616438</v>
+      </c>
+      <c r="R161" s="2" t="n">
+        <v>0.112328767123288</v>
+      </c>
+      <c r="T161" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="U161" s="2" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="V161" s="2" t="n">
+        <v>629.625</v>
+      </c>
       <c r="W161" s="2" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="X161" s="2" t="n">
-        <v>14.38</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6541,48 +6941,141 @@
       <c r="E162" s="0"/>
       <c r="F162" s="0"/>
       <c r="G162" s="0"/>
+      <c r="H162" s="0"/>
+      <c r="I162" s="0"/>
       <c r="J162" s="0"/>
       <c r="K162" s="0"/>
+      <c r="L162" s="0"/>
       <c r="M162" s="0"/>
-      <c r="W162" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="X162" s="2" t="n">
+      <c r="N162" s="0"/>
+      <c r="O162" s="0"/>
+      <c r="P162" s="0"/>
+      <c r="Q162" s="0"/>
+      <c r="R162" s="0"/>
+      <c r="T162" s="0"/>
+      <c r="U162" s="0"/>
+      <c r="V162" s="0"/>
+      <c r="W162" s="0"/>
+      <c r="X162" s="0"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2" t="n">
+        <v>1.21666666666667</v>
+      </c>
+      <c r="I163" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J163" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K163" s="2" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L163" s="2" t="n">
+        <v>1.21666666666667</v>
+      </c>
+      <c r="M163" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="N163" s="2" t="n">
+        <v>0.000821917808219178</v>
+      </c>
+      <c r="O163" s="2" t="n">
+        <v>0.0205479452054794</v>
+      </c>
+      <c r="P163" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q163" s="2" t="n">
+        <v>0.0821917808219178</v>
+      </c>
+      <c r="R163" s="2" t="n">
+        <v>0.0821917808219178</v>
+      </c>
+      <c r="T163" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="U163" s="2" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="V163" s="2" t="n">
+        <v>669.775</v>
+      </c>
+      <c r="W163" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="X163" s="2" t="n">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2" t="n">
+        <v>0.297959183673469</v>
+      </c>
+      <c r="I164" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K164" s="2" t="n">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0"/>
-      <c r="C163" s="0"/>
-      <c r="D163" s="0"/>
-      <c r="E163" s="0"/>
-      <c r="F163" s="0"/>
-      <c r="G163" s="0"/>
-      <c r="J163" s="0"/>
-      <c r="K163" s="0"/>
-      <c r="M163" s="0"/>
-      <c r="W163" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="X163" s="2" t="n">
-        <v>14.82</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0"/>
-      <c r="C164" s="0"/>
-      <c r="D164" s="0"/>
-      <c r="E164" s="0"/>
-      <c r="F164" s="0"/>
-      <c r="G164" s="0"/>
-      <c r="J164" s="0"/>
-      <c r="K164" s="0"/>
-      <c r="M164" s="0"/>
+      <c r="L164" s="2" t="n">
+        <v>0.297959183673469</v>
+      </c>
+      <c r="M164" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="N164" s="2" t="n">
+        <v>0.00134246575342466</v>
+      </c>
+      <c r="O164" s="2" t="n">
+        <v>0.0335616438356164</v>
+      </c>
+      <c r="P164" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q164" s="2" t="n">
+        <v>0.134246575342466</v>
+      </c>
+      <c r="R164" s="2" t="n">
+        <v>0.134246575342466</v>
+      </c>
+      <c r="T164" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="U164" s="2" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="V164" s="2" t="n">
+        <v>689.85</v>
+      </c>
       <c r="W164" s="2" t="n">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="X164" s="2" t="n">
-        <v>15.04</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6595,11 +7088,20 @@
       <c r="J165" s="0"/>
       <c r="K165" s="0"/>
       <c r="M165" s="0"/>
+      <c r="T165" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="U165" s="2" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="V165" s="2" t="n">
+        <v>709.925</v>
+      </c>
       <c r="W165" s="2" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="X165" s="2" t="n">
-        <v>15.26</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6612,11 +7114,20 @@
       <c r="J166" s="0"/>
       <c r="K166" s="0"/>
       <c r="M166" s="0"/>
+      <c r="T166" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="U166" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V166" s="2" t="n">
+        <v>730</v>
+      </c>
       <c r="W166" s="2" t="n">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="X166" s="2" t="n">
-        <v>15.48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6629,11 +7140,20 @@
       <c r="J167" s="0"/>
       <c r="K167" s="0"/>
       <c r="M167" s="0"/>
+      <c r="T167" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="U167" s="2" t="n">
+        <v>8.22</v>
+      </c>
+      <c r="V167" s="2" t="n">
+        <v>750.075</v>
+      </c>
       <c r="W167" s="2" t="n">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="X167" s="2" t="n">
-        <v>15.7</v>
+        <v>8.22</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6646,11 +7166,20 @@
       <c r="J168" s="0"/>
       <c r="K168" s="0"/>
       <c r="M168" s="0"/>
+      <c r="T168" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="U168" s="2" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="V168" s="2" t="n">
+        <v>850.45</v>
+      </c>
       <c r="W168" s="2" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="X168" s="2" t="n">
-        <v>15.92</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6663,11 +7192,20 @@
       <c r="J169" s="0"/>
       <c r="K169" s="0"/>
       <c r="M169" s="0"/>
+      <c r="T169" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="U169" s="2" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="V169" s="2" t="n">
+        <v>950.825</v>
+      </c>
       <c r="W169" s="2" t="n">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="X169" s="2" t="n">
-        <v>16.14</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6680,1306 +7218,2059 @@
       <c r="J170" s="0"/>
       <c r="K170" s="0"/>
       <c r="M170" s="0"/>
+      <c r="T170" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="U170" s="2" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="V170" s="2" t="n">
+        <v>1051.2</v>
+      </c>
       <c r="W170" s="2" t="n">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="X170" s="2" t="n">
-        <v>16.36</v>
+        <v>8.88</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="J171" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K171" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M171" s="2" t="s">
-        <v>132</v>
+      <c r="A171" s="0"/>
+      <c r="C171" s="0"/>
+      <c r="D171" s="0"/>
+      <c r="E171" s="0"/>
+      <c r="F171" s="0"/>
+      <c r="G171" s="0"/>
+      <c r="J171" s="0"/>
+      <c r="K171" s="0"/>
+      <c r="M171" s="0"/>
+      <c r="T171" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="U171" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="V171" s="2" t="n">
+        <v>1151.575</v>
       </c>
       <c r="W171" s="2" t="n">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="X171" s="2" t="n">
-        <v>16.58</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C172" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
+      <c r="A172" s="0"/>
+      <c r="C172" s="0"/>
+      <c r="D172" s="0"/>
+      <c r="E172" s="0"/>
+      <c r="F172" s="0"/>
+      <c r="G172" s="0"/>
+      <c r="J172" s="0"/>
+      <c r="K172" s="0"/>
+      <c r="M172" s="0"/>
+      <c r="T172" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="U172" s="2" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="V172" s="2" t="n">
+        <v>1251.95</v>
+      </c>
       <c r="W172" s="2" t="n">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X172" s="2" t="n">
-        <v>16.8</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C173" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
+      <c r="A173" s="0"/>
+      <c r="C173" s="0"/>
+      <c r="D173" s="0"/>
+      <c r="E173" s="0"/>
+      <c r="F173" s="0"/>
+      <c r="G173" s="0"/>
+      <c r="J173" s="0"/>
+      <c r="K173" s="0"/>
+      <c r="M173" s="0"/>
+      <c r="T173" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="U173" s="2" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="V173" s="2" t="n">
+        <v>1352.325</v>
+      </c>
       <c r="W173" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="X173" s="2" t="n">
+        <v>9.54</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0"/>
+      <c r="C174" s="0"/>
+      <c r="D174" s="0"/>
+      <c r="E174" s="0"/>
+      <c r="F174" s="0"/>
+      <c r="G174" s="0"/>
+      <c r="J174" s="0"/>
+      <c r="K174" s="0"/>
+      <c r="M174" s="0"/>
+      <c r="T174" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="U174" s="2" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="V174" s="2" t="n">
+        <v>1452.7</v>
+      </c>
+      <c r="W174" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="X174" s="2" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0"/>
+      <c r="C175" s="0"/>
+      <c r="D175" s="0"/>
+      <c r="E175" s="0"/>
+      <c r="F175" s="0"/>
+      <c r="G175" s="0"/>
+      <c r="J175" s="0"/>
+      <c r="K175" s="0"/>
+      <c r="M175" s="0"/>
+      <c r="T175" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="X173" s="2" t="n">
+      <c r="U175" s="2" t="n">
         <v>17.02</v>
       </c>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C174" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="W174" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="X174" s="2" t="n">
-        <v>17.24</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C175" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
+      <c r="V175" s="2" t="n">
+        <v>1553.075</v>
+      </c>
       <c r="W175" s="2" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="X175" s="2" t="n">
-        <v>17.46</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C176" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
+      <c r="A176" s="0"/>
+      <c r="C176" s="0"/>
+      <c r="D176" s="0"/>
+      <c r="E176" s="0"/>
+      <c r="F176" s="0"/>
+      <c r="G176" s="0"/>
+      <c r="J176" s="0"/>
+      <c r="K176" s="0"/>
+      <c r="M176" s="0"/>
+      <c r="T176" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="U176" s="2" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="V176" s="2" t="n">
+        <v>1653.45</v>
+      </c>
       <c r="W176" s="2" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="X176" s="2" t="n">
-        <v>17.68</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C177" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="C177" s="0"/>
+      <c r="D177" s="0"/>
+      <c r="E177" s="0"/>
+      <c r="F177" s="0"/>
+      <c r="G177" s="0"/>
+      <c r="J177" s="0"/>
+      <c r="K177" s="0"/>
+      <c r="M177" s="0"/>
+      <c r="T177" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="U177" s="2" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="V177" s="2" t="n">
+        <v>1854.2</v>
+      </c>
       <c r="W177" s="2" t="n">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="X177" s="2" t="n">
-        <v>17.9</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C178" s="0"/>
+      <c r="D178" s="0"/>
+      <c r="E178" s="0"/>
+      <c r="F178" s="0"/>
+      <c r="G178" s="0"/>
+      <c r="J178" s="0"/>
+      <c r="K178" s="0"/>
+      <c r="M178" s="0"/>
+      <c r="T178" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="U178" s="2" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="V178" s="2" t="n">
+        <v>2054.95</v>
+      </c>
+      <c r="W178" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="X178" s="2" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0"/>
+      <c r="C179" s="0"/>
+      <c r="D179" s="0"/>
+      <c r="E179" s="0"/>
+      <c r="F179" s="0"/>
+      <c r="G179" s="0"/>
+      <c r="J179" s="0"/>
+      <c r="K179" s="0"/>
+      <c r="M179" s="0"/>
+      <c r="T179" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="U179" s="2" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="V179" s="2" t="n">
+        <v>2255.7</v>
+      </c>
+      <c r="W179" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="X179" s="2" t="n">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0"/>
+      <c r="C180" s="0"/>
+      <c r="D180" s="0"/>
+      <c r="E180" s="0"/>
+      <c r="F180" s="0"/>
+      <c r="G180" s="0"/>
+      <c r="J180" s="0"/>
+      <c r="K180" s="0"/>
+      <c r="M180" s="0"/>
+      <c r="T180" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="U180" s="2" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="V180" s="2" t="n">
+        <v>2456.45</v>
+      </c>
+      <c r="W180" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="X180" s="2" t="n">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0"/>
+      <c r="C181" s="0"/>
+      <c r="D181" s="0"/>
+      <c r="E181" s="0"/>
+      <c r="F181" s="0"/>
+      <c r="G181" s="0"/>
+      <c r="J181" s="0"/>
+      <c r="K181" s="0"/>
+      <c r="M181" s="0"/>
+      <c r="T181" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="U181" s="2" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="V181" s="2" t="n">
+        <v>2657.2</v>
+      </c>
+      <c r="W181" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="X181" s="2" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0"/>
+      <c r="C182" s="0"/>
+      <c r="D182" s="0"/>
+      <c r="E182" s="0"/>
+      <c r="F182" s="0"/>
+      <c r="G182" s="0"/>
+      <c r="J182" s="0"/>
+      <c r="K182" s="0"/>
+      <c r="M182" s="0"/>
+      <c r="T182" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="U182" s="2" t="n">
+        <v>31.3199999999999</v>
+      </c>
+      <c r="V182" s="2" t="n">
+        <v>2857.94999999999</v>
+      </c>
+      <c r="W182" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="X182" s="2" t="n">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0"/>
+      <c r="C183" s="0"/>
+      <c r="D183" s="0"/>
+      <c r="E183" s="0"/>
+      <c r="F183" s="0"/>
+      <c r="G183" s="0"/>
+      <c r="J183" s="0"/>
+      <c r="K183" s="0"/>
+      <c r="M183" s="0"/>
+      <c r="T183" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="U183" s="2" t="n">
+        <v>33.5199999999999</v>
+      </c>
+      <c r="V183" s="2" t="n">
+        <v>3058.69999999999</v>
+      </c>
+      <c r="W183" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="X183" s="2" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0"/>
+      <c r="C184" s="0"/>
+      <c r="D184" s="0"/>
+      <c r="E184" s="0"/>
+      <c r="F184" s="0"/>
+      <c r="G184" s="0"/>
+      <c r="J184" s="0"/>
+      <c r="K184" s="0"/>
+      <c r="M184" s="0"/>
+      <c r="T184" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="U184" s="2" t="n">
+        <v>35.7199999999999</v>
+      </c>
+      <c r="V184" s="2" t="n">
+        <v>3259.44999999999</v>
+      </c>
+      <c r="W184" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="X184" s="2" t="n">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0"/>
+      <c r="C185" s="0"/>
+      <c r="D185" s="0"/>
+      <c r="E185" s="0"/>
+      <c r="F185" s="0"/>
+      <c r="G185" s="0"/>
+      <c r="J185" s="0"/>
+      <c r="K185" s="0"/>
+      <c r="M185" s="0"/>
+      <c r="T185" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="U185" s="2" t="n">
+        <v>37.9199999999999</v>
+      </c>
+      <c r="V185" s="2" t="n">
+        <v>3460.19999999999</v>
+      </c>
+      <c r="W185" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="X185" s="2" t="n">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0"/>
+      <c r="C186" s="0"/>
+      <c r="D186" s="0"/>
+      <c r="E186" s="0"/>
+      <c r="F186" s="0"/>
+      <c r="G186" s="0"/>
+      <c r="J186" s="0"/>
+      <c r="K186" s="0"/>
+      <c r="M186" s="0"/>
+      <c r="T186" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="U186" s="2" t="n">
+        <v>40.1199999999999</v>
+      </c>
+      <c r="V186" s="2" t="n">
+        <v>3660.94999999999</v>
+      </c>
+      <c r="W186" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="X186" s="2" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0"/>
+      <c r="C187" s="0"/>
+      <c r="D187" s="0"/>
+      <c r="E187" s="0"/>
+      <c r="F187" s="0"/>
+      <c r="G187" s="0"/>
+      <c r="J187" s="0"/>
+      <c r="K187" s="0"/>
+      <c r="M187" s="0"/>
+      <c r="T187" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="U187" s="2" t="n">
+        <v>42.3199999999999</v>
+      </c>
+      <c r="V187" s="2" t="n">
+        <v>3861.69999999999</v>
+      </c>
+      <c r="W187" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="X187" s="2" t="n">
+        <v>12.62</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0"/>
+      <c r="C188" s="0"/>
+      <c r="D188" s="0"/>
+      <c r="E188" s="0"/>
+      <c r="F188" s="0"/>
+      <c r="G188" s="0"/>
+      <c r="J188" s="0"/>
+      <c r="K188" s="0"/>
+      <c r="M188" s="0"/>
+      <c r="T188" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="U188" s="2" t="n">
+        <v>44.5199999999999</v>
+      </c>
+      <c r="V188" s="2" t="n">
+        <v>4062.44999999999</v>
+      </c>
+      <c r="W188" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="X188" s="2" t="n">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0"/>
+      <c r="C189" s="0"/>
+      <c r="D189" s="0"/>
+      <c r="E189" s="0"/>
+      <c r="F189" s="0"/>
+      <c r="G189" s="0"/>
+      <c r="J189" s="0"/>
+      <c r="K189" s="0"/>
+      <c r="M189" s="0"/>
+      <c r="W189" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="X189" s="2" t="n">
+        <v>13.06</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0"/>
+      <c r="C190" s="0"/>
+      <c r="D190" s="0"/>
+      <c r="E190" s="0"/>
+      <c r="F190" s="0"/>
+      <c r="G190" s="0"/>
+      <c r="J190" s="0"/>
+      <c r="K190" s="0"/>
+      <c r="M190" s="0"/>
+      <c r="W190" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="X190" s="2" t="n">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0"/>
+      <c r="C191" s="0"/>
+      <c r="D191" s="0"/>
+      <c r="E191" s="0"/>
+      <c r="F191" s="0"/>
+      <c r="G191" s="0"/>
+      <c r="J191" s="0"/>
+      <c r="K191" s="0"/>
+      <c r="M191" s="0"/>
+      <c r="W191" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="C178" s="2" t="n">
+      <c r="X191" s="2" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0"/>
+      <c r="C192" s="0"/>
+      <c r="D192" s="0"/>
+      <c r="E192" s="0"/>
+      <c r="F192" s="0"/>
+      <c r="G192" s="0"/>
+      <c r="J192" s="0"/>
+      <c r="K192" s="0"/>
+      <c r="M192" s="0"/>
+      <c r="W192" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="X192" s="2" t="n">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0"/>
+      <c r="C193" s="0"/>
+      <c r="D193" s="0"/>
+      <c r="E193" s="0"/>
+      <c r="F193" s="0"/>
+      <c r="G193" s="0"/>
+      <c r="J193" s="0"/>
+      <c r="K193" s="0"/>
+      <c r="M193" s="0"/>
+      <c r="W193" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="X193" s="2" t="n">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0"/>
+      <c r="C194" s="0"/>
+      <c r="D194" s="0"/>
+      <c r="E194" s="0"/>
+      <c r="F194" s="0"/>
+      <c r="G194" s="0"/>
+      <c r="J194" s="0"/>
+      <c r="K194" s="0"/>
+      <c r="M194" s="0"/>
+      <c r="W194" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="X194" s="2" t="n">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0"/>
+      <c r="C195" s="0"/>
+      <c r="D195" s="0"/>
+      <c r="E195" s="0"/>
+      <c r="F195" s="0"/>
+      <c r="G195" s="0"/>
+      <c r="J195" s="0"/>
+      <c r="K195" s="0"/>
+      <c r="M195" s="0"/>
+      <c r="W195" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="X195" s="2" t="n">
+        <v>14.38</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0"/>
+      <c r="C196" s="0"/>
+      <c r="D196" s="0"/>
+      <c r="E196" s="0"/>
+      <c r="F196" s="0"/>
+      <c r="G196" s="0"/>
+      <c r="J196" s="0"/>
+      <c r="K196" s="0"/>
+      <c r="M196" s="0"/>
+      <c r="W196" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="X196" s="2" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0"/>
+      <c r="C197" s="0"/>
+      <c r="D197" s="0"/>
+      <c r="E197" s="0"/>
+      <c r="F197" s="0"/>
+      <c r="G197" s="0"/>
+      <c r="J197" s="0"/>
+      <c r="K197" s="0"/>
+      <c r="M197" s="0"/>
+      <c r="W197" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="X197" s="2" t="n">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0"/>
+      <c r="C198" s="0"/>
+      <c r="D198" s="0"/>
+      <c r="E198" s="0"/>
+      <c r="F198" s="0"/>
+      <c r="G198" s="0"/>
+      <c r="J198" s="0"/>
+      <c r="K198" s="0"/>
+      <c r="M198" s="0"/>
+      <c r="W198" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="X198" s="2" t="n">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0"/>
+      <c r="C199" s="0"/>
+      <c r="D199" s="0"/>
+      <c r="E199" s="0"/>
+      <c r="F199" s="0"/>
+      <c r="G199" s="0"/>
+      <c r="J199" s="0"/>
+      <c r="K199" s="0"/>
+      <c r="M199" s="0"/>
+      <c r="W199" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="X199" s="2" t="n">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0"/>
+      <c r="C200" s="0"/>
+      <c r="D200" s="0"/>
+      <c r="E200" s="0"/>
+      <c r="F200" s="0"/>
+      <c r="G200" s="0"/>
+      <c r="J200" s="0"/>
+      <c r="K200" s="0"/>
+      <c r="M200" s="0"/>
+      <c r="W200" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="X200" s="2" t="n">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0"/>
+      <c r="C201" s="0"/>
+      <c r="D201" s="0"/>
+      <c r="E201" s="0"/>
+      <c r="F201" s="0"/>
+      <c r="G201" s="0"/>
+      <c r="J201" s="0"/>
+      <c r="K201" s="0"/>
+      <c r="M201" s="0"/>
+      <c r="W201" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="X201" s="2" t="n">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0"/>
+      <c r="C202" s="0"/>
+      <c r="D202" s="0"/>
+      <c r="E202" s="0"/>
+      <c r="F202" s="0"/>
+      <c r="G202" s="0"/>
+      <c r="J202" s="0"/>
+      <c r="K202" s="0"/>
+      <c r="M202" s="0"/>
+      <c r="W202" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="X202" s="2" t="n">
+        <v>15.92</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0"/>
+      <c r="C203" s="0"/>
+      <c r="D203" s="0"/>
+      <c r="E203" s="0"/>
+      <c r="F203" s="0"/>
+      <c r="G203" s="0"/>
+      <c r="J203" s="0"/>
+      <c r="K203" s="0"/>
+      <c r="M203" s="0"/>
+      <c r="W203" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="X203" s="2" t="n">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0"/>
+      <c r="C204" s="0"/>
+      <c r="D204" s="0"/>
+      <c r="E204" s="0"/>
+      <c r="F204" s="0"/>
+      <c r="G204" s="0"/>
+      <c r="J204" s="0"/>
+      <c r="K204" s="0"/>
+      <c r="M204" s="0"/>
+      <c r="W204" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="X204" s="2" t="n">
+        <v>16.36</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="J205" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M205" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="W205" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="X205" s="2" t="n">
+        <v>16.58</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C206" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="W206" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="X206" s="2" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C207" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="W207" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="X207" s="2" t="n">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C208" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="W208" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="X208" s="2" t="n">
+        <v>17.24</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C209" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="W209" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="X209" s="2" t="n">
+        <v>17.46</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C210" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="W210" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="X210" s="2" t="n">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C211" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="W211" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="X211" s="2" t="n">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C212" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="W178" s="2" t="n">
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="W212" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="X178" s="2" t="n">
+      <c r="X212" s="2" t="n">
         <v>18.12</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2" t="s">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C179" s="2" t="n">
+      <c r="C213" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="W179" s="2" t="n">
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="W213" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="X179" s="2" t="n">
+      <c r="X213" s="2" t="n">
         <v>18.34</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2" t="s">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C180" s="2" t="n">
+      <c r="C214" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="W180" s="2" t="n">
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="W214" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="X180" s="2" t="n">
+      <c r="X214" s="2" t="n">
         <v>18.56</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C181" s="2" t="n">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C215" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="W181" s="2" t="n">
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="W215" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="X181" s="2" t="n">
+      <c r="X215" s="2" t="n">
         <v>18.78</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C182" s="2" t="n">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C216" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-      <c r="W182" s="2" t="n">
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="W216" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="X182" s="2" t="n">
+      <c r="X216" s="2" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C183" s="2" t="n">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C217" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="W183" s="2" t="n">
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="W217" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="X183" s="2" t="n">
+      <c r="X217" s="2" t="n">
         <v>19.22</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C184" s="2" t="n">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C218" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="W184" s="2" t="n">
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="W218" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="X184" s="2" t="n">
+      <c r="X218" s="2" t="n">
         <v>19.44</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C185" s="2" t="n">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C219" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="W185" s="2" t="n">
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="W219" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="X185" s="2" t="n">
+      <c r="X219" s="2" t="n">
         <v>19.66</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C186" s="2" t="n">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C220" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-      <c r="W186" s="2" t="n">
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="W220" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="X186" s="2" t="n">
+      <c r="X220" s="2" t="n">
         <v>19.88</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C187" s="2" t="n">
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C221" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="W187" s="2" t="n">
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="W221" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="X187" s="2" t="n">
+      <c r="X221" s="2" t="n">
         <v>20.1</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C188" s="2" t="n">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C222" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="W188" s="2" t="n">
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="W222" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="X188" s="2" t="n">
+      <c r="X222" s="2" t="n">
         <v>20.32</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C189" s="2" t="n">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C223" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="W189" s="2" t="n">
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="W223" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="X189" s="2" t="n">
+      <c r="X223" s="2" t="n">
         <v>20.54</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C190" s="2" t="n">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C224" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="W190" s="2" t="n">
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="W224" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="X190" s="2" t="n">
+      <c r="X224" s="2" t="n">
         <v>20.76</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C191" s="2" t="n">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C225" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="W191" s="2" t="n">
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="W225" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="X191" s="2" t="n">
+      <c r="X225" s="2" t="n">
         <v>20.98</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C192" s="2" t="n">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C226" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="W192" s="2" t="n">
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="W226" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="X192" s="2" t="n">
+      <c r="X226" s="2" t="n">
         <v>21.2</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="W193" s="2" t="n">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="W227" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="X193" s="2" t="n">
+      <c r="X227" s="2" t="n">
         <v>21.42</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W194" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="X194" s="2" t="n">
-        <v>21.64</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W195" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="X195" s="2" t="n">
-        <v>21.86</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W196" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="X196" s="2" t="n">
-        <v>22.08</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W197" s="2" t="n">
-        <v>104</v>
-      </c>
-      <c r="X197" s="2" t="n">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W198" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="X198" s="2" t="n">
-        <v>22.52</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W199" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="X199" s="2" t="n">
-        <v>22.74</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W200" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="X200" s="2" t="n">
-        <v>22.96</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W201" s="2" t="n">
-        <v>108</v>
-      </c>
-      <c r="X201" s="2" t="n">
-        <v>23.18</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W202" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="X202" s="2" t="n">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W203" s="2" t="n">
-        <v>110</v>
-      </c>
-      <c r="X203" s="2" t="n">
-        <v>23.62</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W204" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="X204" s="2" t="n">
-        <v>23.84</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W205" s="2" t="n">
-        <v>112</v>
-      </c>
-      <c r="X205" s="2" t="n">
-        <v>24.06</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W206" s="2" t="n">
-        <v>113</v>
-      </c>
-      <c r="X206" s="2" t="n">
-        <v>24.28</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W207" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="X207" s="2" t="n">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W208" s="2" t="n">
-        <v>115</v>
-      </c>
-      <c r="X208" s="2" t="n">
-        <v>24.72</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W209" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="X209" s="2" t="n">
-        <v>24.94</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W210" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="X210" s="2" t="n">
-        <v>25.16</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W211" s="2" t="n">
-        <v>118</v>
-      </c>
-      <c r="X211" s="2" t="n">
-        <v>25.38</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W212" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="X212" s="2" t="n">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W213" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="X213" s="2" t="n">
-        <v>25.82</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W214" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="X214" s="2" t="n">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W215" s="2" t="n">
-        <v>122</v>
-      </c>
-      <c r="X215" s="2" t="n">
-        <v>26.26</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W216" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="X216" s="2" t="n">
-        <v>26.48</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W217" s="2" t="n">
-        <v>124</v>
-      </c>
-      <c r="X217" s="2" t="n">
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W218" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="X218" s="2" t="n">
-        <v>26.92</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W219" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="X219" s="2" t="n">
-        <v>27.14</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W220" s="2" t="n">
-        <v>127</v>
-      </c>
-      <c r="X220" s="2" t="n">
-        <v>27.36</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W221" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="X221" s="2" t="n">
-        <v>27.58</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W222" s="2" t="n">
-        <v>129</v>
-      </c>
-      <c r="X222" s="2" t="n">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W223" s="2" t="n">
-        <v>130</v>
-      </c>
-      <c r="X223" s="2" t="n">
-        <v>28.02</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W224" s="2" t="n">
-        <v>131</v>
-      </c>
-      <c r="X224" s="2" t="n">
-        <v>28.24</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W225" s="2" t="n">
-        <v>132</v>
-      </c>
-      <c r="X225" s="2" t="n">
-        <v>28.46</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W226" s="2" t="n">
-        <v>133</v>
-      </c>
-      <c r="X226" s="2" t="n">
-        <v>28.68</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W227" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="X227" s="2" t="n">
-        <v>28.9</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W228" s="2" t="n">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="X228" s="2" t="n">
-        <v>29.12</v>
+        <v>21.64</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W229" s="2" t="n">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="X229" s="2" t="n">
-        <v>29.34</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W230" s="2" t="n">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="X230" s="2" t="n">
-        <v>29.56</v>
+        <v>22.08</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W231" s="2" t="n">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="X231" s="2" t="n">
-        <v>29.78</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W232" s="2" t="n">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="X232" s="2" t="n">
-        <v>30</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W233" s="2" t="n">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="X233" s="2" t="n">
-        <v>30.22</v>
+        <v>22.74</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W234" s="2" t="n">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="X234" s="2" t="n">
-        <v>30.44</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W235" s="2" t="n">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="X235" s="2" t="n">
-        <v>30.66</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W236" s="2" t="n">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="X236" s="2" t="n">
-        <v>30.88</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W237" s="2" t="n">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="X237" s="2" t="n">
-        <v>31.1</v>
+        <v>23.62</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W238" s="2" t="n">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="X238" s="2" t="n">
-        <v>31.32</v>
+        <v>23.84</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W239" s="2" t="n">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="X239" s="2" t="n">
-        <v>31.54</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W240" s="2" t="n">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="X240" s="2" t="n">
-        <v>31.76</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W241" s="2" t="n">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="X241" s="2" t="n">
-        <v>31.98</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W242" s="2" t="n">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="X242" s="2" t="n">
-        <v>32.2</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W243" s="2" t="n">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="X243" s="2" t="n">
-        <v>32.42</v>
+        <v>24.94</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W244" s="2" t="n">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="X244" s="2" t="n">
-        <v>32.64</v>
+        <v>25.16</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W245" s="2" t="n">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="X245" s="2" t="n">
-        <v>32.86</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W246" s="2" t="n">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="X246" s="2" t="n">
-        <v>33.08</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W247" s="2" t="n">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="X247" s="2" t="n">
-        <v>33.3</v>
+        <v>25.82</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W248" s="2" t="n">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="X248" s="2" t="n">
-        <v>33.52</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W249" s="2" t="n">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="X249" s="2" t="n">
-        <v>33.74</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W250" s="2" t="n">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="X250" s="2" t="n">
-        <v>33.96</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W251" s="2" t="n">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="X251" s="2" t="n">
-        <v>34.18</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W252" s="2" t="n">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="X252" s="2" t="n">
-        <v>34.4</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W253" s="2" t="n">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="X253" s="2" t="n">
-        <v>34.62</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W254" s="2" t="n">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="X254" s="2" t="n">
-        <v>34.84</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W255" s="2" t="n">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="X255" s="2" t="n">
-        <v>35.06</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W256" s="2" t="n">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="X256" s="2" t="n">
-        <v>35.28</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W257" s="2" t="n">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="X257" s="2" t="n">
-        <v>35.5</v>
+        <v>28.02</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W258" s="2" t="n">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="X258" s="2" t="n">
-        <v>35.72</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W259" s="2" t="n">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="X259" s="2" t="n">
-        <v>35.94</v>
+        <v>28.46</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W260" s="2" t="n">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="X260" s="2" t="n">
-        <v>36.16</v>
+        <v>28.68</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W261" s="2" t="n">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="X261" s="2" t="n">
-        <v>36.38</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W262" s="2" t="n">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="X262" s="2" t="n">
-        <v>36.6</v>
+        <v>29.12</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W263" s="2" t="n">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="X263" s="2" t="n">
-        <v>36.82</v>
+        <v>29.34</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W264" s="2" t="n">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="X264" s="2" t="n">
-        <v>37.04</v>
+        <v>29.56</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W265" s="2" t="n">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="X265" s="2" t="n">
-        <v>37.26</v>
+        <v>29.78</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W266" s="2" t="n">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="X266" s="2" t="n">
-        <v>37.48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W267" s="2" t="n">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="X267" s="2" t="n">
-        <v>37.7</v>
+        <v>30.22</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W268" s="2" t="n">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="X268" s="2" t="n">
-        <v>37.92</v>
+        <v>30.44</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W269" s="2" t="n">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="X269" s="2" t="n">
-        <v>38.14</v>
+        <v>30.66</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W270" s="2" t="n">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="X270" s="2" t="n">
-        <v>38.36</v>
+        <v>30.88</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W271" s="2" t="n">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="X271" s="2" t="n">
-        <v>38.58</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W272" s="2" t="n">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="X272" s="2" t="n">
-        <v>38.8</v>
+        <v>31.32</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W273" s="2" t="n">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="X273" s="2" t="n">
-        <v>39.02</v>
+        <v>31.54</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W274" s="2" t="n">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="X274" s="2" t="n">
-        <v>39.24</v>
+        <v>31.76</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W275" s="2" t="n">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="X275" s="2" t="n">
-        <v>39.46</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W276" s="2" t="n">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="X276" s="2" t="n">
-        <v>39.68</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W277" s="2" t="n">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="X277" s="2" t="n">
-        <v>39.9</v>
+        <v>32.42</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W278" s="2" t="n">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="X278" s="2" t="n">
-        <v>40.12</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W279" s="2" t="n">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="X279" s="2" t="n">
-        <v>40.34</v>
+        <v>32.86</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W280" s="2" t="n">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="X280" s="2" t="n">
-        <v>40.56</v>
+        <v>33.08</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W281" s="2" t="n">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="X281" s="2" t="n">
-        <v>40.78</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W282" s="2" t="n">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="X282" s="2" t="n">
-        <v>41</v>
+        <v>33.52</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W283" s="2" t="n">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="X283" s="2" t="n">
-        <v>41.22</v>
+        <v>33.74</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W284" s="2" t="n">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="X284" s="2" t="n">
-        <v>41.44</v>
+        <v>33.96</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W285" s="2" t="n">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="X285" s="2" t="n">
-        <v>41.66</v>
+        <v>34.18</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W286" s="2" t="n">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="X286" s="2" t="n">
-        <v>41.88</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W287" s="2" t="n">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="X287" s="2" t="n">
-        <v>42.1</v>
+        <v>34.62</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W288" s="2" t="n">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="X288" s="2" t="n">
-        <v>42.32</v>
+        <v>34.84</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W289" s="2" t="n">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="X289" s="2" t="n">
-        <v>42.54</v>
+        <v>35.06</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W290" s="2" t="n">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="X290" s="2" t="n">
-        <v>42.76</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W291" s="2" t="n">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="X291" s="2" t="n">
-        <v>42.98</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W292" s="2" t="n">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="X292" s="2" t="n">
-        <v>43.2</v>
+        <v>35.72</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W293" s="2" t="n">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="X293" s="2" t="n">
-        <v>43.42</v>
+        <v>35.94</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W294" s="2" t="n">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="X294" s="2" t="n">
-        <v>43.64</v>
+        <v>36.16</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W295" s="2" t="n">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="X295" s="2" t="n">
-        <v>43.86</v>
+        <v>36.38</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W296" s="2" t="n">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="X296" s="2" t="n">
-        <v>44.08</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W297" s="2" t="n">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="X297" s="2" t="n">
-        <v>44.3</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W298" s="2" t="n">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="X298" s="2" t="n">
-        <v>44.52</v>
+        <v>37.04</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W299" s="2" t="n">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="X299" s="2" t="n">
-        <v>44.74</v>
+        <v>37.26</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W300" s="2" t="n">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="X300" s="2" t="n">
-        <v>44.96</v>
+        <v>37.48</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W301" s="2" t="n">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="X301" s="2" t="n">
-        <v>45.18</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W302" s="2" t="n">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="X302" s="2" t="n">
-        <v>45.4</v>
+        <v>37.92</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W303" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="X303" s="2" t="n">
+        <v>38.14</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W304" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="X304" s="2" t="n">
+        <v>38.36</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W305" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="X305" s="2" t="n">
+        <v>38.58</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W306" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="X306" s="2" t="n">
+        <v>38.8</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W307" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="X307" s="2" t="n">
+        <v>39.02</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W308" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="X308" s="2" t="n">
+        <v>39.24</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W309" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="X309" s="2" t="n">
+        <v>39.46</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W310" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="X310" s="2" t="n">
+        <v>39.68</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W311" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="X311" s="2" t="n">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W312" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="X312" s="2" t="n">
+        <v>40.12</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W313" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="X313" s="2" t="n">
+        <v>40.34</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W314" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="X314" s="2" t="n">
+        <v>40.56</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W315" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="X315" s="2" t="n">
+        <v>40.78</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W316" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="X316" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W317" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="X317" s="2" t="n">
+        <v>41.22</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W318" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="X318" s="2" t="n">
+        <v>41.44</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W319" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="X319" s="2" t="n">
+        <v>41.66</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W320" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="X320" s="2" t="n">
+        <v>41.88</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W321" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="X321" s="2" t="n">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W322" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="X322" s="2" t="n">
+        <v>42.32</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W323" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="X323" s="2" t="n">
+        <v>42.54</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W324" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="X324" s="2" t="n">
+        <v>42.76</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W325" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="X325" s="2" t="n">
+        <v>42.98</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W326" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="X326" s="2" t="n">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W327" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="X327" s="2" t="n">
+        <v>43.42</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W328" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="X328" s="2" t="n">
+        <v>43.64</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W329" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="X329" s="2" t="n">
+        <v>43.86</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W330" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="X330" s="2" t="n">
+        <v>44.08</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W331" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="X331" s="2" t="n">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W332" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="X332" s="2" t="n">
+        <v>44.52</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W333" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="X333" s="2" t="n">
+        <v>44.74</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W334" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="X334" s="2" t="n">
+        <v>44.96</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W335" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="X335" s="2" t="n">
+        <v>45.18</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W336" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="X336" s="2" t="n">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W337" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="X303" s="2" t="n">
+      <c r="X337" s="2" t="n">
         <v>45.62</v>
       </c>
     </row>

--- a/Modding resources/economy spreadsheets/size_modifier.xlsx
+++ b/Modding resources/economy spreadsheets/size_modifier.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="189">
   <si>
     <t>Name</t>
   </si>
@@ -467,6 +467,27 @@
   </si>
   <si>
     <t>drc</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>turkey</t>
+  </si>
+  <si>
+    <t>uk shipyards</t>
+  </si>
+  <si>
+    <t>greece</t>
+  </si>
+  <si>
+    <t>italy shipyards and mils</t>
+  </si>
+  <si>
+    <t>taiwan add stuff</t>
   </si>
   <si>
     <t>Israel</t>
@@ -695,39 +716,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X337"/>
+  <dimension ref="A1:X343"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G133" activeCellId="0" sqref="G133"/>
+      <selection pane="bottomLeft" activeCell="B129" activeCellId="0" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.6604651162791"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.16744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.13953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.62790697674419"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="4.67441860465116"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="5.16744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="16" min="14" style="1" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="16" min="14" style="1" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.153488372093"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="4.06046511627907"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="11.446511627907"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="1" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.9348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="1" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="1" width="15.0139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5667,6 +5688,9 @@
       <c r="A129" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="B129" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="C129" s="2" t="n">
         <v>11</v>
       </c>
@@ -5984,14 +6008,27 @@
       <c r="X137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0"/>
-      <c r="C138" s="0"/>
-      <c r="D138" s="0"/>
-      <c r="E138" s="0"/>
+      <c r="A138" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="F138" s="0"/>
       <c r="G138" s="0"/>
       <c r="H138" s="0"/>
-      <c r="I138" s="0"/>
+      <c r="I138" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="J138" s="0"/>
       <c r="K138" s="0"/>
       <c r="L138" s="0"/>
@@ -6008,14 +6045,27 @@
       <c r="X138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0"/>
-      <c r="C139" s="0"/>
-      <c r="D139" s="0"/>
-      <c r="E139" s="0"/>
+      <c r="A139" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="F139" s="0"/>
       <c r="G139" s="0"/>
       <c r="H139" s="0"/>
-      <c r="I139" s="0"/>
+      <c r="I139" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="J139" s="0"/>
       <c r="K139" s="0"/>
       <c r="L139" s="0"/>
@@ -6032,14 +6082,25 @@
       <c r="X139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0"/>
-      <c r="C140" s="0"/>
-      <c r="D140" s="0"/>
-      <c r="E140" s="0"/>
+      <c r="A140" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" s="0"/>
+      <c r="C140" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="F140" s="0"/>
       <c r="G140" s="0"/>
       <c r="H140" s="0"/>
-      <c r="I140" s="0"/>
+      <c r="I140" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="J140" s="0"/>
       <c r="K140" s="0"/>
       <c r="L140" s="0"/>
@@ -6056,7 +6117,10 @@
       <c r="X140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0"/>
+      <c r="A141" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="0"/>
       <c r="C141" s="0"/>
       <c r="D141" s="0"/>
       <c r="E141" s="0"/>
@@ -6080,7 +6144,10 @@
       <c r="X141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0"/>
+      <c r="A142" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="0"/>
       <c r="C142" s="0"/>
       <c r="D142" s="0"/>
       <c r="E142" s="0"/>
@@ -6104,7 +6171,10 @@
       <c r="X142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0"/>
+      <c r="A143" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="0"/>
       <c r="C143" s="0"/>
       <c r="D143" s="0"/>
       <c r="E143" s="0"/>
@@ -6128,7 +6198,10 @@
       <c r="X143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0"/>
+      <c r="A144" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="0"/>
       <c r="C144" s="0"/>
       <c r="D144" s="0"/>
       <c r="E144" s="0"/>
@@ -6151,71 +6224,34 @@
       <c r="W144" s="0"/>
       <c r="X144" s="0"/>
     </row>
-    <row r="145" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C145" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2" t="n">
-        <v>5.65969879518072</v>
-      </c>
-      <c r="I145" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="J145" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="K145" s="2" t="n">
-        <v>170.82</v>
-      </c>
-      <c r="L145" s="2" t="n">
-        <v>0.514518072289157</v>
-      </c>
-      <c r="M145" s="4" t="n">
-        <v>332</v>
-      </c>
-      <c r="N145" s="2" t="n">
-        <v>0.00909589041095891</v>
-      </c>
-      <c r="O145" s="2" t="n">
-        <v>0.227397260273973</v>
-      </c>
-      <c r="P145" s="2" t="n">
-        <v>30.1818181818182</v>
-      </c>
-      <c r="Q145" s="2" t="n">
-        <v>0.0826899128268991</v>
-      </c>
-      <c r="R145" s="2" t="n">
-        <v>0.90958904109589</v>
-      </c>
-      <c r="T145" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="U145" s="2" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="V145" s="2" t="n">
-        <v>308.425</v>
-      </c>
-      <c r="W145" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="X145" s="2" t="n">
-        <v>3.38</v>
-      </c>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0"/>
+      <c r="B145" s="0"/>
+      <c r="C145" s="0"/>
+      <c r="D145" s="0"/>
+      <c r="E145" s="0"/>
+      <c r="F145" s="0"/>
+      <c r="G145" s="0"/>
+      <c r="H145" s="0"/>
+      <c r="I145" s="0"/>
+      <c r="J145" s="0"/>
+      <c r="K145" s="0"/>
+      <c r="L145" s="0"/>
+      <c r="M145" s="0"/>
+      <c r="N145" s="0"/>
+      <c r="O145" s="0"/>
+      <c r="P145" s="0"/>
+      <c r="Q145" s="0"/>
+      <c r="R145" s="0"/>
+      <c r="T145" s="0"/>
+      <c r="U145" s="0"/>
+      <c r="V145" s="0"/>
+      <c r="W145" s="0"/>
+      <c r="X145" s="0"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0"/>
+      <c r="B146" s="0"/>
       <c r="C146" s="0"/>
       <c r="D146" s="0"/>
       <c r="E146" s="0"/>
@@ -6238,71 +6274,34 @@
       <c r="W146" s="0"/>
       <c r="X146" s="0"/>
     </row>
-    <row r="147" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C147" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2" t="n">
-        <v>3.20712430426716</v>
-      </c>
-      <c r="I147" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J147" s="2" t="n">
-        <v>148</v>
-      </c>
-      <c r="K147" s="2" t="n">
-        <v>216.08</v>
-      </c>
-      <c r="L147" s="2" t="n">
-        <v>0.400890538033395</v>
-      </c>
-      <c r="M147" s="4" t="n">
-        <v>539</v>
-      </c>
-      <c r="N147" s="2" t="n">
-        <v>0.0147671232876712</v>
-      </c>
-      <c r="O147" s="2" t="n">
-        <v>0.369178082191781</v>
-      </c>
-      <c r="P147" s="2" t="n">
-        <v>67.375</v>
-      </c>
-      <c r="Q147" s="2" t="n">
-        <v>0.18458904109589</v>
-      </c>
-      <c r="R147" s="2" t="n">
-        <v>1.47671232876712</v>
-      </c>
-      <c r="T147" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="U147" s="2" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="V147" s="2" t="n">
-        <v>348.575</v>
-      </c>
-      <c r="W147" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="X147" s="2" t="n">
-        <v>3.82</v>
-      </c>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0"/>
+      <c r="B147" s="0"/>
+      <c r="C147" s="0"/>
+      <c r="D147" s="0"/>
+      <c r="E147" s="0"/>
+      <c r="F147" s="0"/>
+      <c r="G147" s="0"/>
+      <c r="H147" s="0"/>
+      <c r="I147" s="0"/>
+      <c r="J147" s="0"/>
+      <c r="K147" s="0"/>
+      <c r="L147" s="0"/>
+      <c r="M147" s="0"/>
+      <c r="N147" s="0"/>
+      <c r="O147" s="0"/>
+      <c r="P147" s="0"/>
+      <c r="Q147" s="0"/>
+      <c r="R147" s="0"/>
+      <c r="T147" s="0"/>
+      <c r="U147" s="0"/>
+      <c r="V147" s="0"/>
+      <c r="W147" s="0"/>
+      <c r="X147" s="0"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0"/>
+      <c r="B148" s="0"/>
       <c r="C148" s="0"/>
       <c r="D148" s="0"/>
       <c r="E148" s="0"/>
@@ -6325,71 +6324,34 @@
       <c r="W148" s="0"/>
       <c r="X148" s="0"/>
     </row>
-    <row r="149" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C149" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2" t="n">
-        <v>3.69359877488515</v>
-      </c>
-      <c r="I149" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J149" s="2" t="n">
-        <v>236</v>
-      </c>
-      <c r="K149" s="2" t="n">
-        <v>344.56</v>
-      </c>
-      <c r="L149" s="2" t="n">
-        <v>0.527656967840735</v>
-      </c>
-      <c r="M149" s="4" t="n">
-        <v>653</v>
-      </c>
-      <c r="N149" s="2" t="n">
-        <v>0.0178904109589041</v>
-      </c>
-      <c r="O149" s="2" t="n">
-        <v>0.447260273972603</v>
-      </c>
-      <c r="P149" s="2" t="n">
-        <v>93.2857142857143</v>
-      </c>
-      <c r="Q149" s="2" t="n">
-        <v>0.255577299412916</v>
-      </c>
-      <c r="R149" s="2" t="n">
-        <v>1.78904109589041</v>
-      </c>
-      <c r="T149" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="U149" s="2" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="V149" s="2" t="n">
-        <v>388.725</v>
-      </c>
-      <c r="W149" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="X149" s="2" t="n">
-        <v>4.26</v>
-      </c>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0"/>
+      <c r="B149" s="0"/>
+      <c r="C149" s="0"/>
+      <c r="D149" s="0"/>
+      <c r="E149" s="0"/>
+      <c r="F149" s="0"/>
+      <c r="G149" s="0"/>
+      <c r="H149" s="0"/>
+      <c r="I149" s="0"/>
+      <c r="J149" s="0"/>
+      <c r="K149" s="0"/>
+      <c r="L149" s="0"/>
+      <c r="M149" s="0"/>
+      <c r="N149" s="0"/>
+      <c r="O149" s="0"/>
+      <c r="P149" s="0"/>
+      <c r="Q149" s="0"/>
+      <c r="R149" s="0"/>
+      <c r="T149" s="0"/>
+      <c r="U149" s="0"/>
+      <c r="V149" s="0"/>
+      <c r="W149" s="0"/>
+      <c r="X149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0"/>
+      <c r="B150" s="0"/>
       <c r="C150" s="0"/>
       <c r="D150" s="0"/>
       <c r="E150" s="0"/>
@@ -6414,156 +6376,158 @@
     </row>
     <row r="151" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2" t="n">
-        <v>3.17172413793103</v>
+        <v>5.65969879518072</v>
       </c>
       <c r="I151" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J151" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="K151" s="2" t="n">
+        <v>170.82</v>
+      </c>
+      <c r="L151" s="2" t="n">
+        <v>0.514518072289157</v>
+      </c>
+      <c r="M151" s="4" t="n">
+        <v>332</v>
+      </c>
+      <c r="N151" s="2" t="n">
+        <v>0.00909589041095891</v>
+      </c>
+      <c r="O151" s="2" t="n">
+        <v>0.227397260273973</v>
+      </c>
+      <c r="P151" s="2" t="n">
+        <v>30.1818181818182</v>
+      </c>
+      <c r="Q151" s="2" t="n">
+        <v>0.0826899128268991</v>
+      </c>
+      <c r="R151" s="2" t="n">
+        <v>0.90958904109589</v>
+      </c>
+      <c r="T151" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="U151" s="2" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="V151" s="2" t="n">
+        <v>308.425</v>
+      </c>
+      <c r="W151" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="X151" s="2" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0"/>
+      <c r="B152" s="0"/>
+      <c r="C152" s="0"/>
+      <c r="D152" s="0"/>
+      <c r="E152" s="0"/>
+      <c r="F152" s="0"/>
+      <c r="G152" s="0"/>
+      <c r="H152" s="0"/>
+      <c r="I152" s="0"/>
+      <c r="J152" s="0"/>
+      <c r="K152" s="0"/>
+      <c r="L152" s="0"/>
+      <c r="M152" s="0"/>
+      <c r="N152" s="0"/>
+      <c r="O152" s="0"/>
+      <c r="P152" s="0"/>
+      <c r="Q152" s="0"/>
+      <c r="R152" s="0"/>
+      <c r="T152" s="0"/>
+      <c r="U152" s="0"/>
+      <c r="V152" s="0"/>
+      <c r="W152" s="0"/>
+      <c r="X152" s="0"/>
+    </row>
+    <row r="153" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2" t="n">
+        <v>3.20712430426716</v>
+      </c>
+      <c r="I153" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="J151" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="K151" s="2" t="n">
-        <v>144.54</v>
-      </c>
-      <c r="L151" s="2" t="n">
-        <v>0.453103448275862</v>
-      </c>
-      <c r="M151" s="4" t="n">
-        <v>319</v>
-      </c>
-      <c r="N151" s="2" t="n">
-        <v>0.00873972602739726</v>
-      </c>
-      <c r="O151" s="2" t="n">
-        <v>0.218493150684931</v>
-      </c>
-      <c r="P151" s="2" t="n">
-        <v>45.5714285714286</v>
-      </c>
-      <c r="Q151" s="2" t="n">
-        <v>0.124853228962818</v>
-      </c>
-      <c r="R151" s="2" t="n">
-        <v>0.873972602739726</v>
-      </c>
-      <c r="T151" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="U151" s="2" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="V151" s="2" t="n">
-        <v>428.875</v>
-      </c>
-      <c r="W151" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="X151" s="2" t="n">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C152" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2" t="n">
-        <v>2.65275908479139</v>
-      </c>
-      <c r="I152" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J152" s="2" t="n">
-        <v>225</v>
-      </c>
-      <c r="K152" s="2" t="n">
-        <v>328.5</v>
-      </c>
-      <c r="L152" s="2" t="n">
-        <v>0.442126514131898</v>
-      </c>
-      <c r="M152" s="2" t="n">
-        <v>743</v>
-      </c>
-      <c r="N152" s="2" t="n">
-        <v>0.0203561643835616</v>
-      </c>
-      <c r="O152" s="2" t="n">
-        <v>0.508904109589041</v>
-      </c>
-      <c r="P152" s="2" t="n">
-        <v>123.833333333333</v>
-      </c>
-      <c r="Q152" s="2" t="n">
-        <v>0.339269406392694</v>
-      </c>
-      <c r="R152" s="2" t="n">
-        <v>2.03561643835616</v>
-      </c>
-      <c r="T152" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="U152" s="2" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="V152" s="2" t="n">
-        <v>448.95</v>
-      </c>
-      <c r="W152" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="X152" s="2" t="n">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0"/>
-      <c r="C153" s="0"/>
-      <c r="D153" s="0"/>
-      <c r="E153" s="0"/>
-      <c r="F153" s="0"/>
-      <c r="G153" s="0"/>
-      <c r="H153" s="0"/>
-      <c r="I153" s="0"/>
-      <c r="J153" s="0"/>
-      <c r="K153" s="0"/>
-      <c r="L153" s="0"/>
-      <c r="M153" s="0"/>
-      <c r="N153" s="0"/>
-      <c r="O153" s="0"/>
-      <c r="P153" s="0"/>
-      <c r="Q153" s="0"/>
-      <c r="R153" s="0"/>
-      <c r="T153" s="0"/>
-      <c r="U153" s="0"/>
-      <c r="V153" s="0"/>
-      <c r="W153" s="0"/>
-      <c r="X153" s="0"/>
+      <c r="J153" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="K153" s="2" t="n">
+        <v>216.08</v>
+      </c>
+      <c r="L153" s="2" t="n">
+        <v>0.400890538033395</v>
+      </c>
+      <c r="M153" s="4" t="n">
+        <v>539</v>
+      </c>
+      <c r="N153" s="2" t="n">
+        <v>0.0147671232876712</v>
+      </c>
+      <c r="O153" s="2" t="n">
+        <v>0.369178082191781</v>
+      </c>
+      <c r="P153" s="2" t="n">
+        <v>67.375</v>
+      </c>
+      <c r="Q153" s="2" t="n">
+        <v>0.18458904109589</v>
+      </c>
+      <c r="R153" s="2" t="n">
+        <v>1.47671232876712</v>
+      </c>
+      <c r="T153" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="U153" s="2" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="V153" s="2" t="n">
+        <v>348.575</v>
+      </c>
+      <c r="W153" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="X153" s="2" t="n">
+        <v>3.82</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0"/>
+      <c r="B154" s="0"/>
       <c r="C154" s="0"/>
       <c r="D154" s="0"/>
       <c r="E154" s="0"/>
@@ -6586,208 +6550,218 @@
       <c r="W154" s="0"/>
       <c r="X154" s="0"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0"/>
-      <c r="C155" s="0"/>
-      <c r="D155" s="0"/>
-      <c r="E155" s="0"/>
-      <c r="F155" s="0"/>
-      <c r="G155" s="0"/>
-      <c r="H155" s="0"/>
-      <c r="I155" s="0"/>
-      <c r="J155" s="0"/>
-      <c r="K155" s="0"/>
-      <c r="L155" s="0"/>
-      <c r="M155" s="0"/>
-      <c r="N155" s="0"/>
-      <c r="O155" s="0"/>
-      <c r="P155" s="0"/>
-      <c r="Q155" s="0"/>
-      <c r="R155" s="0"/>
-      <c r="T155" s="0"/>
-      <c r="U155" s="0"/>
-      <c r="V155" s="0"/>
-      <c r="W155" s="0"/>
-      <c r="X155" s="0"/>
+    <row r="155" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2" t="n">
+        <v>3.69359877488515</v>
+      </c>
+      <c r="I155" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J155" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="K155" s="2" t="n">
+        <v>344.56</v>
+      </c>
+      <c r="L155" s="2" t="n">
+        <v>0.527656967840735</v>
+      </c>
+      <c r="M155" s="4" t="n">
+        <v>653</v>
+      </c>
+      <c r="N155" s="2" t="n">
+        <v>0.0178904109589041</v>
+      </c>
+      <c r="O155" s="2" t="n">
+        <v>0.447260273972603</v>
+      </c>
+      <c r="P155" s="2" t="n">
+        <v>93.2857142857143</v>
+      </c>
+      <c r="Q155" s="2" t="n">
+        <v>0.255577299412916</v>
+      </c>
+      <c r="R155" s="2" t="n">
+        <v>1.78904109589041</v>
+      </c>
+      <c r="T155" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="U155" s="2" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="V155" s="2" t="n">
+        <v>388.725</v>
+      </c>
+      <c r="W155" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="X155" s="2" t="n">
+        <v>4.26</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C156" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2" t="n">
-        <v>1.2155023923445</v>
-      </c>
-      <c r="I156" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J156" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="K156" s="2" t="n">
-        <v>42.34</v>
-      </c>
-      <c r="L156" s="2" t="n">
-        <v>0.202583732057416</v>
-      </c>
-      <c r="M156" s="2" t="n">
-        <v>209</v>
-      </c>
-      <c r="N156" s="2" t="n">
-        <v>0.00572602739726027</v>
-      </c>
-      <c r="O156" s="2" t="n">
-        <v>0.143150684931507</v>
-      </c>
-      <c r="P156" s="2" t="n">
-        <v>34.8333333333333</v>
-      </c>
-      <c r="Q156" s="2" t="n">
-        <v>0.0954337899543379</v>
-      </c>
-      <c r="R156" s="2" t="n">
-        <v>0.572602739726027</v>
-      </c>
-      <c r="T156" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="U156" s="2" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="V156" s="2" t="n">
-        <v>529.25</v>
-      </c>
-      <c r="W156" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="X156" s="2" t="n">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0"/>
+      <c r="B156" s="0"/>
+      <c r="C156" s="0"/>
+      <c r="D156" s="0"/>
+      <c r="E156" s="0"/>
+      <c r="F156" s="0"/>
+      <c r="G156" s="0"/>
+      <c r="H156" s="0"/>
+      <c r="I156" s="0"/>
+      <c r="J156" s="0"/>
+      <c r="K156" s="0"/>
+      <c r="L156" s="0"/>
+      <c r="M156" s="0"/>
+      <c r="N156" s="0"/>
+      <c r="O156" s="0"/>
+      <c r="P156" s="0"/>
+      <c r="Q156" s="0"/>
+      <c r="R156" s="0"/>
+      <c r="T156" s="0"/>
+      <c r="U156" s="0"/>
+      <c r="V156" s="0"/>
+      <c r="W156" s="0"/>
+      <c r="X156" s="0"/>
+    </row>
+    <row r="157" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2" t="n">
-        <v>1.6504347826087</v>
+        <v>3.17172413793103</v>
       </c>
       <c r="I157" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J157" s="2" t="n">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="K157" s="2" t="n">
-        <v>75.92</v>
+        <v>144.54</v>
       </c>
       <c r="L157" s="2" t="n">
-        <v>0.412608695652174</v>
-      </c>
-      <c r="M157" s="2" t="n">
-        <v>184</v>
+        <v>0.453103448275862</v>
+      </c>
+      <c r="M157" s="4" t="n">
+        <v>319</v>
       </c>
       <c r="N157" s="2" t="n">
-        <v>0.00504109589041096</v>
+        <v>0.00873972602739726</v>
       </c>
       <c r="O157" s="2" t="n">
-        <v>0.126027397260274</v>
+        <v>0.218493150684931</v>
       </c>
       <c r="P157" s="2" t="n">
-        <v>46</v>
+        <v>45.5714285714286</v>
       </c>
       <c r="Q157" s="2" t="n">
-        <v>0.126027397260274</v>
+        <v>0.124853228962818</v>
       </c>
       <c r="R157" s="2" t="n">
-        <v>0.504109589041096</v>
+        <v>0.873972602739726</v>
       </c>
       <c r="T157" s="2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="U157" s="2" t="n">
-        <v>6.02</v>
+        <v>4.7</v>
       </c>
       <c r="V157" s="2" t="n">
-        <v>549.325</v>
+        <v>428.875</v>
       </c>
       <c r="W157" s="2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="X157" s="2" t="n">
-        <v>6.02</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2" t="n">
-        <v>1.21393258426966</v>
+        <v>2.65275908479139</v>
       </c>
       <c r="I158" s="2" t="n">
         <v>2</v>
       </c>
       <c r="J158" s="2" t="n">
-        <v>37</v>
+        <v>225</v>
       </c>
       <c r="K158" s="2" t="n">
-        <v>54.02</v>
+        <v>328.5</v>
       </c>
       <c r="L158" s="2" t="n">
-        <v>0.303483146067416</v>
-      </c>
-      <c r="M158" s="4" t="n">
-        <v>178</v>
+        <v>0.442126514131898</v>
+      </c>
+      <c r="M158" s="2" t="n">
+        <v>743</v>
       </c>
       <c r="N158" s="2" t="n">
-        <v>0.00487671232876712</v>
+        <v>0.0203561643835616</v>
       </c>
       <c r="O158" s="2" t="n">
-        <v>0.121917808219178</v>
+        <v>0.508904109589041</v>
       </c>
       <c r="P158" s="2" t="n">
-        <v>44.5</v>
+        <v>123.833333333333</v>
       </c>
       <c r="Q158" s="2" t="n">
-        <v>0.121917808219178</v>
+        <v>0.339269406392694</v>
       </c>
       <c r="R158" s="2" t="n">
-        <v>0.487671232876712</v>
+        <v>2.03561643835616</v>
       </c>
       <c r="T158" s="2" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="U158" s="2" t="n">
-        <v>6.24</v>
+        <v>4.92</v>
       </c>
       <c r="V158" s="2" t="n">
-        <v>569.4</v>
+        <v>448.95</v>
       </c>
       <c r="W158" s="2" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="X158" s="2" t="n">
-        <v>6.24</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6815,267 +6789,231 @@
       <c r="X159" s="0"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C160" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2" t="n">
-        <v>0.929090909090909</v>
-      </c>
-      <c r="I160" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="K160" s="2" t="n">
-        <v>30.66</v>
-      </c>
-      <c r="L160" s="2" t="n">
-        <v>0.30969696969697</v>
-      </c>
-      <c r="M160" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="N160" s="2" t="n">
-        <v>0.00271232876712329</v>
-      </c>
-      <c r="O160" s="2" t="n">
-        <v>0.0678082191780822</v>
-      </c>
-      <c r="P160" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q160" s="2" t="n">
-        <v>0.0904109589041096</v>
-      </c>
-      <c r="R160" s="2" t="n">
-        <v>0.271232876712329</v>
-      </c>
-      <c r="T160" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="U160" s="2" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="V160" s="2" t="n">
-        <v>609.55</v>
-      </c>
-      <c r="W160" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="X160" s="2" t="n">
-        <v>6.68</v>
-      </c>
+      <c r="A160" s="0"/>
+      <c r="C160" s="0"/>
+      <c r="D160" s="0"/>
+      <c r="E160" s="0"/>
+      <c r="F160" s="0"/>
+      <c r="G160" s="0"/>
+      <c r="H160" s="0"/>
+      <c r="I160" s="0"/>
+      <c r="J160" s="0"/>
+      <c r="K160" s="0"/>
+      <c r="L160" s="0"/>
+      <c r="M160" s="0"/>
+      <c r="N160" s="0"/>
+      <c r="O160" s="0"/>
+      <c r="P160" s="0"/>
+      <c r="Q160" s="0"/>
+      <c r="R160" s="0"/>
+      <c r="T160" s="0"/>
+      <c r="U160" s="0"/>
+      <c r="V160" s="0"/>
+      <c r="W160" s="0"/>
+      <c r="X160" s="0"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C161" s="2" t="n">
+      <c r="A161" s="0"/>
+      <c r="C161" s="0"/>
+      <c r="D161" s="0"/>
+      <c r="E161" s="0"/>
+      <c r="F161" s="0"/>
+      <c r="G161" s="0"/>
+      <c r="H161" s="0"/>
+      <c r="I161" s="0"/>
+      <c r="J161" s="0"/>
+      <c r="K161" s="0"/>
+      <c r="L161" s="0"/>
+      <c r="M161" s="0"/>
+      <c r="N161" s="0"/>
+      <c r="O161" s="0"/>
+      <c r="P161" s="0"/>
+      <c r="Q161" s="0"/>
+      <c r="R161" s="0"/>
+      <c r="T161" s="0"/>
+      <c r="U161" s="0"/>
+      <c r="V161" s="0"/>
+      <c r="W161" s="0"/>
+      <c r="X161" s="0"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2" t="n">
+        <v>1.2155023923445</v>
+      </c>
+      <c r="I162" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2" t="n">
-        <v>0.925853658536585</v>
-      </c>
-      <c r="I161" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="K161" s="2" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="L161" s="2" t="n">
-        <v>0.462926829268293</v>
-      </c>
-      <c r="M161" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="N161" s="2" t="n">
-        <v>0.00112328767123288</v>
-      </c>
-      <c r="O161" s="2" t="n">
-        <v>0.0280821917808219</v>
-      </c>
-      <c r="P161" s="2" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="Q161" s="2" t="n">
-        <v>0.0561643835616438</v>
-      </c>
-      <c r="R161" s="2" t="n">
-        <v>0.112328767123288</v>
-      </c>
-      <c r="T161" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="U161" s="2" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="V161" s="2" t="n">
-        <v>629.625</v>
-      </c>
-      <c r="W161" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="X161" s="2" t="n">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0"/>
-      <c r="C162" s="0"/>
-      <c r="D162" s="0"/>
-      <c r="E162" s="0"/>
-      <c r="F162" s="0"/>
-      <c r="G162" s="0"/>
-      <c r="H162" s="0"/>
-      <c r="I162" s="0"/>
-      <c r="J162" s="0"/>
-      <c r="K162" s="0"/>
-      <c r="L162" s="0"/>
-      <c r="M162" s="0"/>
-      <c r="N162" s="0"/>
-      <c r="O162" s="0"/>
-      <c r="P162" s="0"/>
-      <c r="Q162" s="0"/>
-      <c r="R162" s="0"/>
-      <c r="T162" s="0"/>
-      <c r="U162" s="0"/>
-      <c r="V162" s="0"/>
-      <c r="W162" s="0"/>
-      <c r="X162" s="0"/>
+      <c r="J162" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="K162" s="2" t="n">
+        <v>42.34</v>
+      </c>
+      <c r="L162" s="2" t="n">
+        <v>0.202583732057416</v>
+      </c>
+      <c r="M162" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="N162" s="2" t="n">
+        <v>0.00572602739726027</v>
+      </c>
+      <c r="O162" s="2" t="n">
+        <v>0.143150684931507</v>
+      </c>
+      <c r="P162" s="2" t="n">
+        <v>34.8333333333333</v>
+      </c>
+      <c r="Q162" s="2" t="n">
+        <v>0.0954337899543379</v>
+      </c>
+      <c r="R162" s="2" t="n">
+        <v>0.572602739726027</v>
+      </c>
+      <c r="T162" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="U162" s="2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="V162" s="2" t="n">
+        <v>529.25</v>
+      </c>
+      <c r="W162" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="X162" s="2" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2" t="n">
-        <v>1.21666666666667</v>
+        <v>1.6504347826087</v>
       </c>
       <c r="I163" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J163" s="2" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K163" s="2" t="n">
-        <v>36.5</v>
+        <v>75.92</v>
       </c>
       <c r="L163" s="2" t="n">
-        <v>1.21666666666667</v>
+        <v>0.412608695652174</v>
       </c>
       <c r="M163" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="N163" s="2" t="n">
+        <v>0.00504109589041096</v>
+      </c>
+      <c r="O163" s="2" t="n">
+        <v>0.126027397260274</v>
+      </c>
+      <c r="P163" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q163" s="2" t="n">
+        <v>0.126027397260274</v>
+      </c>
+      <c r="R163" s="2" t="n">
+        <v>0.504109589041096</v>
+      </c>
+      <c r="T163" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="N163" s="2" t="n">
-        <v>0.000821917808219178</v>
-      </c>
-      <c r="O163" s="2" t="n">
-        <v>0.0205479452054794</v>
-      </c>
-      <c r="P163" s="2" t="n">
+      <c r="U163" s="2" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="V163" s="2" t="n">
+        <v>549.325</v>
+      </c>
+      <c r="W163" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="Q163" s="2" t="n">
-        <v>0.0821917808219178</v>
-      </c>
-      <c r="R163" s="2" t="n">
-        <v>0.0821917808219178</v>
-      </c>
-      <c r="T163" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="U163" s="2" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="V163" s="2" t="n">
-        <v>669.775</v>
-      </c>
-      <c r="W163" s="2" t="n">
-        <v>36</v>
-      </c>
       <c r="X163" s="2" t="n">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2" t="n">
-        <v>0.297959183673469</v>
+        <v>1.21393258426966</v>
       </c>
       <c r="I164" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164" s="2" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="K164" s="2" t="n">
-        <v>14.6</v>
+        <v>54.02</v>
       </c>
       <c r="L164" s="2" t="n">
-        <v>0.297959183673469</v>
-      </c>
-      <c r="M164" s="2" t="n">
-        <v>49</v>
+        <v>0.303483146067416</v>
+      </c>
+      <c r="M164" s="4" t="n">
+        <v>178</v>
       </c>
       <c r="N164" s="2" t="n">
-        <v>0.00134246575342466</v>
+        <v>0.00487671232876712</v>
       </c>
       <c r="O164" s="2" t="n">
-        <v>0.0335616438356164</v>
+        <v>0.121917808219178</v>
       </c>
       <c r="P164" s="2" t="n">
-        <v>49</v>
+        <v>44.5</v>
       </c>
       <c r="Q164" s="2" t="n">
-        <v>0.134246575342466</v>
+        <v>0.121917808219178</v>
       </c>
       <c r="R164" s="2" t="n">
-        <v>0.134246575342466</v>
+        <v>0.487671232876712</v>
       </c>
       <c r="T164" s="2" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U164" s="2" t="n">
-        <v>7.56</v>
+        <v>6.24</v>
       </c>
       <c r="V164" s="2" t="n">
-        <v>689.85</v>
+        <v>569.4</v>
       </c>
       <c r="W164" s="2" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="X164" s="2" t="n">
-        <v>7.56</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7085,75 +7023,141 @@
       <c r="E165" s="0"/>
       <c r="F165" s="0"/>
       <c r="G165" s="0"/>
+      <c r="H165" s="0"/>
+      <c r="I165" s="0"/>
       <c r="J165" s="0"/>
       <c r="K165" s="0"/>
+      <c r="L165" s="0"/>
       <c r="M165" s="0"/>
-      <c r="T165" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="U165" s="2" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="V165" s="2" t="n">
-        <v>709.925</v>
-      </c>
-      <c r="W165" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="X165" s="2" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="N165" s="0"/>
+      <c r="O165" s="0"/>
+      <c r="P165" s="0"/>
+      <c r="Q165" s="0"/>
+      <c r="R165" s="0"/>
+      <c r="T165" s="0"/>
+      <c r="U165" s="0"/>
+      <c r="V165" s="0"/>
+      <c r="W165" s="0"/>
+      <c r="X165" s="0"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0"/>
-      <c r="C166" s="0"/>
-      <c r="D166" s="0"/>
-      <c r="E166" s="0"/>
-      <c r="F166" s="0"/>
-      <c r="G166" s="0"/>
-      <c r="J166" s="0"/>
-      <c r="K166" s="0"/>
-      <c r="M166" s="0"/>
+      <c r="A166" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2" t="n">
+        <v>0.929090909090909</v>
+      </c>
+      <c r="I166" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="K166" s="2" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="L166" s="2" t="n">
+        <v>0.30969696969697</v>
+      </c>
+      <c r="M166" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="N166" s="2" t="n">
+        <v>0.00271232876712329</v>
+      </c>
+      <c r="O166" s="2" t="n">
+        <v>0.0678082191780822</v>
+      </c>
+      <c r="P166" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q166" s="2" t="n">
+        <v>0.0904109589041096</v>
+      </c>
+      <c r="R166" s="2" t="n">
+        <v>0.271232876712329</v>
+      </c>
       <c r="T166" s="2" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U166" s="2" t="n">
-        <v>8</v>
+        <v>6.68</v>
       </c>
       <c r="V166" s="2" t="n">
-        <v>730</v>
+        <v>609.55</v>
       </c>
       <c r="W166" s="2" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="X166" s="2" t="n">
-        <v>8</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0"/>
-      <c r="C167" s="0"/>
-      <c r="D167" s="0"/>
-      <c r="E167" s="0"/>
-      <c r="F167" s="0"/>
-      <c r="G167" s="0"/>
-      <c r="J167" s="0"/>
-      <c r="K167" s="0"/>
-      <c r="M167" s="0"/>
+      <c r="A167" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2" t="n">
+        <v>0.925853658536585</v>
+      </c>
+      <c r="I167" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="K167" s="2" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="L167" s="2" t="n">
+        <v>0.462926829268293</v>
+      </c>
+      <c r="M167" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="N167" s="2" t="n">
+        <v>0.00112328767123288</v>
+      </c>
+      <c r="O167" s="2" t="n">
+        <v>0.0280821917808219</v>
+      </c>
+      <c r="P167" s="2" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q167" s="2" t="n">
+        <v>0.0561643835616438</v>
+      </c>
+      <c r="R167" s="2" t="n">
+        <v>0.112328767123288</v>
+      </c>
       <c r="T167" s="2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="U167" s="2" t="n">
-        <v>8.22</v>
+        <v>6.9</v>
       </c>
       <c r="V167" s="2" t="n">
-        <v>750.075</v>
+        <v>629.625</v>
       </c>
       <c r="W167" s="2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="X167" s="2" t="n">
-        <v>8.22</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7163,75 +7167,141 @@
       <c r="E168" s="0"/>
       <c r="F168" s="0"/>
       <c r="G168" s="0"/>
+      <c r="H168" s="0"/>
+      <c r="I168" s="0"/>
       <c r="J168" s="0"/>
       <c r="K168" s="0"/>
+      <c r="L168" s="0"/>
       <c r="M168" s="0"/>
-      <c r="T168" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="U168" s="2" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="V168" s="2" t="n">
-        <v>850.45</v>
-      </c>
-      <c r="W168" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="X168" s="2" t="n">
-        <v>8.44</v>
-      </c>
+      <c r="N168" s="0"/>
+      <c r="O168" s="0"/>
+      <c r="P168" s="0"/>
+      <c r="Q168" s="0"/>
+      <c r="R168" s="0"/>
+      <c r="T168" s="0"/>
+      <c r="U168" s="0"/>
+      <c r="V168" s="0"/>
+      <c r="W168" s="0"/>
+      <c r="X168" s="0"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0"/>
-      <c r="C169" s="0"/>
-      <c r="D169" s="0"/>
-      <c r="E169" s="0"/>
-      <c r="F169" s="0"/>
-      <c r="G169" s="0"/>
-      <c r="J169" s="0"/>
-      <c r="K169" s="0"/>
-      <c r="M169" s="0"/>
+      <c r="A169" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2" t="n">
+        <v>1.21666666666667</v>
+      </c>
+      <c r="I169" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J169" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K169" s="2" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L169" s="2" t="n">
+        <v>1.21666666666667</v>
+      </c>
+      <c r="M169" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="N169" s="2" t="n">
+        <v>0.000821917808219178</v>
+      </c>
+      <c r="O169" s="2" t="n">
+        <v>0.0205479452054794</v>
+      </c>
+      <c r="P169" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q169" s="2" t="n">
+        <v>0.0821917808219178</v>
+      </c>
+      <c r="R169" s="2" t="n">
+        <v>0.0821917808219178</v>
+      </c>
       <c r="T169" s="2" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="U169" s="2" t="n">
-        <v>10.42</v>
+        <v>7.34</v>
       </c>
       <c r="V169" s="2" t="n">
-        <v>950.825</v>
+        <v>669.775</v>
       </c>
       <c r="W169" s="2" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="X169" s="2" t="n">
-        <v>8.66</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0"/>
-      <c r="C170" s="0"/>
-      <c r="D170" s="0"/>
-      <c r="E170" s="0"/>
-      <c r="F170" s="0"/>
-      <c r="G170" s="0"/>
-      <c r="J170" s="0"/>
-      <c r="K170" s="0"/>
-      <c r="M170" s="0"/>
+      <c r="A170" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2" t="n">
+        <v>0.297959183673469</v>
+      </c>
+      <c r="I170" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K170" s="2" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L170" s="2" t="n">
+        <v>0.297959183673469</v>
+      </c>
+      <c r="M170" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="N170" s="2" t="n">
+        <v>0.00134246575342466</v>
+      </c>
+      <c r="O170" s="2" t="n">
+        <v>0.0335616438356164</v>
+      </c>
+      <c r="P170" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q170" s="2" t="n">
+        <v>0.134246575342466</v>
+      </c>
+      <c r="R170" s="2" t="n">
+        <v>0.134246575342466</v>
+      </c>
       <c r="T170" s="2" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="U170" s="2" t="n">
-        <v>11.52</v>
+        <v>7.56</v>
       </c>
       <c r="V170" s="2" t="n">
-        <v>1051.2</v>
+        <v>689.85</v>
       </c>
       <c r="W170" s="2" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="X170" s="2" t="n">
-        <v>8.88</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7245,19 +7315,19 @@
       <c r="K171" s="0"/>
       <c r="M171" s="0"/>
       <c r="T171" s="2" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="U171" s="2" t="n">
-        <v>12.62</v>
+        <v>7.78</v>
       </c>
       <c r="V171" s="2" t="n">
-        <v>1151.575</v>
+        <v>709.925</v>
       </c>
       <c r="W171" s="2" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="X171" s="2" t="n">
-        <v>9.1</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7271,19 +7341,19 @@
       <c r="K172" s="0"/>
       <c r="M172" s="0"/>
       <c r="T172" s="2" t="n">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="U172" s="2" t="n">
-        <v>13.72</v>
+        <v>8</v>
       </c>
       <c r="V172" s="2" t="n">
-        <v>1251.95</v>
+        <v>730</v>
       </c>
       <c r="W172" s="2" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="X172" s="2" t="n">
-        <v>9.32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7297,19 +7367,19 @@
       <c r="K173" s="0"/>
       <c r="M173" s="0"/>
       <c r="T173" s="2" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="U173" s="2" t="n">
-        <v>14.82</v>
+        <v>8.22</v>
       </c>
       <c r="V173" s="2" t="n">
-        <v>1352.325</v>
+        <v>750.075</v>
       </c>
       <c r="W173" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="X173" s="2" t="n">
-        <v>9.54</v>
+        <v>8.22</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7323,19 +7393,19 @@
       <c r="K174" s="0"/>
       <c r="M174" s="0"/>
       <c r="T174" s="2" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="U174" s="2" t="n">
-        <v>15.92</v>
+        <v>9.32</v>
       </c>
       <c r="V174" s="2" t="n">
-        <v>1452.7</v>
+        <v>850.45</v>
       </c>
       <c r="W174" s="2" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="X174" s="2" t="n">
-        <v>9.76</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7349,19 +7419,19 @@
       <c r="K175" s="0"/>
       <c r="M175" s="0"/>
       <c r="T175" s="2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="U175" s="2" t="n">
-        <v>17.02</v>
+        <v>10.42</v>
       </c>
       <c r="V175" s="2" t="n">
-        <v>1553.075</v>
+        <v>950.825</v>
       </c>
       <c r="W175" s="2" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="X175" s="2" t="n">
-        <v>9.98</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7375,25 +7445,23 @@
       <c r="K176" s="0"/>
       <c r="M176" s="0"/>
       <c r="T176" s="2" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="U176" s="2" t="n">
-        <v>18.12</v>
+        <v>11.52</v>
       </c>
       <c r="V176" s="2" t="n">
-        <v>1653.45</v>
+        <v>1051.2</v>
       </c>
       <c r="W176" s="2" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="X176" s="2" t="n">
-        <v>10.2</v>
+        <v>8.88</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="A177" s="0"/>
       <c r="C177" s="0"/>
       <c r="D177" s="0"/>
       <c r="E177" s="0"/>
@@ -7403,25 +7471,23 @@
       <c r="K177" s="0"/>
       <c r="M177" s="0"/>
       <c r="T177" s="2" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="U177" s="2" t="n">
-        <v>20.32</v>
+        <v>12.62</v>
       </c>
       <c r="V177" s="2" t="n">
-        <v>1854.2</v>
+        <v>1151.575</v>
       </c>
       <c r="W177" s="2" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="X177" s="2" t="n">
-        <v>10.42</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="A178" s="0"/>
       <c r="C178" s="0"/>
       <c r="D178" s="0"/>
       <c r="E178" s="0"/>
@@ -7431,19 +7497,19 @@
       <c r="K178" s="0"/>
       <c r="M178" s="0"/>
       <c r="T178" s="2" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="U178" s="2" t="n">
-        <v>22.52</v>
+        <v>13.72</v>
       </c>
       <c r="V178" s="2" t="n">
-        <v>2054.95</v>
+        <v>1251.95</v>
       </c>
       <c r="W178" s="2" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="X178" s="2" t="n">
-        <v>10.64</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7457,19 +7523,19 @@
       <c r="K179" s="0"/>
       <c r="M179" s="0"/>
       <c r="T179" s="2" t="n">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="U179" s="2" t="n">
-        <v>24.72</v>
+        <v>14.82</v>
       </c>
       <c r="V179" s="2" t="n">
-        <v>2255.7</v>
+        <v>1352.325</v>
       </c>
       <c r="W179" s="2" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="X179" s="2" t="n">
-        <v>10.86</v>
+        <v>9.54</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7483,19 +7549,19 @@
       <c r="K180" s="0"/>
       <c r="M180" s="0"/>
       <c r="T180" s="2" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="U180" s="2" t="n">
-        <v>26.92</v>
+        <v>15.92</v>
       </c>
       <c r="V180" s="2" t="n">
-        <v>2456.45</v>
+        <v>1452.7</v>
       </c>
       <c r="W180" s="2" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="X180" s="2" t="n">
-        <v>11.08</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7509,19 +7575,19 @@
       <c r="K181" s="0"/>
       <c r="M181" s="0"/>
       <c r="T181" s="2" t="n">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="U181" s="2" t="n">
-        <v>29.12</v>
+        <v>17.02</v>
       </c>
       <c r="V181" s="2" t="n">
-        <v>2657.2</v>
+        <v>1553.075</v>
       </c>
       <c r="W181" s="2" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="X181" s="2" t="n">
-        <v>11.3</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7535,23 +7601,25 @@
       <c r="K182" s="0"/>
       <c r="M182" s="0"/>
       <c r="T182" s="2" t="n">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="U182" s="2" t="n">
-        <v>31.3199999999999</v>
+        <v>18.12</v>
       </c>
       <c r="V182" s="2" t="n">
-        <v>2857.94999999999</v>
+        <v>1653.45</v>
       </c>
       <c r="W182" s="2" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="X182" s="2" t="n">
-        <v>11.52</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0"/>
+      <c r="A183" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="C183" s="0"/>
       <c r="D183" s="0"/>
       <c r="E183" s="0"/>
@@ -7561,23 +7629,25 @@
       <c r="K183" s="0"/>
       <c r="M183" s="0"/>
       <c r="T183" s="2" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="U183" s="2" t="n">
-        <v>33.5199999999999</v>
+        <v>20.32</v>
       </c>
       <c r="V183" s="2" t="n">
-        <v>3058.69999999999</v>
+        <v>1854.2</v>
       </c>
       <c r="W183" s="2" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="X183" s="2" t="n">
-        <v>11.74</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0"/>
+      <c r="A184" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="C184" s="0"/>
       <c r="D184" s="0"/>
       <c r="E184" s="0"/>
@@ -7587,19 +7657,19 @@
       <c r="K184" s="0"/>
       <c r="M184" s="0"/>
       <c r="T184" s="2" t="n">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="U184" s="2" t="n">
-        <v>35.7199999999999</v>
+        <v>22.52</v>
       </c>
       <c r="V184" s="2" t="n">
-        <v>3259.44999999999</v>
+        <v>2054.95</v>
       </c>
       <c r="W184" s="2" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="X184" s="2" t="n">
-        <v>11.96</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7613,19 +7683,19 @@
       <c r="K185" s="0"/>
       <c r="M185" s="0"/>
       <c r="T185" s="2" t="n">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="U185" s="2" t="n">
-        <v>37.9199999999999</v>
+        <v>24.72</v>
       </c>
       <c r="V185" s="2" t="n">
-        <v>3460.19999999999</v>
+        <v>2255.7</v>
       </c>
       <c r="W185" s="2" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="X185" s="2" t="n">
-        <v>12.18</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7639,19 +7709,19 @@
       <c r="K186" s="0"/>
       <c r="M186" s="0"/>
       <c r="T186" s="2" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="U186" s="2" t="n">
-        <v>40.1199999999999</v>
+        <v>26.92</v>
       </c>
       <c r="V186" s="2" t="n">
-        <v>3660.94999999999</v>
+        <v>2456.45</v>
       </c>
       <c r="W186" s="2" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="X186" s="2" t="n">
-        <v>12.4</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7665,19 +7735,19 @@
       <c r="K187" s="0"/>
       <c r="M187" s="0"/>
       <c r="T187" s="2" t="n">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="U187" s="2" t="n">
-        <v>42.3199999999999</v>
+        <v>29.12</v>
       </c>
       <c r="V187" s="2" t="n">
-        <v>3861.69999999999</v>
+        <v>2657.2</v>
       </c>
       <c r="W187" s="2" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X187" s="2" t="n">
-        <v>12.62</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7691,19 +7761,19 @@
       <c r="K188" s="0"/>
       <c r="M188" s="0"/>
       <c r="T188" s="2" t="n">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="U188" s="2" t="n">
-        <v>44.5199999999999</v>
+        <v>31.3199999999999</v>
       </c>
       <c r="V188" s="2" t="n">
-        <v>4062.44999999999</v>
+        <v>2857.94999999999</v>
       </c>
       <c r="W188" s="2" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="X188" s="2" t="n">
-        <v>12.84</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7716,11 +7786,20 @@
       <c r="J189" s="0"/>
       <c r="K189" s="0"/>
       <c r="M189" s="0"/>
+      <c r="T189" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="U189" s="2" t="n">
+        <v>33.5199999999999</v>
+      </c>
+      <c r="V189" s="2" t="n">
+        <v>3058.69999999999</v>
+      </c>
       <c r="W189" s="2" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="X189" s="2" t="n">
-        <v>13.06</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7733,11 +7812,20 @@
       <c r="J190" s="0"/>
       <c r="K190" s="0"/>
       <c r="M190" s="0"/>
+      <c r="T190" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="U190" s="2" t="n">
+        <v>35.7199999999999</v>
+      </c>
+      <c r="V190" s="2" t="n">
+        <v>3259.44999999999</v>
+      </c>
       <c r="W190" s="2" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="X190" s="2" t="n">
-        <v>13.28</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7750,11 +7838,20 @@
       <c r="J191" s="0"/>
       <c r="K191" s="0"/>
       <c r="M191" s="0"/>
+      <c r="T191" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="U191" s="2" t="n">
+        <v>37.9199999999999</v>
+      </c>
+      <c r="V191" s="2" t="n">
+        <v>3460.19999999999</v>
+      </c>
       <c r="W191" s="2" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="X191" s="2" t="n">
-        <v>13.5</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7767,11 +7864,20 @@
       <c r="J192" s="0"/>
       <c r="K192" s="0"/>
       <c r="M192" s="0"/>
+      <c r="T192" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="U192" s="2" t="n">
+        <v>40.1199999999999</v>
+      </c>
+      <c r="V192" s="2" t="n">
+        <v>3660.94999999999</v>
+      </c>
       <c r="W192" s="2" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="X192" s="2" t="n">
-        <v>13.72</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7784,11 +7890,20 @@
       <c r="J193" s="0"/>
       <c r="K193" s="0"/>
       <c r="M193" s="0"/>
+      <c r="T193" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="U193" s="2" t="n">
+        <v>42.3199999999999</v>
+      </c>
+      <c r="V193" s="2" t="n">
+        <v>3861.69999999999</v>
+      </c>
       <c r="W193" s="2" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="X193" s="2" t="n">
-        <v>13.94</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7801,11 +7916,20 @@
       <c r="J194" s="0"/>
       <c r="K194" s="0"/>
       <c r="M194" s="0"/>
+      <c r="T194" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="U194" s="2" t="n">
+        <v>44.5199999999999</v>
+      </c>
+      <c r="V194" s="2" t="n">
+        <v>4062.44999999999</v>
+      </c>
       <c r="W194" s="2" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="X194" s="2" t="n">
-        <v>14.16</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7819,10 +7943,10 @@
       <c r="K195" s="0"/>
       <c r="M195" s="0"/>
       <c r="W195" s="2" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="X195" s="2" t="n">
-        <v>14.38</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7836,10 +7960,10 @@
       <c r="K196" s="0"/>
       <c r="M196" s="0"/>
       <c r="W196" s="2" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X196" s="2" t="n">
-        <v>14.6</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7853,10 +7977,10 @@
       <c r="K197" s="0"/>
       <c r="M197" s="0"/>
       <c r="W197" s="2" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="X197" s="2" t="n">
-        <v>14.82</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7870,10 +7994,10 @@
       <c r="K198" s="0"/>
       <c r="M198" s="0"/>
       <c r="W198" s="2" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X198" s="2" t="n">
-        <v>15.04</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7887,10 +8011,10 @@
       <c r="K199" s="0"/>
       <c r="M199" s="0"/>
       <c r="W199" s="2" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X199" s="2" t="n">
-        <v>15.26</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7904,10 +8028,10 @@
       <c r="K200" s="0"/>
       <c r="M200" s="0"/>
       <c r="W200" s="2" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="X200" s="2" t="n">
-        <v>15.48</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7921,10 +8045,10 @@
       <c r="K201" s="0"/>
       <c r="M201" s="0"/>
       <c r="W201" s="2" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="X201" s="2" t="n">
-        <v>15.7</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7938,10 +8062,10 @@
       <c r="K202" s="0"/>
       <c r="M202" s="0"/>
       <c r="W202" s="2" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="X202" s="2" t="n">
-        <v>15.92</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7955,10 +8079,10 @@
       <c r="K203" s="0"/>
       <c r="M203" s="0"/>
       <c r="W203" s="2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="X203" s="2" t="n">
-        <v>16.14</v>
+        <v>14.82</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7972,1305 +8096,1407 @@
       <c r="K204" s="0"/>
       <c r="M204" s="0"/>
       <c r="W204" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="X204" s="2" t="n">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0"/>
+      <c r="C205" s="0"/>
+      <c r="D205" s="0"/>
+      <c r="E205" s="0"/>
+      <c r="F205" s="0"/>
+      <c r="G205" s="0"/>
+      <c r="J205" s="0"/>
+      <c r="K205" s="0"/>
+      <c r="M205" s="0"/>
+      <c r="W205" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="X205" s="2" t="n">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0"/>
+      <c r="C206" s="0"/>
+      <c r="D206" s="0"/>
+      <c r="E206" s="0"/>
+      <c r="F206" s="0"/>
+      <c r="G206" s="0"/>
+      <c r="J206" s="0"/>
+      <c r="K206" s="0"/>
+      <c r="M206" s="0"/>
+      <c r="W206" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="X206" s="2" t="n">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0"/>
+      <c r="C207" s="0"/>
+      <c r="D207" s="0"/>
+      <c r="E207" s="0"/>
+      <c r="F207" s="0"/>
+      <c r="G207" s="0"/>
+      <c r="J207" s="0"/>
+      <c r="K207" s="0"/>
+      <c r="M207" s="0"/>
+      <c r="W207" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="X207" s="2" t="n">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0"/>
+      <c r="C208" s="0"/>
+      <c r="D208" s="0"/>
+      <c r="E208" s="0"/>
+      <c r="F208" s="0"/>
+      <c r="G208" s="0"/>
+      <c r="J208" s="0"/>
+      <c r="K208" s="0"/>
+      <c r="M208" s="0"/>
+      <c r="W208" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="X208" s="2" t="n">
+        <v>15.92</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0"/>
+      <c r="C209" s="0"/>
+      <c r="D209" s="0"/>
+      <c r="E209" s="0"/>
+      <c r="F209" s="0"/>
+      <c r="G209" s="0"/>
+      <c r="J209" s="0"/>
+      <c r="K209" s="0"/>
+      <c r="M209" s="0"/>
+      <c r="W209" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="X209" s="2" t="n">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0"/>
+      <c r="C210" s="0"/>
+      <c r="D210" s="0"/>
+      <c r="E210" s="0"/>
+      <c r="F210" s="0"/>
+      <c r="G210" s="0"/>
+      <c r="J210" s="0"/>
+      <c r="K210" s="0"/>
+      <c r="M210" s="0"/>
+      <c r="W210" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="X204" s="2" t="n">
+      <c r="X210" s="2" t="n">
         <v>16.36</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="J205" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K205" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="M205" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="W205" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="X205" s="2" t="n">
-        <v>16.58</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C206" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
-      <c r="W206" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="X206" s="2" t="n">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C207" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-      <c r="W207" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="X207" s="2" t="n">
-        <v>17.02</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C208" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
-      <c r="W208" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="X208" s="2" t="n">
-        <v>17.24</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C209" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="W209" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="X209" s="2" t="n">
-        <v>17.46</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C210" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="W210" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="X210" s="2" t="n">
-        <v>17.68</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C211" s="2" t="n">
-        <v>26</v>
+        <v>170</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
+      <c r="J211" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M211" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="W211" s="2" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="X211" s="2" t="n">
-        <v>17.9</v>
+        <v>16.58</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C212" s="2" t="n">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="W212" s="2" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="X212" s="2" t="n">
-        <v>18.12</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C213" s="2" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
       <c r="W213" s="2" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="X213" s="2" t="n">
-        <v>18.34</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C214" s="2" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
       <c r="W214" s="2" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="X214" s="2" t="n">
-        <v>18.56</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="C215" s="2" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
       <c r="W215" s="2" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="X215" s="2" t="n">
-        <v>18.78</v>
+        <v>17.46</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="C216" s="2" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
       <c r="W216" s="2" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X216" s="2" t="n">
-        <v>19</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C217" s="2" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="W217" s="2" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="X217" s="2" t="n">
-        <v>19.22</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="C218" s="2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
       <c r="W218" s="2" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="X218" s="2" t="n">
-        <v>19.44</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="C219" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
       <c r="W219" s="2" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="X219" s="2" t="n">
-        <v>19.66</v>
+        <v>18.34</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="C220" s="2" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="W220" s="2" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="X220" s="2" t="n">
-        <v>19.88</v>
+        <v>18.56</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C221" s="2" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
       <c r="W221" s="2" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="X221" s="2" t="n">
-        <v>20.1</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C222" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
       <c r="W222" s="2" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="X222" s="2" t="n">
-        <v>20.32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C223" s="2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
       <c r="W223" s="2" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="X223" s="2" t="n">
-        <v>20.54</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C224" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
       <c r="W224" s="2" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="X224" s="2" t="n">
-        <v>20.76</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C225" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
       <c r="W225" s="2" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="X225" s="2" t="n">
-        <v>20.98</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C226" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
       <c r="W226" s="2" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="X226" s="2" t="n">
-        <v>21.2</v>
+        <v>19.88</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C227" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
       <c r="W227" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="X227" s="2" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C228" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="W228" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="X228" s="2" t="n">
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C229" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="W229" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="X229" s="2" t="n">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C230" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="W230" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="X230" s="2" t="n">
+        <v>20.76</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C231" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="W231" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="X231" s="2" t="n">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C232" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="W232" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="X232" s="2" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="W233" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="X227" s="2" t="n">
+      <c r="X233" s="2" t="n">
         <v>21.42</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W228" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="X228" s="2" t="n">
-        <v>21.64</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W229" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="X229" s="2" t="n">
-        <v>21.86</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W230" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="X230" s="2" t="n">
-        <v>22.08</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W231" s="2" t="n">
-        <v>104</v>
-      </c>
-      <c r="X231" s="2" t="n">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W232" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="X232" s="2" t="n">
-        <v>22.52</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W233" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="X233" s="2" t="n">
-        <v>22.74</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W234" s="2" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="X234" s="2" t="n">
-        <v>22.96</v>
+        <v>21.64</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W235" s="2" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="X235" s="2" t="n">
-        <v>23.18</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W236" s="2" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="X236" s="2" t="n">
-        <v>23.4</v>
+        <v>22.08</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W237" s="2" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="X237" s="2" t="n">
-        <v>23.62</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W238" s="2" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="X238" s="2" t="n">
-        <v>23.84</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W239" s="2" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="X239" s="2" t="n">
-        <v>24.06</v>
+        <v>22.74</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W240" s="2" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="X240" s="2" t="n">
-        <v>24.28</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W241" s="2" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="X241" s="2" t="n">
-        <v>24.5</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W242" s="2" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X242" s="2" t="n">
-        <v>24.72</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W243" s="2" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="X243" s="2" t="n">
-        <v>24.94</v>
+        <v>23.62</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W244" s="2" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X244" s="2" t="n">
-        <v>25.16</v>
+        <v>23.84</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W245" s="2" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="X245" s="2" t="n">
-        <v>25.38</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W246" s="2" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="X246" s="2" t="n">
-        <v>25.6</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W247" s="2" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="X247" s="2" t="n">
-        <v>25.82</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W248" s="2" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="X248" s="2" t="n">
-        <v>26.04</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W249" s="2" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="X249" s="2" t="n">
-        <v>26.26</v>
+        <v>24.94</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W250" s="2" t="n">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="X250" s="2" t="n">
-        <v>26.48</v>
+        <v>25.16</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W251" s="2" t="n">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="X251" s="2" t="n">
-        <v>26.7</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W252" s="2" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="X252" s="2" t="n">
-        <v>26.92</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W253" s="2" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="X253" s="2" t="n">
-        <v>27.14</v>
+        <v>25.82</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W254" s="2" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="X254" s="2" t="n">
-        <v>27.36</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W255" s="2" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="X255" s="2" t="n">
-        <v>27.58</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W256" s="2" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="X256" s="2" t="n">
-        <v>27.8</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W257" s="2" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="X257" s="2" t="n">
-        <v>28.02</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W258" s="2" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="X258" s="2" t="n">
-        <v>28.24</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W259" s="2" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="X259" s="2" t="n">
-        <v>28.46</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W260" s="2" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="X260" s="2" t="n">
-        <v>28.68</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W261" s="2" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="X261" s="2" t="n">
-        <v>28.9</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W262" s="2" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="X262" s="2" t="n">
-        <v>29.12</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W263" s="2" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="X263" s="2" t="n">
-        <v>29.34</v>
+        <v>28.02</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W264" s="2" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="X264" s="2" t="n">
-        <v>29.56</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W265" s="2" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="X265" s="2" t="n">
-        <v>29.78</v>
+        <v>28.46</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W266" s="2" t="n">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="X266" s="2" t="n">
-        <v>30</v>
+        <v>28.68</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W267" s="2" t="n">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="X267" s="2" t="n">
-        <v>30.22</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W268" s="2" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="X268" s="2" t="n">
-        <v>30.44</v>
+        <v>29.12</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W269" s="2" t="n">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="X269" s="2" t="n">
-        <v>30.66</v>
+        <v>29.34</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W270" s="2" t="n">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="X270" s="2" t="n">
-        <v>30.88</v>
+        <v>29.56</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W271" s="2" t="n">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="X271" s="2" t="n">
-        <v>31.1</v>
+        <v>29.78</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W272" s="2" t="n">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="X272" s="2" t="n">
-        <v>31.32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W273" s="2" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="X273" s="2" t="n">
-        <v>31.54</v>
+        <v>30.22</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W274" s="2" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="X274" s="2" t="n">
-        <v>31.76</v>
+        <v>30.44</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W275" s="2" t="n">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="X275" s="2" t="n">
-        <v>31.98</v>
+        <v>30.66</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W276" s="2" t="n">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="X276" s="2" t="n">
-        <v>32.2</v>
+        <v>30.88</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W277" s="2" t="n">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="X277" s="2" t="n">
-        <v>32.42</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W278" s="2" t="n">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="X278" s="2" t="n">
-        <v>32.64</v>
+        <v>31.32</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W279" s="2" t="n">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="X279" s="2" t="n">
-        <v>32.86</v>
+        <v>31.54</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W280" s="2" t="n">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="X280" s="2" t="n">
-        <v>33.08</v>
+        <v>31.76</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W281" s="2" t="n">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="X281" s="2" t="n">
-        <v>33.3</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W282" s="2" t="n">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="X282" s="2" t="n">
-        <v>33.52</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W283" s="2" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="X283" s="2" t="n">
-        <v>33.74</v>
+        <v>32.42</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W284" s="2" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="X284" s="2" t="n">
-        <v>33.96</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W285" s="2" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="X285" s="2" t="n">
-        <v>34.18</v>
+        <v>32.86</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W286" s="2" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="X286" s="2" t="n">
-        <v>34.4</v>
+        <v>33.08</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W287" s="2" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="X287" s="2" t="n">
-        <v>34.62</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W288" s="2" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="X288" s="2" t="n">
-        <v>34.84</v>
+        <v>33.52</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W289" s="2" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X289" s="2" t="n">
-        <v>35.06</v>
+        <v>33.74</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W290" s="2" t="n">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="X290" s="2" t="n">
-        <v>35.28</v>
+        <v>33.96</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W291" s="2" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="X291" s="2" t="n">
-        <v>35.5</v>
+        <v>34.18</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W292" s="2" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="X292" s="2" t="n">
-        <v>35.72</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W293" s="2" t="n">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="X293" s="2" t="n">
-        <v>35.94</v>
+        <v>34.62</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W294" s="2" t="n">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="X294" s="2" t="n">
-        <v>36.16</v>
+        <v>34.84</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W295" s="2" t="n">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="X295" s="2" t="n">
-        <v>36.38</v>
+        <v>35.06</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W296" s="2" t="n">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="X296" s="2" t="n">
-        <v>36.6</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W297" s="2" t="n">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="X297" s="2" t="n">
-        <v>36.82</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W298" s="2" t="n">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="X298" s="2" t="n">
-        <v>37.04</v>
+        <v>35.72</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W299" s="2" t="n">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="X299" s="2" t="n">
-        <v>37.26</v>
+        <v>35.94</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W300" s="2" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="X300" s="2" t="n">
-        <v>37.48</v>
+        <v>36.16</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W301" s="2" t="n">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="X301" s="2" t="n">
-        <v>37.7</v>
+        <v>36.38</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W302" s="2" t="n">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="X302" s="2" t="n">
-        <v>37.92</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W303" s="2" t="n">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="X303" s="2" t="n">
-        <v>38.14</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W304" s="2" t="n">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="X304" s="2" t="n">
-        <v>38.36</v>
+        <v>37.04</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W305" s="2" t="n">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="X305" s="2" t="n">
-        <v>38.58</v>
+        <v>37.26</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W306" s="2" t="n">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="X306" s="2" t="n">
-        <v>38.8</v>
+        <v>37.48</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W307" s="2" t="n">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="X307" s="2" t="n">
-        <v>39.02</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W308" s="2" t="n">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="X308" s="2" t="n">
-        <v>39.24</v>
+        <v>37.92</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W309" s="2" t="n">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="X309" s="2" t="n">
-        <v>39.46</v>
+        <v>38.14</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W310" s="2" t="n">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="X310" s="2" t="n">
-        <v>39.68</v>
+        <v>38.36</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W311" s="2" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="X311" s="2" t="n">
-        <v>39.9</v>
+        <v>38.58</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W312" s="2" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="X312" s="2" t="n">
-        <v>40.12</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W313" s="2" t="n">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="X313" s="2" t="n">
-        <v>40.34</v>
+        <v>39.02</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W314" s="2" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="X314" s="2" t="n">
-        <v>40.56</v>
+        <v>39.24</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W315" s="2" t="n">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="X315" s="2" t="n">
-        <v>40.78</v>
+        <v>39.46</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W316" s="2" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="X316" s="2" t="n">
-        <v>41</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W317" s="2" t="n">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="X317" s="2" t="n">
-        <v>41.22</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W318" s="2" t="n">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="X318" s="2" t="n">
-        <v>41.44</v>
+        <v>40.12</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W319" s="2" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="X319" s="2" t="n">
-        <v>41.66</v>
+        <v>40.34</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W320" s="2" t="n">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="X320" s="2" t="n">
-        <v>41.88</v>
+        <v>40.56</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W321" s="2" t="n">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X321" s="2" t="n">
-        <v>42.1</v>
+        <v>40.78</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W322" s="2" t="n">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="X322" s="2" t="n">
-        <v>42.32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W323" s="2" t="n">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="X323" s="2" t="n">
-        <v>42.54</v>
+        <v>41.22</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W324" s="2" t="n">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="X324" s="2" t="n">
-        <v>42.76</v>
+        <v>41.44</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W325" s="2" t="n">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="X325" s="2" t="n">
-        <v>42.98</v>
+        <v>41.66</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W326" s="2" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="X326" s="2" t="n">
-        <v>43.2</v>
+        <v>41.88</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W327" s="2" t="n">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="X327" s="2" t="n">
-        <v>43.42</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W328" s="2" t="n">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="X328" s="2" t="n">
-        <v>43.64</v>
+        <v>42.32</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W329" s="2" t="n">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="X329" s="2" t="n">
-        <v>43.86</v>
+        <v>42.54</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W330" s="2" t="n">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="X330" s="2" t="n">
-        <v>44.08</v>
+        <v>42.76</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W331" s="2" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="X331" s="2" t="n">
-        <v>44.3</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W332" s="2" t="n">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="X332" s="2" t="n">
-        <v>44.52</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W333" s="2" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="X333" s="2" t="n">
-        <v>44.74</v>
+        <v>43.42</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W334" s="2" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="X334" s="2" t="n">
-        <v>44.96</v>
+        <v>43.64</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W335" s="2" t="n">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="X335" s="2" t="n">
-        <v>45.18</v>
+        <v>43.86</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W336" s="2" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="X336" s="2" t="n">
-        <v>45.4</v>
+        <v>44.08</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W337" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="X337" s="2" t="n">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W338" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="X338" s="2" t="n">
+        <v>44.52</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W339" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="X339" s="2" t="n">
+        <v>44.74</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W340" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="X340" s="2" t="n">
+        <v>44.96</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W341" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="X341" s="2" t="n">
+        <v>45.18</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W342" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="X342" s="2" t="n">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W343" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="X337" s="2" t="n">
+      <c r="X343" s="2" t="n">
         <v>45.62</v>
       </c>
     </row>

--- a/Modding resources/economy spreadsheets/size_modifier.xlsx
+++ b/Modding resources/economy spreadsheets/size_modifier.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="189">
   <si>
     <t>Name</t>
   </si>
@@ -719,36 +719,36 @@
   <dimension ref="A1:X343"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B129" activeCellId="0" sqref="B129"/>
+      <selection pane="bottomLeft" activeCell="D81" activeCellId="0" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.2744186046512"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.16744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.26046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.62790697674419"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.38604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.75348837209302"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="4.67441860465116"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="5.16744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="16" min="14" style="1" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="16" min="14" style="1" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.5209302325581"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="4.06046511627907"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="11.8139534883721"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="1" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="1" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="1" width="15.3813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3849,14 +3849,24 @@
       <c r="A79" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="0"/>
-      <c r="C79" s="0"/>
-      <c r="D79" s="0"/>
-      <c r="E79" s="0"/>
+      <c r="B79" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="F79" s="0"/>
       <c r="G79" s="0"/>
       <c r="H79" s="0"/>
-      <c r="I79" s="0"/>
+      <c r="I79" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="J79" s="0"/>
       <c r="K79" s="0"/>
       <c r="L79" s="0"/>
@@ -3905,7 +3915,9 @@
       <c r="A81" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="0"/>
+      <c r="B81" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="C81" s="0"/>
       <c r="D81" s="0"/>
       <c r="E81" s="0"/>
@@ -6147,7 +6159,9 @@
       <c r="A142" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B142" s="0"/>
+      <c r="B142" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="C142" s="0"/>
       <c r="D142" s="0"/>
       <c r="E142" s="0"/>
@@ -6201,7 +6215,9 @@
       <c r="A144" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B144" s="0"/>
+      <c r="B144" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="C144" s="0"/>
       <c r="D144" s="0"/>
       <c r="E144" s="0"/>
